--- a/Calculated values/2017/2017 Q1 US Power Sector CO2 Emissions Intensity.xlsx
+++ b/Calculated values/2017/2017 Q1 US Power Sector CO2 Emissions Intensity.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gschivley\Documents\GitHub\Emissions-Index\Calculated values\2017\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly" sheetId="1" r:id="rId1"/>
     <sheet name="Quarterly" sheetId="2" r:id="rId2"/>
     <sheet name="Annual" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -243,11 +248,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +316,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,7 +370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,9 +402,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,6 +437,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,14 +613,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -642,10 +665,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>332493159.9999996</v>
+        <v>332493159.99999958</v>
       </c>
       <c r="D2">
-        <v>214991603731.115</v>
+        <v>214991603731.11499</v>
       </c>
       <c r="E2" s="2">
         <v>36892</v>
@@ -654,16 +677,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>646.6045909970456</v>
+        <v>646.60459099704565</v>
       </c>
       <c r="H2">
-        <v>0.07632579738758433</v>
+        <v>7.6325797387584327E-2</v>
       </c>
       <c r="I2">
-        <v>1425.504481312087</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1425.5044813120869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -671,10 +694,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>282940197.9999995</v>
+        <v>282940197.99999952</v>
       </c>
       <c r="D3">
-        <v>180313522171.5507</v>
+        <v>180313522171.55069</v>
       </c>
       <c r="E3" s="2">
         <v>36923</v>
@@ -683,16 +706,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>637.2849225600352</v>
+        <v>637.28492256003517</v>
       </c>
       <c r="H3">
-        <v>0.06081245321787206</v>
+        <v>6.0812453217872063E-2</v>
       </c>
       <c r="I3">
         <v>1404.958340275854</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -700,10 +723,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>300706544.0000007</v>
+        <v>300706544.00000072</v>
       </c>
       <c r="D4">
-        <v>189134111609.9665</v>
+        <v>189134111609.96649</v>
       </c>
       <c r="E4" s="2">
         <v>36951</v>
@@ -715,13 +738,13 @@
         <v>628.9657321523606</v>
       </c>
       <c r="H4">
-        <v>0.04696448589157699</v>
+        <v>4.6964485891576993E-2</v>
       </c>
       <c r="I4">
-        <v>1386.617853103094</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1386.6178531030939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -729,10 +752,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>278078870.9999998</v>
+        <v>278078870.99999982</v>
       </c>
       <c r="D5">
-        <v>174884591158.1307</v>
+        <v>174884591158.13071</v>
       </c>
       <c r="E5" s="2">
         <v>36982</v>
@@ -741,16 +764,16 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>628.9028379942279</v>
+        <v>628.90283799422787</v>
       </c>
       <c r="H5">
-        <v>0.04685979346308858</v>
+        <v>4.6859793463088578E-2</v>
       </c>
       <c r="I5">
-        <v>1386.479196642075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1386.4791966420751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -758,10 +781,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>300491620.9999992</v>
+        <v>300491620.99999923</v>
       </c>
       <c r="D6">
-        <v>189246638841.5373</v>
+        <v>189246638841.53729</v>
       </c>
       <c r="E6" s="2">
         <v>37012</v>
@@ -770,16 +793,16 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>629.7900693927763</v>
+        <v>629.79006939277633</v>
       </c>
       <c r="H6">
-        <v>0.04833666210244895</v>
+        <v>4.8336662102448948E-2</v>
       </c>
       <c r="I6">
-        <v>1388.435186983315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1388.4351869833149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -787,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>327693978.0000007</v>
+        <v>327693978.00000072</v>
       </c>
       <c r="D7">
-        <v>205173876211.648</v>
+        <v>205173876211.64801</v>
       </c>
       <c r="E7" s="2">
         <v>37043</v>
@@ -799,16 +822,16 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>626.1142711986229</v>
+        <v>626.11427119862287</v>
       </c>
       <c r="H7">
-        <v>0.04221799780985945</v>
+        <v>4.221799780985945E-2</v>
       </c>
       <c r="I7">
         <v>1380.331522284484</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -816,10 +839,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>357613700.0000007</v>
+        <v>357613700.00000072</v>
       </c>
       <c r="D8">
-        <v>229894248352.3088</v>
+        <v>229894248352.30881</v>
       </c>
       <c r="E8" s="2">
         <v>37073</v>
@@ -828,16 +851,16 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>642.8563792503151</v>
+        <v>642.85637925031506</v>
       </c>
       <c r="H8">
-        <v>0.07008659486219466</v>
+        <v>7.0086594862194665E-2</v>
       </c>
       <c r="I8">
-        <v>1417.241173695245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>1417.2411736952449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -845,10 +868,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>370532827.9999989</v>
+        <v>370532827.99999893</v>
       </c>
       <c r="D9">
-        <v>239206331644.1024</v>
+        <v>239206331644.10239</v>
       </c>
       <c r="E9" s="2">
         <v>37104</v>
@@ -857,16 +880,16 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>645.5739237336971</v>
+        <v>645.57392373369714</v>
       </c>
       <c r="H9">
-        <v>0.07461016811505736</v>
+        <v>7.4610168115057357E-2</v>
       </c>
       <c r="I9">
-        <v>1423.232272263309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>1423.2322722633089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -874,10 +897,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>306928866.0000004</v>
+        <v>306928866.00000042</v>
       </c>
       <c r="D10">
-        <v>193966469128.1157</v>
+        <v>193966469128.11569</v>
       </c>
       <c r="E10" s="2">
         <v>37135</v>
@@ -886,16 +909,16 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>631.9590322537974</v>
+        <v>631.95903225379743</v>
       </c>
       <c r="H10">
-        <v>0.05194707674131325</v>
+        <v>5.1947076741313249E-2</v>
       </c>
       <c r="I10">
         <v>1393.216882506722</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2001</v>
       </c>
@@ -906,7 +929,7 @@
         <v>294733613</v>
       </c>
       <c r="D11">
-        <v>183289082282.0956</v>
+        <v>183289082282.09561</v>
       </c>
       <c r="E11" s="2">
         <v>37165</v>
@@ -915,16 +938,16 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>621.8804852845055</v>
+        <v>621.88048528450554</v>
       </c>
       <c r="H11">
-        <v>0.03517051769074368</v>
+        <v>3.5170517690743683E-2</v>
       </c>
       <c r="I11">
         <v>1370.997717858221</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2001</v>
       </c>
@@ -932,10 +955,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>278933942.0000007</v>
+        <v>278933942.00000072</v>
       </c>
       <c r="D12">
-        <v>171919007670.8937</v>
+        <v>171919007670.89371</v>
       </c>
       <c r="E12" s="2">
         <v>37196</v>
@@ -944,16 +967,16 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <v>616.3430898305422</v>
+        <v>616.34308983054223</v>
       </c>
       <c r="H12">
-        <v>0.02595307373748125</v>
+        <v>2.595307373748125E-2</v>
       </c>
       <c r="I12">
         <v>1358.789975840413</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2001</v>
       </c>
@@ -961,10 +984,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>305496327.999999</v>
+        <v>305496327.99999899</v>
       </c>
       <c r="D13">
-        <v>186924666594.3604</v>
+        <v>186924666594.36041</v>
       </c>
       <c r="E13" s="2">
         <v>37226</v>
@@ -976,13 +999,13 @@
         <v>611.8720569183439</v>
       </c>
       <c r="H13">
-        <v>0.01851067674344261</v>
+        <v>1.851067674344261E-2</v>
       </c>
       <c r="I13">
-        <v>1348.933136682181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>1348.9331366821809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -990,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>319941476.000001</v>
+        <v>319941476.00000101</v>
       </c>
       <c r="D14">
         <v>194460587937.147</v>
@@ -1002,16 +1025,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>607.8004964168709</v>
+        <v>607.80049641687094</v>
       </c>
       <c r="H14">
-        <v>0.01173323398417878</v>
+        <v>1.1733233984178779E-2</v>
       </c>
       <c r="I14">
         <v>1339.956974400634</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -1022,7 +1045,7 @@
         <v>281825712.0000003</v>
       </c>
       <c r="D15">
-        <v>170244071363.6631</v>
+        <v>170244071363.66309</v>
       </c>
       <c r="E15" s="2">
         <v>37288</v>
@@ -1031,16 +1054,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>604.0757252257487</v>
+        <v>604.07572522574867</v>
       </c>
       <c r="H15">
-        <v>0.005533050165209737</v>
+        <v>5.5330501652097368E-3</v>
       </c>
       <c r="I15">
-        <v>1331.745343832686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>1331.7453438326861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -1048,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>302549011.0000007</v>
+        <v>302549011.00000072</v>
       </c>
       <c r="D16">
         <v>184661745934.793</v>
@@ -1060,16 +1083,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>610.353163358358</v>
+        <v>610.35316335835796</v>
       </c>
       <c r="H16">
-        <v>0.01598235519289828</v>
+        <v>1.5982355192898281E-2</v>
       </c>
       <c r="I16">
         <v>1345.584583939836</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -1077,10 +1100,10 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>289848253.0000004</v>
+        <v>289848253.00000042</v>
       </c>
       <c r="D17">
-        <v>174823799548.5544</v>
+        <v>174823799548.55441</v>
       </c>
       <c r="E17" s="2">
         <v>37347</v>
@@ -1089,16 +1112,16 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>603.1562989912316</v>
+        <v>603.15629899123155</v>
       </c>
       <c r="H17">
-        <v>0.004002590609579667</v>
+        <v>4.0025906095796666E-3</v>
       </c>
       <c r="I17">
-        <v>1329.718376756069</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>1329.7183767560689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2002</v>
       </c>
@@ -1106,10 +1129,10 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>307674568.9999987</v>
+        <v>307674568.99999869</v>
       </c>
       <c r="D18">
-        <v>185932599754.8485</v>
+        <v>185932599754.84851</v>
       </c>
       <c r="E18" s="2">
         <v>37377</v>
@@ -1118,16 +1141,16 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>604.3157884617017</v>
+        <v>604.31578846170169</v>
       </c>
       <c r="H18">
-        <v>0.005932654896537348</v>
+        <v>5.9326548965373477E-3</v>
       </c>
       <c r="I18">
-        <v>1332.274587242668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>1332.2745872426681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -1135,10 +1158,10 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>341023143.9999996</v>
+        <v>341023143.99999958</v>
       </c>
       <c r="D19">
-        <v>208003656290.3991</v>
+        <v>208003656290.39911</v>
       </c>
       <c r="E19" s="2">
         <v>37408</v>
@@ -1147,16 +1170,16 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>609.9399995280068</v>
+        <v>609.93999952800675</v>
       </c>
       <c r="H19">
-        <v>0.01529461047944247</v>
+        <v>1.529461047944247E-2</v>
       </c>
       <c r="I19">
-        <v>1344.673722959444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>1344.6737229594439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2002</v>
       </c>
@@ -1164,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>381542107.0000004</v>
+        <v>381542107.00000042</v>
       </c>
       <c r="D20">
         <v>238349682681.9473</v>
@@ -1176,16 +1199,16 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>624.7008608199226</v>
+        <v>624.70086081992258</v>
       </c>
       <c r="H20">
-        <v>0.03986526157186786</v>
+        <v>3.9865261571867858E-2</v>
       </c>
       <c r="I20">
-        <v>1377.215517763601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>1377.2155177636009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2002</v>
       </c>
@@ -1193,10 +1216,10 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>374585818.9999995</v>
+        <v>374585818.99999952</v>
       </c>
       <c r="D21">
-        <v>235465481107.5494</v>
+        <v>235465481107.54941</v>
       </c>
       <c r="E21" s="2">
         <v>37469</v>
@@ -1205,16 +1228,16 @@
         <v>3</v>
       </c>
       <c r="G21">
-        <v>628.6022298872711</v>
+        <v>628.60222988727105</v>
       </c>
       <c r="H21">
-        <v>0.04635940688228414</v>
+        <v>4.635940688228414E-2</v>
       </c>
       <c r="I21">
         <v>1385.816476009478</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2002</v>
       </c>
@@ -1222,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>331279434.0000011</v>
+        <v>331279434.00000107</v>
       </c>
       <c r="D22">
         <v>209104349231.2796</v>
@@ -1234,16 +1257,16 @@
         <v>3</v>
       </c>
       <c r="G22">
-        <v>631.2023258023283</v>
+        <v>631.20232580232835</v>
       </c>
       <c r="H22">
-        <v>0.05068747746517771</v>
+        <v>5.068747746517771E-2</v>
       </c>
       <c r="I22">
         <v>1391.548647463813</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2002</v>
       </c>
@@ -1251,10 +1274,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>307059460.0000001</v>
+        <v>307059460.00000012</v>
       </c>
       <c r="D23">
-        <v>194685131907.1703</v>
+        <v>194685131907.17029</v>
       </c>
       <c r="E23" s="2">
         <v>37530</v>
@@ -1263,16 +1286,16 @@
         <v>4</v>
       </c>
       <c r="G23">
-        <v>634.030724561198</v>
+        <v>634.03072456119799</v>
       </c>
       <c r="H23">
-        <v>0.0553955766526212</v>
+        <v>5.5395576652621202E-2</v>
       </c>
       <c r="I23">
         <v>1397.784135367617</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -1280,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>296289560.9999992</v>
+        <v>296289560.99999923</v>
       </c>
       <c r="D24">
         <v>184251033028.017</v>
@@ -1292,16 +1315,16 @@
         <v>4</v>
       </c>
       <c r="G24">
-        <v>621.861372389078</v>
+        <v>621.86137238907804</v>
       </c>
       <c r="H24">
-        <v>0.03513870272577465</v>
+        <v>3.513870272577465E-2</v>
       </c>
       <c r="I24">
-        <v>1370.955581568962</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>1370.9555815689621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -1309,10 +1332,10 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>324833704.9999995</v>
+        <v>324833704.99999952</v>
       </c>
       <c r="D25">
-        <v>202196082973.6177</v>
+        <v>202196082973.61771</v>
       </c>
       <c r="E25" s="2">
         <v>37591</v>
@@ -1321,16 +1344,16 @@
         <v>4</v>
       </c>
       <c r="G25">
-        <v>622.4602923320967</v>
+        <v>622.46029233209674</v>
       </c>
       <c r="H25">
-        <v>0.03613565355819439</v>
+        <v>3.613565355819439E-2</v>
       </c>
       <c r="I25">
         <v>1372.275960475341</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -1338,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>341988902.0099993</v>
+        <v>341988902.00999928</v>
       </c>
       <c r="D26">
         <v>216405212021.5058</v>
@@ -1350,16 +1373,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>632.7843118581035</v>
+        <v>632.78431185810348</v>
       </c>
       <c r="H26">
-        <v>0.05332082159332973</v>
+        <v>5.332082159332973E-2</v>
       </c>
       <c r="I26">
-        <v>1395.036293922375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>1395.0362939223751</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2003</v>
       </c>
@@ -1367,10 +1390,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>299248776.2700002</v>
+        <v>299248776.27000022</v>
       </c>
       <c r="D27">
-        <v>187834834096.5146</v>
+        <v>187834834096.51459</v>
       </c>
       <c r="E27" s="2">
         <v>37653</v>
@@ -1382,13 +1405,13 @@
         <v>627.6878937912137</v>
       </c>
       <c r="H27">
-        <v>0.04483742027505685</v>
+        <v>4.4837420275056848E-2</v>
       </c>
       <c r="I27">
-        <v>1383.80073065211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>1383.8007306521099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -1399,7 +1422,7 @@
         <v>304317265.0899989</v>
       </c>
       <c r="D28">
-        <v>187449604317.5673</v>
+        <v>187449604317.56729</v>
       </c>
       <c r="E28" s="2">
         <v>37681</v>
@@ -1411,13 +1434,13 @@
         <v>615.9676949716636</v>
       </c>
       <c r="H28">
-        <v>0.0253281985410421</v>
+        <v>2.53281985410421E-2</v>
       </c>
       <c r="I28">
-        <v>1357.96238033453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>1357.9623803345301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2003</v>
       </c>
@@ -1425,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>285755698.9999999</v>
+        <v>285755698.99999988</v>
       </c>
       <c r="D29">
         <v>170753276939.7348</v>
@@ -1437,16 +1460,16 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>597.5498565287928</v>
+        <v>597.54985652879282</v>
       </c>
       <c r="H29">
-        <v>-0.005329787690715381</v>
+        <v>-5.3297876907153806E-3</v>
       </c>
       <c r="I29">
         <v>1317.358413703377</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2003</v>
       </c>
@@ -1454,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>307544887.0000002</v>
+        <v>307544887.00000018</v>
       </c>
       <c r="D30">
         <v>183875128969.5246</v>
@@ -1466,16 +1489,16 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>597.8806240713881</v>
+        <v>597.88062407138807</v>
       </c>
       <c r="H30">
-        <v>-0.004779198282612347</v>
+        <v>-4.7791982826123468E-3</v>
       </c>
       <c r="I30">
         <v>1318.087623827782</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2003</v>
       </c>
@@ -1483,10 +1506,10 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>328693696.9999998</v>
+        <v>328693696.99999982</v>
       </c>
       <c r="D31">
-        <v>200739937883.4752</v>
+        <v>200739937883.47519</v>
       </c>
       <c r="E31" s="2">
         <v>37773</v>
@@ -1495,16 +1518,16 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>610.720374974137</v>
+        <v>610.72037497413703</v>
       </c>
       <c r="H31">
-        <v>0.0165936087173342</v>
+        <v>1.6593608717334202E-2</v>
       </c>
       <c r="I31">
         <v>1346.394138667983</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2003</v>
       </c>
@@ -1512,10 +1535,10 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>374396049.0000001</v>
+        <v>374396049.00000012</v>
       </c>
       <c r="D32">
-        <v>233302449123.3292</v>
+        <v>233302449123.32919</v>
       </c>
       <c r="E32" s="2">
         <v>37803</v>
@@ -1527,13 +1550,13 @@
         <v>623.1434593032501</v>
       </c>
       <c r="H32">
-        <v>0.0372728404034682</v>
+        <v>3.7272840403468198E-2</v>
       </c>
       <c r="I32">
         <v>1373.782070379945</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2003</v>
       </c>
@@ -1541,10 +1564,10 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>381816317.9999992</v>
+        <v>381816317.99999923</v>
       </c>
       <c r="D33">
-        <v>238794593456.4777</v>
+        <v>238794593456.47769</v>
       </c>
       <c r="E33" s="2">
         <v>37834</v>
@@ -1553,16 +1576,16 @@
         <v>3</v>
       </c>
       <c r="G33">
-        <v>625.417464364313</v>
+        <v>625.41746436431299</v>
       </c>
       <c r="H33">
-        <v>0.04105810630583032</v>
+        <v>4.1058106305830323E-2</v>
       </c>
       <c r="I33">
         <v>1378.795341937564</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2003</v>
       </c>
@@ -1570,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>323135534.0000007</v>
+        <v>323135534.00000072</v>
       </c>
       <c r="D34">
         <v>202045199841.8504</v>
@@ -1582,16 +1605,16 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <v>625.2645672878858</v>
+        <v>625.26456728788582</v>
       </c>
       <c r="H34">
-        <v>0.04080359671837141</v>
+        <v>4.0803596718371409E-2</v>
       </c>
       <c r="I34">
-        <v>1378.458265042873</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>1378.4582650428731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2003</v>
       </c>
@@ -1599,10 +1622,10 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>306740933.0000004</v>
+        <v>306740933.00000042</v>
       </c>
       <c r="D35">
-        <v>193501839366.6262</v>
+        <v>193501839366.62619</v>
       </c>
       <c r="E35" s="2">
         <v>37895</v>
@@ -1611,16 +1634,16 @@
         <v>4</v>
       </c>
       <c r="G35">
-        <v>630.831488559846</v>
+        <v>630.83148855984598</v>
       </c>
       <c r="H35">
-        <v>0.05007018879096588</v>
+        <v>5.0070188790965878E-2</v>
       </c>
       <c r="I35">
         <v>1390.731099679037</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2003</v>
       </c>
@@ -1628,7 +1651,7 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>297866709.9999991</v>
+        <v>297866709.99999911</v>
       </c>
       <c r="D36">
         <v>186484216006.1207</v>
@@ -1643,13 +1666,13 @@
         <v>626.0659877235737</v>
       </c>
       <c r="H36">
-        <v>0.04213762604865248</v>
+        <v>4.2137626048652482E-2</v>
       </c>
       <c r="I36">
-        <v>1380.225076535391</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>1380.2250765353911</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2003</v>
       </c>
@@ -1657,10 +1680,10 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>331680429.0000002</v>
+        <v>331680429.00000018</v>
       </c>
       <c r="D37">
-        <v>205800105605.2828</v>
+        <v>205800105605.28281</v>
       </c>
       <c r="E37" s="2">
         <v>37956</v>
@@ -1669,16 +1692,16 @@
         <v>4</v>
       </c>
       <c r="G37">
-        <v>620.4770846014634</v>
+        <v>620.47708460146339</v>
       </c>
       <c r="H37">
-        <v>0.03283444340320971</v>
+        <v>3.2834443403209707E-2</v>
       </c>
       <c r="I37">
-        <v>1367.903780712386</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>1367.9037807123859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2004</v>
       </c>
@@ -1686,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>346545627.0099999</v>
+        <v>346545627.00999987</v>
       </c>
       <c r="D38">
         <v>214495035413.8652</v>
@@ -1698,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>618.9517878627732</v>
+        <v>618.95178786277324</v>
       </c>
       <c r="H38">
-        <v>0.03029546324225559</v>
+        <v>3.0295463242255589E-2</v>
       </c>
       <c r="I38">
-        <v>1364.54111152227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>1364.5411115222701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2004</v>
       </c>
@@ -1715,10 +1738,10 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>314279909.5399997</v>
+        <v>314279909.53999972</v>
       </c>
       <c r="D39">
-        <v>191236506161.2517</v>
+        <v>191236506161.25171</v>
       </c>
       <c r="E39" s="2">
         <v>38018</v>
@@ -1727,16 +1750,16 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>608.4910309448597</v>
+        <v>608.49103094485974</v>
       </c>
       <c r="H39">
-        <v>0.01288268472549683</v>
+        <v>1.2882684725496829E-2</v>
       </c>
       <c r="I39">
-        <v>1341.479326821038</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>1341.4793268210381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2004</v>
       </c>
@@ -1744,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>308812095.5300006</v>
+        <v>308812095.53000063</v>
       </c>
       <c r="D40">
         <v>183735935059.5134</v>
@@ -1759,13 +1782,13 @@
         <v>594.9764847914247</v>
       </c>
       <c r="H40">
-        <v>-0.009613373711851551</v>
+        <v>-9.6133737118515514E-3</v>
       </c>
       <c r="I40">
         <v>1311.685158371175</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2004</v>
       </c>
@@ -1773,10 +1796,10 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>290559914.1900007</v>
+        <v>290559914.19000071</v>
       </c>
       <c r="D41">
-        <v>170788574680.9134</v>
+        <v>170788574680.91339</v>
       </c>
       <c r="E41" s="2">
         <v>38078</v>
@@ -1785,16 +1808,16 @@
         <v>2</v>
       </c>
       <c r="G41">
-        <v>587.7912483455395</v>
+        <v>587.79124834553954</v>
       </c>
       <c r="H41">
-        <v>-0.02157378267695122</v>
+        <v>-2.157378267695122E-2</v>
       </c>
       <c r="I41">
-        <v>1295.844586102577</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>1295.8445861025771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2004</v>
       </c>
@@ -1805,7 +1828,7 @@
         <v>327380263.6400004</v>
       </c>
       <c r="D42">
-        <v>194185917946.1063</v>
+        <v>194185917946.10629</v>
       </c>
       <c r="E42" s="2">
         <v>38108</v>
@@ -1814,16 +1837,16 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <v>593.1509608643984</v>
+        <v>593.15096086439837</v>
       </c>
       <c r="H42">
-        <v>-0.01265210638366412</v>
+        <v>-1.2652106383664119E-2</v>
       </c>
       <c r="I42">
-        <v>1307.660608321653</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>1307.6606083216529</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2004</v>
       </c>
@@ -1831,7 +1854,7 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>345085078.820001</v>
+        <v>345085078.82000101</v>
       </c>
       <c r="D43">
         <v>205833880422.995</v>
@@ -1843,16 +1866,16 @@
         <v>2</v>
       </c>
       <c r="G43">
-        <v>596.4728499036595</v>
+        <v>596.47284990365949</v>
       </c>
       <c r="H43">
-        <v>-0.007122552590204984</v>
+        <v>-7.1225525902049837E-3</v>
       </c>
       <c r="I43">
-        <v>1314.984044897608</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>1314.9840448976081</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2004</v>
       </c>
@@ -1860,7 +1883,7 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>377331697.1399992</v>
+        <v>377331697.13999921</v>
       </c>
       <c r="D44">
         <v>227314561161.4408</v>
@@ -1872,16 +1895,16 @@
         <v>3</v>
       </c>
       <c r="G44">
-        <v>602.4263609031011</v>
+        <v>602.42636090310111</v>
       </c>
       <c r="H44">
-        <v>0.002787549445799633</v>
+        <v>2.7875494457996332E-3</v>
       </c>
       <c r="I44">
         <v>1328.109155246977</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2004</v>
       </c>
@@ -1889,10 +1912,10 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>368439037.0700001</v>
+        <v>368439037.07000011</v>
       </c>
       <c r="D45">
-        <v>222671536515.5738</v>
+        <v>222671536515.57379</v>
       </c>
       <c r="E45" s="2">
         <v>38200</v>
@@ -1901,16 +1924,16 @@
         <v>3</v>
       </c>
       <c r="G45">
-        <v>604.364668538823</v>
+        <v>604.36466853882303</v>
       </c>
       <c r="H45">
-        <v>0.006014019750292665</v>
+        <v>6.0140197502926646E-3</v>
       </c>
       <c r="I45">
         <v>1332.382348260689</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2004</v>
       </c>
@@ -1918,10 +1941,10 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>335622197.8899994</v>
+        <v>335622197.88999939</v>
       </c>
       <c r="D46">
-        <v>201705117674.5031</v>
+        <v>201705117674.50311</v>
       </c>
       <c r="E46" s="2">
         <v>38231</v>
@@ -1930,16 +1953,16 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>600.9886084489922</v>
+        <v>600.98860844899218</v>
       </c>
       <c r="H46">
-        <v>0.0003942938485441806</v>
+        <v>3.942938485441806E-4</v>
       </c>
       <c r="I46">
-        <v>1324.939486186648</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>1324.9394861866481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2004</v>
       </c>
@@ -1947,10 +1970,10 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>312450222.8999999</v>
+        <v>312450222.89999992</v>
       </c>
       <c r="D47">
-        <v>188912682837.9395</v>
+        <v>188912682837.93951</v>
       </c>
       <c r="E47" s="2">
         <v>38261</v>
@@ -1959,16 +1982,16 @@
         <v>4</v>
       </c>
       <c r="G47">
-        <v>604.6168925230731</v>
+        <v>604.61689252307315</v>
       </c>
       <c r="H47">
-        <v>0.006433867033699174</v>
+        <v>6.4338670336991739E-3</v>
       </c>
       <c r="I47">
-        <v>1332.938401256367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>1332.9384012563669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2004</v>
       </c>
@@ -1976,7 +1999,7 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>302101256.2200002</v>
+        <v>302101256.22000021</v>
       </c>
       <c r="D48">
         <v>184184918201.0564</v>
@@ -1988,16 +2011,16 @@
         <v>4</v>
       </c>
       <c r="G48">
-        <v>609.6794184362039</v>
+        <v>609.67941843620395</v>
       </c>
       <c r="H48">
-        <v>0.01486085211254578</v>
+        <v>1.4860852112545781E-2</v>
       </c>
       <c r="I48">
-        <v>1344.099245884455</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>1344.0992458844551</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2004</v>
       </c>
@@ -2005,7 +2028,7 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>341947963.4200005</v>
+        <v>341947963.42000049</v>
       </c>
       <c r="D49">
         <v>206823144400.9866</v>
@@ -2017,16 +2040,16 @@
         <v>4</v>
       </c>
       <c r="G49">
-        <v>604.8380646354495</v>
+        <v>604.83806463544954</v>
       </c>
       <c r="H49">
-        <v>0.006802025957294732</v>
+        <v>6.8020259572947319E-3</v>
       </c>
       <c r="I49">
-        <v>1333.425997295312</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>1333.4259972953121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2005</v>
       </c>
@@ -2034,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>343121453.3700005</v>
+        <v>343121453.37000048</v>
       </c>
       <c r="D50">
-        <v>208453956490.8964</v>
+        <v>208453956490.89639</v>
       </c>
       <c r="E50" s="2">
         <v>38353</v>
@@ -2046,16 +2069,16 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>607.5223640012762</v>
+        <v>607.52236400127617</v>
       </c>
       <c r="H50">
-        <v>0.01127026001498261</v>
+        <v>1.127026001498261E-2</v>
       </c>
       <c r="I50">
-        <v>1339.343803677214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>1339.3438036772141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2005</v>
       </c>
@@ -2063,10 +2086,10 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>298500315.5999994</v>
+        <v>298500315.59999943</v>
       </c>
       <c r="D51">
-        <v>179621127012.9402</v>
+        <v>179621127012.94019</v>
       </c>
       <c r="E51" s="2">
         <v>38384</v>
@@ -2075,16 +2098,16 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>601.7451829218116</v>
+        <v>601.74518292181165</v>
       </c>
       <c r="H51">
-        <v>0.001653673435510682</v>
+        <v>1.653673435510682E-3</v>
       </c>
       <c r="I51">
         <v>1326.607430269426</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2005</v>
       </c>
@@ -2092,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>317458276.4500008</v>
+        <v>317458276.45000082</v>
       </c>
       <c r="D52">
         <v>190852185791.4971</v>
@@ -2104,16 +2127,16 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>601.188250392193</v>
+        <v>601.18825039219303</v>
       </c>
       <c r="H52">
-        <v>0.0007266140589162073</v>
+        <v>7.266140589162073E-4</v>
       </c>
       <c r="I52">
-        <v>1325.379616814629</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>1325.3796168146289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2005</v>
       </c>
@@ -2121,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>289562399.8599986</v>
+        <v>289562399.85999858</v>
       </c>
       <c r="D53">
         <v>168758363484.164</v>
@@ -2136,13 +2159,13 @@
         <v>582.8048239887413</v>
       </c>
       <c r="H53">
-        <v>-0.02987409054155817</v>
+        <v>-2.9874090541558169E-2</v>
       </c>
       <c r="I53">
-        <v>1284.851514965579</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>1284.8515149655791</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2005</v>
       </c>
@@ -2150,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>315062109.9400004</v>
+        <v>315062109.94000041</v>
       </c>
       <c r="D54">
         <v>182492641482.6265</v>
@@ -2162,16 +2185,16 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>579.227510148332</v>
+        <v>579.22751014833204</v>
       </c>
       <c r="H54">
-        <v>-0.03582881963781621</v>
+        <v>-3.5828819637816207E-2</v>
       </c>
       <c r="I54">
         <v>1276.964968873013</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2005</v>
       </c>
@@ -2179,10 +2202,10 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>363671636.0300001</v>
+        <v>363671636.03000009</v>
       </c>
       <c r="D55">
-        <v>216943649856.1274</v>
+        <v>216943649856.12741</v>
       </c>
       <c r="E55" s="2">
         <v>38504</v>
@@ -2194,13 +2217,13 @@
         <v>596.5371735458391</v>
       </c>
       <c r="H55">
-        <v>-0.007015480669553945</v>
+        <v>-7.0154806695539454E-3</v>
       </c>
       <c r="I55">
         <v>1315.125852799157</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2005</v>
       </c>
@@ -2208,7 +2231,7 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>402273846.439998</v>
+        <v>402273846.43999797</v>
       </c>
       <c r="D56">
         <v>241391677790.3952</v>
@@ -2220,16 +2243,16 @@
         <v>3</v>
       </c>
       <c r="G56">
-        <v>600.0680380458202</v>
+        <v>600.06803804582023</v>
       </c>
       <c r="H56">
-        <v>-0.001138070268632319</v>
+        <v>-1.138070268632319E-3</v>
       </c>
       <c r="I56">
-        <v>1322.909996675815</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>1322.9099966758149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2005</v>
       </c>
@@ -2237,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>404940681.0600004</v>
+        <v>404940681.06000042</v>
       </c>
       <c r="D57">
         <v>245152350886.9649</v>
@@ -2249,16 +2272,16 @@
         <v>3</v>
       </c>
       <c r="G57">
-        <v>605.4031179214628</v>
+        <v>605.40311792146281</v>
       </c>
       <c r="H57">
-        <v>0.007742602991702895</v>
+        <v>7.7426029917028946E-3</v>
       </c>
       <c r="I57">
-        <v>1334.671713769657</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>1334.6717137696569</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2005</v>
       </c>
@@ -2266,7 +2289,7 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>350217800.52</v>
+        <v>350217800.51999998</v>
       </c>
       <c r="D58">
         <v>214030432095.7713</v>
@@ -2278,16 +2301,16 @@
         <v>3</v>
       </c>
       <c r="G58">
-        <v>611.1352186495973</v>
+        <v>611.13521864959728</v>
       </c>
       <c r="H58">
-        <v>0.01728414966925111</v>
+        <v>1.7284149669251112E-2</v>
       </c>
       <c r="I58">
         <v>1347.308703034902</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2005</v>
       </c>
@@ -2295,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>316397923.61</v>
+        <v>316397923.61000001</v>
       </c>
       <c r="D59">
-        <v>194335522250.6903</v>
+        <v>194335522250.69031</v>
       </c>
       <c r="E59" s="2">
         <v>38626</v>
@@ -2307,16 +2330,16 @@
         <v>4</v>
       </c>
       <c r="G59">
-        <v>614.2123817798285</v>
+        <v>614.21238177982855</v>
       </c>
       <c r="H59">
-        <v>0.02240633733378778</v>
+        <v>2.2406337333787781E-2</v>
       </c>
       <c r="I59">
-        <v>1354.09261687181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>1354.0926168718099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2005</v>
       </c>
@@ -2324,10 +2347,10 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>306115236.2300003</v>
+        <v>306115236.23000032</v>
       </c>
       <c r="D60">
-        <v>184396022128.1465</v>
+        <v>184396022128.14651</v>
       </c>
       <c r="E60" s="2">
         <v>38657</v>
@@ -2336,16 +2359,16 @@
         <v>4</v>
       </c>
       <c r="G60">
-        <v>602.3745318890307</v>
+        <v>602.37453188903066</v>
       </c>
       <c r="H60">
-        <v>0.002701275847260578</v>
+        <v>2.701275847260578E-3</v>
       </c>
       <c r="I60">
-        <v>1327.994893002557</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>1327.9948930025571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2005</v>
       </c>
@@ -2353,10 +2376,10 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>348101070.5499986</v>
+        <v>348101070.54999858</v>
       </c>
       <c r="D61">
-        <v>209874326727.5937</v>
+        <v>209874326727.59369</v>
       </c>
       <c r="E61" s="2">
         <v>38687</v>
@@ -2365,16 +2388,16 @@
         <v>4</v>
       </c>
       <c r="G61">
-        <v>602.912040448462</v>
+        <v>602.91204044846199</v>
       </c>
       <c r="H61">
-        <v>0.003596002449712465</v>
+        <v>3.5960024497124648E-3</v>
       </c>
       <c r="I61">
         <v>1329.179884372679</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2006</v>
       </c>
@@ -2382,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>328657738.4999995</v>
+        <v>328657738.49999952</v>
       </c>
       <c r="D62">
-        <v>192052247883.4294</v>
+        <v>192052247883.42941</v>
       </c>
       <c r="E62" s="2">
         <v>38718</v>
@@ -2394,16 +2417,16 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <v>584.3533420510944</v>
+        <v>584.35334205109439</v>
       </c>
       <c r="H62">
-        <v>-0.02729645660354168</v>
+        <v>-2.7296456603541679E-2</v>
       </c>
       <c r="I62">
         <v>1288.265377885843</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2006</v>
       </c>
@@ -2411,10 +2434,10 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>307333430.0300008</v>
+        <v>307333430.03000081</v>
       </c>
       <c r="D63">
-        <v>181251578149.8578</v>
+        <v>181251578149.85779</v>
       </c>
       <c r="E63" s="2">
         <v>38749</v>
@@ -2426,13 +2449,13 @@
         <v>589.7554917216936</v>
       </c>
       <c r="H63">
-        <v>-0.01830414022847693</v>
+        <v>-1.8304140228476928E-2</v>
       </c>
       <c r="I63">
-        <v>1300.174957049646</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>1300.1749570496461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2006</v>
       </c>
@@ -2440,10 +2463,10 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>318729799.6299989</v>
+        <v>318729799.62999892</v>
       </c>
       <c r="D64">
-        <v>186893908748.7787</v>
+        <v>186893908748.77869</v>
       </c>
       <c r="E64" s="2">
         <v>38777</v>
@@ -2452,16 +2475,16 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>586.3709918737961</v>
+        <v>586.37099187379613</v>
       </c>
       <c r="H64">
-        <v>-0.02393791479220107</v>
+        <v>-2.393791479220107E-2</v>
       </c>
       <c r="I64">
         <v>1292.713488684971</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2006</v>
       </c>
@@ -2469,10 +2492,10 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>297858077.5400007</v>
+        <v>297858077.54000068</v>
       </c>
       <c r="D65">
-        <v>167657496188.0055</v>
+        <v>167657496188.00549</v>
       </c>
       <c r="E65" s="2">
         <v>38808</v>
@@ -2481,16 +2504,16 @@
         <v>2</v>
       </c>
       <c r="G65">
-        <v>562.8771177625358</v>
+        <v>562.87711776253582</v>
       </c>
       <c r="H65">
-        <v>-0.0630453741864096</v>
+        <v>-6.3045374186409597E-2</v>
       </c>
       <c r="I65">
         <v>1240.918893819286</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2006</v>
       </c>
@@ -2510,16 +2533,16 @@
         <v>2</v>
       </c>
       <c r="G66">
-        <v>568.6345910258128</v>
+        <v>568.63459102581282</v>
       </c>
       <c r="H66">
-        <v>-0.0534615928657746</v>
+        <v>-5.34615928657746E-2</v>
       </c>
       <c r="I66">
-        <v>1253.611819375507</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>1253.6118193755069</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2006</v>
       </c>
@@ -2527,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>364259797.5599995</v>
+        <v>364259797.55999953</v>
       </c>
       <c r="D67">
         <v>209524839979.8876</v>
@@ -2542,13 +2565,13 @@
         <v>575.207149906175</v>
       </c>
       <c r="H67">
-        <v>-0.04252103541183751</v>
+        <v>-4.2521035411837507E-2</v>
       </c>
       <c r="I67">
         <v>1268.101682683154</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2006</v>
       </c>
@@ -2556,10 +2579,10 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>410420793.3300014</v>
+        <v>410420793.33000141</v>
       </c>
       <c r="D68">
-        <v>243173478711.998</v>
+        <v>243173478711.99799</v>
       </c>
       <c r="E68" s="2">
         <v>38899</v>
@@ -2568,16 +2591,16 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>592.497950064808</v>
+        <v>592.49795006480804</v>
       </c>
       <c r="H68">
-        <v>-0.01373909583495767</v>
+        <v>-1.373909583495767E-2</v>
       </c>
       <c r="I68">
-        <v>1306.220980712876</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>1306.2209807128761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2006</v>
       </c>
@@ -2588,7 +2611,7 @@
         <v>407762536.3700003</v>
       </c>
       <c r="D69">
-        <v>243986833806.1641</v>
+        <v>243986833806.16409</v>
       </c>
       <c r="E69" s="2">
         <v>38930</v>
@@ -2597,16 +2620,16 @@
         <v>3</v>
       </c>
       <c r="G69">
-        <v>598.3551995192921</v>
+        <v>598.35519951929211</v>
       </c>
       <c r="H69">
-        <v>-0.003989228949734189</v>
+        <v>-3.9892289497341889E-3</v>
       </c>
       <c r="I69">
         <v>1319.133872860232</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2006</v>
       </c>
@@ -2614,10 +2637,10 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>332055320.8299997</v>
+        <v>332055320.82999969</v>
       </c>
       <c r="D70">
-        <v>196606003305.0474</v>
+        <v>196606003305.04739</v>
       </c>
       <c r="E70" s="2">
         <v>38961</v>
@@ -2626,16 +2649,16 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>592.0880978916841</v>
+        <v>592.08809789168413</v>
       </c>
       <c r="H70">
-        <v>-0.01442132802630108</v>
+        <v>-1.442132802630108E-2</v>
       </c>
       <c r="I70">
         <v>1305.317420612007</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2006</v>
       </c>
@@ -2643,10 +2666,10 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>321567091.3100004</v>
+        <v>321567091.31000042</v>
       </c>
       <c r="D71">
-        <v>194069474081.6894</v>
+        <v>194069474081.68939</v>
       </c>
       <c r="E71" s="2">
         <v>38991</v>
@@ -2655,16 +2678,16 @@
         <v>4</v>
       </c>
       <c r="G71">
-        <v>603.5116133653135</v>
+        <v>603.51161336531345</v>
       </c>
       <c r="H71">
-        <v>0.004594040210049203</v>
+        <v>4.5940402100492026E-3</v>
       </c>
       <c r="I71">
         <v>1330.50170282517</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2006</v>
       </c>
@@ -2672,7 +2695,7 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>309158826.4100009</v>
+        <v>309158826.41000092</v>
       </c>
       <c r="D72">
         <v>185024801937.5546</v>
@@ -2684,16 +2707,16 @@
         <v>4</v>
       </c>
       <c r="G72">
-        <v>598.4781482259154</v>
+        <v>598.47814822591545</v>
       </c>
       <c r="H72">
-        <v>-0.003784570853369488</v>
+        <v>-3.784570853369488E-3</v>
       </c>
       <c r="I72">
         <v>1319.404925578853</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2006</v>
       </c>
@@ -2701,10 +2724,10 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>336283245.9</v>
+        <v>336283245.89999998</v>
       </c>
       <c r="D73">
-        <v>198762141939.1735</v>
+        <v>198762141939.17349</v>
       </c>
       <c r="E73" s="2">
         <v>39052</v>
@@ -2716,13 +2739,13 @@
         <v>591.0557375739113</v>
       </c>
       <c r="H73">
-        <v>-0.01613977552526605</v>
+        <v>-1.6139775525266051E-2</v>
       </c>
       <c r="I73">
-        <v>1303.041479055445</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>1303.0414790554451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2007</v>
       </c>
@@ -2730,10 +2753,10 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>353531094.79</v>
+        <v>353531094.79000002</v>
       </c>
       <c r="D74">
-        <v>204946879741.1451</v>
+        <v>204946879741.14511</v>
       </c>
       <c r="E74" s="2">
         <v>39083</v>
@@ -2742,16 +2765,16 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>579.7138717398677</v>
+        <v>579.71387173986773</v>
       </c>
       <c r="H74">
-        <v>-0.03501923131271455</v>
+        <v>-3.5019231312714547E-2</v>
       </c>
       <c r="I74">
         <v>1278.037201637713</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2007</v>
       </c>
@@ -2759,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>323230394.8500009</v>
+        <v>323230394.85000092</v>
       </c>
       <c r="D75">
         <v>192531705323.9155</v>
@@ -2771,16 +2794,16 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <v>595.6485169448939</v>
+        <v>595.64851694489391</v>
       </c>
       <c r="H75">
-        <v>-0.008494721673922925</v>
+        <v>-8.4947216739229246E-3</v>
       </c>
       <c r="I75">
-        <v>1313.166720456713</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>1313.1667204567129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2007</v>
       </c>
@@ -2788,10 +2811,10 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>320471242.5499999</v>
+        <v>320471242.54999989</v>
       </c>
       <c r="D76">
-        <v>186602164323.0514</v>
+        <v>186602164323.05139</v>
       </c>
       <c r="E76" s="2">
         <v>39142</v>
@@ -2803,13 +2826,13 @@
         <v>582.2742871973536</v>
       </c>
       <c r="H76">
-        <v>-0.0307572120705181</v>
+        <v>-3.0757212070518101E-2</v>
       </c>
       <c r="I76">
         <v>1283.681893555286</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2007</v>
       </c>
@@ -2817,10 +2840,10 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>303129063.6199989</v>
+        <v>303129063.61999887</v>
       </c>
       <c r="D77">
-        <v>175271551711.1081</v>
+        <v>175271551711.10809</v>
       </c>
       <c r="E77" s="2">
         <v>39173</v>
@@ -2829,16 +2852,16 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <v>578.2076770138664</v>
+        <v>578.20767701386637</v>
       </c>
       <c r="H77">
-        <v>-0.03752641462390108</v>
+        <v>-3.7526414623901078E-2</v>
       </c>
       <c r="I77">
-        <v>1274.71664474477</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>1274.7166447447701</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2007</v>
       </c>
@@ -2849,7 +2872,7 @@
         <v>330202758.0400005</v>
       </c>
       <c r="D78">
-        <v>190957281287.9052</v>
+        <v>190957281287.90521</v>
       </c>
       <c r="E78" s="2">
         <v>39203</v>
@@ -2858,16 +2881,16 @@
         <v>2</v>
       </c>
       <c r="G78">
-        <v>578.3031081308316</v>
+        <v>578.30310813083156</v>
       </c>
       <c r="H78">
-        <v>-0.03736756178788152</v>
+        <v>-3.7367561787881517E-2</v>
       </c>
       <c r="I78">
-        <v>1274.927032185231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>1274.9270321852309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2007</v>
       </c>
@@ -2875,10 +2898,10 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <v>362754877.219999</v>
+        <v>362754877.21999902</v>
       </c>
       <c r="D79">
-        <v>214063446396.081</v>
+        <v>214063446396.08099</v>
       </c>
       <c r="E79" s="2">
         <v>39234</v>
@@ -2887,16 +2910,16 @@
         <v>2</v>
       </c>
       <c r="G79">
-        <v>590.1049436924826</v>
+        <v>590.10494369248261</v>
       </c>
       <c r="H79">
-        <v>-0.01772244907387475</v>
+        <v>-1.7722449073874751E-2</v>
       </c>
       <c r="I79">
-        <v>1300.945358864447</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>1300.9453588644469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2007</v>
       </c>
@@ -2904,7 +2927,7 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>393226432.2600009</v>
+        <v>393226432.26000088</v>
       </c>
       <c r="D80">
         <v>233092777913.2843</v>
@@ -2916,16 +2939,16 @@
         <v>3</v>
       </c>
       <c r="G80">
-        <v>592.7698618163175</v>
+        <v>592.76986181631753</v>
       </c>
       <c r="H80">
-        <v>-0.01328647666578161</v>
+        <v>-1.3286476665781611E-2</v>
       </c>
       <c r="I80">
-        <v>1306.820437360254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>1306.8204373602539</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2007</v>
       </c>
@@ -2933,10 +2956,10 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>421796659.2700003</v>
+        <v>421796659.27000028</v>
       </c>
       <c r="D81">
-        <v>251103823430.6484</v>
+        <v>251103823430.64841</v>
       </c>
       <c r="E81" s="2">
         <v>39295</v>
@@ -2945,16 +2968,16 @@
         <v>3</v>
       </c>
       <c r="G81">
-        <v>595.3196117419033</v>
+        <v>595.31961174190326</v>
       </c>
       <c r="H81">
-        <v>-0.009042211066672162</v>
+        <v>-9.0422110666721622E-3</v>
       </c>
       <c r="I81">
-        <v>1312.4416160462</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>1312.4416160461999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2007</v>
       </c>
@@ -2965,7 +2988,7 @@
         <v>355393911.8599999</v>
       </c>
       <c r="D82">
-        <v>212611573496.7715</v>
+        <v>212611573496.77151</v>
       </c>
       <c r="E82" s="2">
         <v>39326</v>
@@ -2974,16 +2997,16 @@
         <v>3</v>
       </c>
       <c r="G82">
-        <v>598.2420249802294</v>
+        <v>598.24202498022942</v>
       </c>
       <c r="H82">
-        <v>-0.004177617151266749</v>
+        <v>-4.1776171512667489E-3</v>
       </c>
       <c r="I82">
-        <v>1318.884368271414</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>1318.8843682714139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2007</v>
       </c>
@@ -2991,7 +3014,7 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>332615416.4000006</v>
+        <v>332615416.40000057</v>
       </c>
       <c r="D83">
         <v>199847703416.5307</v>
@@ -3003,16 +3026,16 @@
         <v>4</v>
       </c>
       <c r="G83">
-        <v>600.837163771734</v>
+        <v>600.83716377173403</v>
       </c>
       <c r="H83">
-        <v>0.0001422018973276854</v>
+        <v>1.4220189732768541E-4</v>
       </c>
       <c r="I83">
-        <v>1324.605611251165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>1324.6056112511651</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2007</v>
       </c>
@@ -3020,10 +3043,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>314102542.6199989</v>
+        <v>314102542.61999887</v>
       </c>
       <c r="D84">
-        <v>185940225767.8051</v>
+        <v>185940225767.80511</v>
       </c>
       <c r="E84" s="2">
         <v>39387</v>
@@ -3032,16 +3055,16 @@
         <v>4</v>
       </c>
       <c r="G84">
-        <v>591.97300415602</v>
+        <v>591.97300415602001</v>
       </c>
       <c r="H84">
-        <v>-0.01461291088627116</v>
+        <v>-1.461291088627116E-2</v>
       </c>
       <c r="I84">
         <v>1305.063684962362</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2007</v>
       </c>
@@ -3049,7 +3072,7 @@
         <v>12</v>
       </c>
       <c r="C85">
-        <v>346290330.5200016</v>
+        <v>346290330.52000159</v>
       </c>
       <c r="D85">
         <v>204768724427.2666</v>
@@ -3061,16 +3084,16 @@
         <v>4</v>
       </c>
       <c r="G85">
-        <v>591.3209419384561</v>
+        <v>591.32094193845614</v>
       </c>
       <c r="H85">
-        <v>-0.01569832134582812</v>
+        <v>-1.5698321345828121E-2</v>
       </c>
       <c r="I85">
         <v>1303.626148597521</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2008</v>
       </c>
@@ -3078,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>362998429.0500005</v>
+        <v>362998429.05000049</v>
       </c>
       <c r="D86">
-        <v>214455801953.3922</v>
+        <v>214455801953.39221</v>
       </c>
       <c r="E86" s="2">
         <v>39448</v>
@@ -3090,16 +3113,16 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>590.7898899580429</v>
+        <v>590.78988995804286</v>
       </c>
       <c r="H86">
-        <v>-0.01658230044871574</v>
+        <v>-1.6582300448715739E-2</v>
       </c>
       <c r="I86">
-        <v>1302.455391401501</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>1302.4553914015009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2008</v>
       </c>
@@ -3107,10 +3130,10 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>325105597.1100008</v>
+        <v>325105597.11000079</v>
       </c>
       <c r="D87">
-        <v>192790436164.8271</v>
+        <v>192790436164.82709</v>
       </c>
       <c r="E87" s="2">
         <v>39479</v>
@@ -3119,16 +3142,16 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>593.0086651187233</v>
+        <v>593.00866511872334</v>
       </c>
       <c r="H87">
-        <v>-0.01288896919605518</v>
+        <v>-1.2888969196055179E-2</v>
       </c>
       <c r="I87">
         <v>1307.346903120738</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2008</v>
       </c>
@@ -3136,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>324629849.5799997</v>
+        <v>324629849.57999969</v>
       </c>
       <c r="D88">
         <v>188163392092.3049</v>
@@ -3148,16 +3171,16 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>579.6244317512619</v>
+        <v>579.62443175126191</v>
       </c>
       <c r="H88">
-        <v>-0.0351681114295508</v>
+        <v>-3.51681114295508E-2</v>
       </c>
       <c r="I88">
         <v>1277.840022238832</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2008</v>
       </c>
@@ -3165,10 +3188,10 @@
         <v>4</v>
       </c>
       <c r="C89">
-        <v>305865031.2300007</v>
+        <v>305865031.23000067</v>
       </c>
       <c r="D89">
-        <v>175447149649.7177</v>
+        <v>175447149649.71771</v>
       </c>
       <c r="E89" s="2">
         <v>39539</v>
@@ -3177,16 +3200,16 @@
         <v>2</v>
       </c>
       <c r="G89">
-        <v>573.6097027639198</v>
+        <v>573.60970276391981</v>
       </c>
       <c r="H89">
-        <v>-0.04518011577271325</v>
+        <v>-4.5180115772713247E-2</v>
       </c>
       <c r="I89">
-        <v>1264.579950713338</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>1264.5799507133379</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2008</v>
       </c>
@@ -3194,10 +3217,10 @@
         <v>5</v>
       </c>
       <c r="C90">
-        <v>325244801.9200006</v>
+        <v>325244801.92000061</v>
       </c>
       <c r="D90">
-        <v>185687764805.7665</v>
+        <v>185687764805.76651</v>
       </c>
       <c r="E90" s="2">
         <v>39569</v>
@@ -3206,16 +3229,16 @@
         <v>2</v>
       </c>
       <c r="G90">
-        <v>570.9169330596695</v>
+        <v>570.91693305966953</v>
       </c>
       <c r="H90">
-        <v>-0.04966244939586186</v>
+        <v>-4.9662449395861862E-2</v>
       </c>
       <c r="I90">
         <v>1258.643470623347</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2008</v>
       </c>
@@ -3223,10 +3246,10 @@
         <v>6</v>
       </c>
       <c r="C91">
-        <v>373109026.9000002</v>
+        <v>373109026.90000021</v>
       </c>
       <c r="D91">
-        <v>213228975814.6966</v>
+        <v>213228975814.69659</v>
       </c>
       <c r="E91" s="2">
         <v>39600</v>
@@ -3235,16 +3258,16 @@
         <v>2</v>
       </c>
       <c r="G91">
-        <v>571.4924068879355</v>
+        <v>571.49240688793554</v>
       </c>
       <c r="H91">
-        <v>-0.04870452652350952</v>
+        <v>-4.8704526523509518E-2</v>
       </c>
       <c r="I91">
         <v>1259.912160225143</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2008</v>
       </c>
@@ -3252,10 +3275,10 @@
         <v>7</v>
       </c>
       <c r="C92">
-        <v>402900336.2500017</v>
+        <v>402900336.25000173</v>
       </c>
       <c r="D92">
-        <v>235536908214.8668</v>
+        <v>235536908214.86679</v>
       </c>
       <c r="E92" s="2">
         <v>39630</v>
@@ -3264,16 +3287,16 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <v>584.6034044228618</v>
+        <v>584.60340442286179</v>
       </c>
       <c r="H92">
-        <v>-0.02688020749947306</v>
+        <v>-2.688020749947306E-2</v>
       </c>
       <c r="I92">
         <v>1288.816665390641</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2008</v>
       </c>
@@ -3281,10 +3304,10 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>388986718.7900006</v>
+        <v>388986718.79000062</v>
       </c>
       <c r="D93">
-        <v>228963139679.0911</v>
+        <v>228963139679.09109</v>
       </c>
       <c r="E93" s="2">
         <v>39661</v>
@@ -3293,16 +3316,16 @@
         <v>3</v>
       </c>
       <c r="G93">
-        <v>588.6142858329816</v>
+        <v>588.61428583298164</v>
       </c>
       <c r="H93">
-        <v>-0.02020377001034608</v>
+        <v>-2.0203770010346081E-2</v>
       </c>
       <c r="I93">
         <v>1297.659054547391</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2008</v>
       </c>
@@ -3310,10 +3333,10 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>338056129.9899999</v>
+        <v>338056129.98999989</v>
       </c>
       <c r="D94">
-        <v>199735245439.8993</v>
+        <v>199735245439.89929</v>
       </c>
       <c r="E94" s="2">
         <v>39692</v>
@@ -3322,16 +3345,16 @@
         <v>3</v>
       </c>
       <c r="G94">
-        <v>590.8345618397976</v>
+        <v>590.83456183979763</v>
       </c>
       <c r="H94">
-        <v>-0.01650794047753712</v>
+        <v>-1.650794047753712E-2</v>
       </c>
       <c r="I94">
-        <v>1302.553875032018</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>1302.5538750320179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2008</v>
       </c>
@@ -3339,10 +3362,10 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>318547343.1100008</v>
+        <v>318547343.11000079</v>
       </c>
       <c r="D95">
-        <v>185610497238.8888</v>
+        <v>185610497238.88879</v>
       </c>
       <c r="E95" s="2">
         <v>39722</v>
@@ -3351,16 +3374,16 @@
         <v>4</v>
       </c>
       <c r="G95">
-        <v>582.6779009573899</v>
+        <v>582.67790095738985</v>
       </c>
       <c r="H95">
-        <v>-0.03008536422384915</v>
+        <v>-3.0085364223849151E-2</v>
       </c>
       <c r="I95">
-        <v>1284.571700450662</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>1284.5717004506621</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2008</v>
       </c>
@@ -3368,10 +3391,10 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>310046241.2000009</v>
+        <v>310046241.20000088</v>
       </c>
       <c r="D96">
-        <v>180479772828.3047</v>
+        <v>180479772828.30469</v>
       </c>
       <c r="E96" s="2">
         <v>39753</v>
@@ -3380,16 +3403,16 @@
         <v>4</v>
       </c>
       <c r="G96">
-        <v>582.1059856419384</v>
+        <v>582.10598564193845</v>
       </c>
       <c r="H96">
-        <v>-0.03103736366293791</v>
+        <v>-3.1037363662937911E-2</v>
       </c>
       <c r="I96">
         <v>1283.310855946218</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2008</v>
       </c>
@@ -3397,10 +3420,10 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>343898254.4800017</v>
+        <v>343898254.48000169</v>
       </c>
       <c r="D97">
-        <v>197035983230.9815</v>
+        <v>197035983230.98151</v>
       </c>
       <c r="E97" s="2">
         <v>39783</v>
@@ -3409,16 +3432,16 @@
         <v>4</v>
       </c>
       <c r="G97">
-        <v>572.9484830590773</v>
+        <v>572.94848305907726</v>
       </c>
       <c r="H97">
-        <v>-0.04628076961274498</v>
+        <v>-4.6280769612744979E-2</v>
       </c>
       <c r="I97">
-        <v>1263.122225752042</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>1263.1222257520419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2009</v>
       </c>
@@ -3426,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>354992636.2000003</v>
+        <v>354992636.20000029</v>
       </c>
       <c r="D98">
         <v>202322791511.4393</v>
@@ -3438,16 +3461,16 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>569.9351785918514</v>
+        <v>569.93517859185135</v>
       </c>
       <c r="H98">
-        <v>-0.05129665935218748</v>
+        <v>-5.1296659352187482E-2</v>
       </c>
       <c r="I98">
-        <v>1256.479094723596</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>1256.4790947235961</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2009</v>
       </c>
@@ -3455,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>300887397.7199998</v>
+        <v>300887397.71999979</v>
       </c>
       <c r="D99">
         <v>168223167269.6929</v>
@@ -3467,16 +3490,16 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>559.0901066127011</v>
+        <v>559.09010661270111</v>
       </c>
       <c r="H99">
-        <v>-0.06934916146586018</v>
+        <v>-6.9349161465860176E-2</v>
       </c>
       <c r="I99">
         <v>1232.570049038361</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2009</v>
       </c>
@@ -3484,7 +3507,7 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>310602963.8099998</v>
+        <v>310602963.80999982</v>
       </c>
       <c r="D100">
         <v>167251591699.0737</v>
@@ -3496,16 +3519,16 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>538.4739078065713</v>
+        <v>538.47390780657133</v>
       </c>
       <c r="H100">
-        <v>-0.1036664968638236</v>
+        <v>-0.10366649686382361</v>
       </c>
       <c r="I100">
-        <v>1187.119577150367</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>1187.1195771503669</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2009</v>
       </c>
@@ -3513,10 +3536,10 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>289537255.1399994</v>
+        <v>289537255.13999939</v>
       </c>
       <c r="D101">
-        <v>154228259620.7765</v>
+        <v>154228259620.77649</v>
       </c>
       <c r="E101" s="2">
         <v>39904</v>
@@ -3531,10 +3554,10 @@
         <v>-0.1133249855790472</v>
       </c>
       <c r="I101">
-        <v>1174.327707830064</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>1174.3277078300639</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2009</v>
       </c>
@@ -3542,7 +3565,7 @@
         <v>5</v>
       </c>
       <c r="C102">
-        <v>311305872.1500013</v>
+        <v>311305872.15000129</v>
       </c>
       <c r="D102">
         <v>163973978516.7988</v>
@@ -3557,13 +3580,13 @@
         <v>526.7294747263511</v>
       </c>
       <c r="H102">
-        <v>-0.1232160584907235</v>
+        <v>-0.12321605849072351</v>
       </c>
       <c r="I102">
         <v>1161.227799981714</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2009</v>
       </c>
@@ -3571,10 +3594,10 @@
         <v>6</v>
       </c>
       <c r="C103">
-        <v>347658241.2599995</v>
+        <v>347658241.25999951</v>
       </c>
       <c r="D103">
-        <v>188376728898.1724</v>
+        <v>188376728898.17239</v>
       </c>
       <c r="E103" s="2">
         <v>39965</v>
@@ -3583,16 +3606,16 @@
         <v>2</v>
       </c>
       <c r="G103">
-        <v>541.8445661332478</v>
+        <v>541.84456613324778</v>
       </c>
       <c r="H103">
-        <v>-0.09805576263506263</v>
+        <v>-9.8055762635062632E-2</v>
       </c>
       <c r="I103">
-        <v>1194.550530497358</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>1194.5505304973581</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2009</v>
       </c>
@@ -3600,10 +3623,10 @@
         <v>7</v>
       </c>
       <c r="C104">
-        <v>372542225.5499995</v>
+        <v>372542225.54999948</v>
       </c>
       <c r="D104">
-        <v>206365912460.0651</v>
+        <v>206365912460.06509</v>
       </c>
       <c r="E104" s="2">
         <v>39995</v>
@@ -3612,16 +3635,16 @@
         <v>3</v>
       </c>
       <c r="G104">
-        <v>553.9396565192</v>
+        <v>553.93965651919996</v>
       </c>
       <c r="H104">
-        <v>-0.07792250347576545</v>
+        <v>-7.7922503475765445E-2</v>
       </c>
       <c r="I104">
-        <v>1221.215366762228</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>1221.2153667622281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2009</v>
       </c>
@@ -3629,10 +3652,10 @@
         <v>8</v>
       </c>
       <c r="C105">
-        <v>381221416.9300001</v>
+        <v>381221416.93000013</v>
       </c>
       <c r="D105">
-        <v>214984985262.6471</v>
+        <v>214984985262.64709</v>
       </c>
       <c r="E105" s="2">
         <v>40026</v>
@@ -3641,16 +3664,16 @@
         <v>3</v>
       </c>
       <c r="G105">
-        <v>563.9373228134313</v>
+        <v>563.93732281343125</v>
       </c>
       <c r="H105">
-        <v>-0.06128057687026344</v>
+        <v>-6.1280576870263441E-2</v>
       </c>
       <c r="I105">
-        <v>1243.256221874491</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>1243.2562218744911</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2009</v>
       </c>
@@ -3658,10 +3681,10 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>327400611.8999987</v>
+        <v>327400611.89999872</v>
       </c>
       <c r="D106">
-        <v>180109412088.3986</v>
+        <v>180109412088.39859</v>
       </c>
       <c r="E106" s="2">
         <v>40057</v>
@@ -3670,16 +3693,16 @@
         <v>3</v>
       </c>
       <c r="G106">
-        <v>550.1193508563487</v>
+        <v>550.11935085634866</v>
       </c>
       <c r="H106">
-        <v>-0.08428171217314308</v>
+        <v>-8.4281712173143078E-2</v>
       </c>
       <c r="I106">
         <v>1212.793120897906</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2009</v>
       </c>
@@ -3687,10 +3710,10 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>307040340.6600006</v>
+        <v>307040340.66000062</v>
       </c>
       <c r="D107">
-        <v>172890026478.7242</v>
+        <v>172890026478.72421</v>
       </c>
       <c r="E107" s="2">
         <v>40087</v>
@@ -3699,16 +3722,16 @@
         <v>4</v>
       </c>
       <c r="G107">
-        <v>563.0857043315133</v>
+        <v>563.08570433151328</v>
       </c>
       <c r="H107">
-        <v>-0.06269816492080134</v>
+        <v>-6.2698164920801339E-2</v>
       </c>
       <c r="I107">
         <v>1241.378743769254</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2009</v>
       </c>
@@ -3716,10 +3739,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>296634669.9499992</v>
+        <v>296634669.94999921</v>
       </c>
       <c r="D108">
-        <v>164608806886.2336</v>
+        <v>164608806886.23361</v>
       </c>
       <c r="E108" s="2">
         <v>40118</v>
@@ -3728,16 +3751,16 @@
         <v>4</v>
       </c>
       <c r="G108">
-        <v>554.9209973128901</v>
+        <v>554.92099731289011</v>
       </c>
       <c r="H108">
-        <v>-0.07628898211358516</v>
+        <v>-7.628898211358516E-2</v>
       </c>
       <c r="I108">
         <v>1223.378830675998</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2009</v>
       </c>
@@ -3745,7 +3768,7 @@
         <v>12</v>
       </c>
       <c r="C109">
-        <v>350507295.2899995</v>
+        <v>350507295.28999949</v>
       </c>
       <c r="D109">
         <v>197021326287.8176</v>
@@ -3757,16 +3780,16 @@
         <v>4</v>
       </c>
       <c r="G109">
-        <v>562.1033540109569</v>
+        <v>562.10335401095688</v>
       </c>
       <c r="H109">
-        <v>-0.06433336672234817</v>
+        <v>-6.433336672234817E-2</v>
       </c>
       <c r="I109">
         <v>1239.213054252556</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2010</v>
       </c>
@@ -3774,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>360957166.9500012</v>
+        <v>360957166.95000118</v>
       </c>
       <c r="D110">
         <v>206090364787.9744</v>
@@ -3786,16 +3809,16 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <v>570.9551815507281</v>
+        <v>570.95518155072807</v>
       </c>
       <c r="H110">
-        <v>-0.04959878167959345</v>
+        <v>-4.9598781679593452E-2</v>
       </c>
       <c r="I110">
         <v>1258.727793246735</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2010</v>
       </c>
@@ -3803,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>319734726.6700015</v>
+        <v>319734726.67000151</v>
       </c>
       <c r="D111">
         <v>180661093140.4216</v>
@@ -3815,16 +3838,16 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>565.0343177357838</v>
+        <v>565.03431773578382</v>
       </c>
       <c r="H111">
-        <v>-0.05945453982850564</v>
+        <v>-5.945453982850564E-2</v>
       </c>
       <c r="I111">
-        <v>1245.674656880309</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>1245.6746568803089</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2010</v>
       </c>
@@ -3832,10 +3855,10 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>312167640.3300008</v>
+        <v>312167640.33000082</v>
       </c>
       <c r="D112">
-        <v>172934211898.0875</v>
+        <v>172934211898.08749</v>
       </c>
       <c r="E112" s="2">
         <v>40238</v>
@@ -3844,16 +3867,16 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>553.9786626034465</v>
+        <v>553.97866260344654</v>
       </c>
       <c r="H112">
-        <v>-0.07785757468417592</v>
+        <v>-7.7857574684175923E-2</v>
       </c>
       <c r="I112">
-        <v>1221.301359575558</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>1221.3013595755581</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2010</v>
       </c>
@@ -3861,10 +3884,10 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>287800226.5800002</v>
+        <v>287800226.58000022</v>
       </c>
       <c r="D113">
-        <v>155405863588.6466</v>
+        <v>155405863588.64661</v>
       </c>
       <c r="E113" s="2">
         <v>40269</v>
@@ -3873,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="G113">
-        <v>539.9782530937246</v>
+        <v>539.97825309372456</v>
       </c>
       <c r="H113">
         <v>-0.1011623920936352</v>
@@ -3882,7 +3905,7 @@
         <v>1190.436056770425</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2010</v>
       </c>
@@ -3890,7 +3913,7 @@
         <v>5</v>
       </c>
       <c r="C114">
-        <v>327936491.5600001</v>
+        <v>327936491.56000012</v>
       </c>
       <c r="D114">
         <v>179245232789.0975</v>
@@ -3902,16 +3925,16 @@
         <v>2</v>
       </c>
       <c r="G114">
-        <v>546.5851998855773</v>
+        <v>546.58519988557725</v>
       </c>
       <c r="H114">
-        <v>-0.09016459317130943</v>
+        <v>-9.0164593171309426E-2</v>
       </c>
       <c r="I114">
         <v>1205.001731667744</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2010</v>
       </c>
@@ -3919,10 +3942,10 @@
         <v>6</v>
       </c>
       <c r="C115">
-        <v>375759478.3999996</v>
+        <v>375759478.39999962</v>
       </c>
       <c r="D115">
-        <v>210875928962.9406</v>
+        <v>210875928962.94061</v>
       </c>
       <c r="E115" s="2">
         <v>40330</v>
@@ -3931,16 +3954,16 @@
         <v>2</v>
       </c>
       <c r="G115">
-        <v>561.1992273910417</v>
+        <v>561.19922739104175</v>
       </c>
       <c r="H115">
-        <v>-0.06583835882829495</v>
+        <v>-6.5838358828294946E-2</v>
       </c>
       <c r="I115">
-        <v>1237.219816706291</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>1237.2198167062911</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2010</v>
       </c>
@@ -3951,7 +3974,7 @@
         <v>409725440.37</v>
       </c>
       <c r="D116">
-        <v>235948042075.0941</v>
+        <v>235948042075.09409</v>
       </c>
       <c r="E116" s="2">
         <v>40360</v>
@@ -3960,16 +3983,16 @@
         <v>3</v>
       </c>
       <c r="G116">
-        <v>575.8686642987623</v>
+        <v>575.86866429876227</v>
       </c>
       <c r="H116">
-        <v>-0.04141989104014822</v>
+        <v>-4.1419891040148218E-2</v>
       </c>
       <c r="I116">
-        <v>1269.560057313051</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>1269.5600573130509</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2010</v>
       </c>
@@ -3977,7 +4000,7 @@
         <v>8</v>
       </c>
       <c r="C117">
-        <v>408884155.3800002</v>
+        <v>408884155.38000017</v>
       </c>
       <c r="D117">
         <v>236460078736.2309</v>
@@ -3989,16 +4012,16 @@
         <v>3</v>
       </c>
       <c r="G117">
-        <v>578.3058003714391</v>
+        <v>578.30580037143909</v>
       </c>
       <c r="H117">
-        <v>-0.03736308033498279</v>
+        <v>-3.7363080334982791E-2</v>
       </c>
       <c r="I117">
-        <v>1274.932967498875</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>1274.9329674988751</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2010</v>
       </c>
@@ -4006,10 +4029,10 @@
         <v>9</v>
       </c>
       <c r="C118">
-        <v>346045171.8299992</v>
+        <v>346045171.82999921</v>
       </c>
       <c r="D118">
-        <v>192843439755.7769</v>
+        <v>192843439755.77689</v>
       </c>
       <c r="E118" s="2">
         <v>40422</v>
@@ -4018,16 +4041,16 @@
         <v>3</v>
       </c>
       <c r="G118">
-        <v>557.278226816338</v>
+        <v>557.27822681633802</v>
       </c>
       <c r="H118">
-        <v>-0.0723651823753063</v>
+        <v>-7.23651823753063E-2</v>
       </c>
       <c r="I118">
-        <v>1228.575578839299</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>1228.5755788392989</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2010</v>
       </c>
@@ -4035,7 +4058,7 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>307920690.5699996</v>
+        <v>307920690.56999958</v>
       </c>
       <c r="D119">
         <v>168633379151.6488</v>
@@ -4047,16 +4070,16 @@
         <v>4</v>
       </c>
       <c r="G119">
-        <v>547.6519906456672</v>
+        <v>547.65199064566718</v>
       </c>
       <c r="H119">
-        <v>-0.08838883340794464</v>
+        <v>-8.8388833407944636E-2</v>
       </c>
       <c r="I119">
-        <v>1207.353578577438</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>1207.3535785774379</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2010</v>
       </c>
@@ -4076,16 +4099,16 @@
         <v>4</v>
       </c>
       <c r="G120">
-        <v>544.789284020902</v>
+        <v>544.78928402090196</v>
       </c>
       <c r="H120">
-        <v>-0.09315404082139034</v>
+        <v>-9.3154040821390338E-2</v>
       </c>
       <c r="I120">
         <v>1201.042455552481</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2010</v>
       </c>
@@ -4093,7 +4116,7 @@
         <v>12</v>
       </c>
       <c r="C121">
-        <v>362119081.2899988</v>
+        <v>362119081.28999883</v>
       </c>
       <c r="D121">
         <v>202457894749.1019</v>
@@ -4105,16 +4128,16 @@
         <v>4</v>
       </c>
       <c r="G121">
-        <v>559.0920368732678</v>
+        <v>559.09203687326783</v>
       </c>
       <c r="H121">
-        <v>-0.06934594839055484</v>
+        <v>-6.9345948390554843E-2</v>
       </c>
       <c r="I121">
-        <v>1232.574304490806</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>1232.5743044908061</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2011</v>
       </c>
@@ -4122,10 +4145,10 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>362871892.9499977</v>
+        <v>362871892.94999772</v>
       </c>
       <c r="D122">
-        <v>204327946188.628</v>
+        <v>204327946188.62799</v>
       </c>
       <c r="E122" s="2">
         <v>40544</v>
@@ -4134,16 +4157,16 @@
         <v>1</v>
       </c>
       <c r="G122">
-        <v>563.0856237652541</v>
+        <v>563.08562376525413</v>
       </c>
       <c r="H122">
-        <v>-0.06269829902987563</v>
+        <v>-6.2698299029875629E-2</v>
       </c>
       <c r="I122">
-        <v>1241.378566152879</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>1241.3785661528791</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2011</v>
       </c>
@@ -4151,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="C123">
-        <v>313126607.0699999</v>
+        <v>313126607.06999987</v>
       </c>
       <c r="D123">
         <v>169038673060.2861</v>
@@ -4163,16 +4186,16 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>539.8412950021117</v>
+        <v>539.84129500211168</v>
       </c>
       <c r="H123">
-        <v>-0.1013903699478236</v>
+        <v>-0.10139036994782361</v>
       </c>
       <c r="I123">
         <v>1190.134118961656</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2011</v>
       </c>
@@ -4180,10 +4203,10 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>318709940.9099999</v>
+        <v>318709940.90999991</v>
       </c>
       <c r="D124">
-        <v>166629094476.2693</v>
+        <v>166629094476.26929</v>
       </c>
       <c r="E124" s="2">
         <v>40603</v>
@@ -4195,13 +4218,13 @@
         <v>522.8236496185209</v>
       </c>
       <c r="H124">
-        <v>-0.1297176212420171</v>
+        <v>-0.12971762124201711</v>
       </c>
       <c r="I124">
-        <v>1152.617017948991</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>1152.6170179489909</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2011</v>
       </c>
@@ -4209,7 +4232,7 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <v>302400724.4599996</v>
+        <v>302400724.45999962</v>
       </c>
       <c r="D125">
         <v>156973428713.5278</v>
@@ -4221,7 +4244,7 @@
         <v>2</v>
       </c>
       <c r="G125">
-        <v>519.0907825827368</v>
+        <v>519.09078258273678</v>
       </c>
       <c r="H125">
         <v>-0.1359312812511996</v>
@@ -4230,7 +4253,7 @@
         <v>1144.387539281902</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2011</v>
       </c>
@@ -4238,10 +4261,10 @@
         <v>5</v>
       </c>
       <c r="C126">
-        <v>323628238.0600008</v>
+        <v>323628238.06000078</v>
       </c>
       <c r="D126">
-        <v>173595542613.9372</v>
+        <v>173595542613.93719</v>
       </c>
       <c r="E126" s="2">
         <v>40664</v>
@@ -4250,16 +4273,16 @@
         <v>2</v>
       </c>
       <c r="G126">
-        <v>536.4041891231768</v>
+        <v>536.40418912317682</v>
       </c>
       <c r="H126">
-        <v>-0.1071117115178637</v>
+        <v>-0.10711171151786369</v>
       </c>
       <c r="I126">
         <v>1182.556675340956</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2011</v>
       </c>
@@ -4267,10 +4290,10 @@
         <v>6</v>
       </c>
       <c r="C127">
-        <v>367727015.0200005</v>
+        <v>367727015.02000052</v>
       </c>
       <c r="D127">
-        <v>202661337086.8565</v>
+        <v>202661337086.85651</v>
       </c>
       <c r="E127" s="2">
         <v>40695</v>
@@ -4279,16 +4302,16 @@
         <v>2</v>
       </c>
       <c r="G127">
-        <v>551.1189790498092</v>
+        <v>551.11897904980924</v>
       </c>
       <c r="H127">
-        <v>-0.08261774995048314</v>
+        <v>-8.2617749950483141E-2</v>
       </c>
       <c r="I127">
         <v>1214.996901213209</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2011</v>
       </c>
@@ -4299,7 +4322,7 @@
         <v>418692754.6299997</v>
       </c>
       <c r="D128">
-        <v>235509636004.1016</v>
+        <v>235509636004.10159</v>
       </c>
       <c r="E128" s="2">
         <v>40725</v>
@@ -4308,16 +4331,16 @@
         <v>3</v>
       </c>
       <c r="G128">
-        <v>562.4879661751546</v>
+        <v>562.48796617515461</v>
       </c>
       <c r="H128">
-        <v>-0.06369314857345325</v>
+        <v>-6.3693148573453248E-2</v>
       </c>
       <c r="I128">
-        <v>1240.060970229746</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>1240.0609702297461</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2011</v>
       </c>
@@ -4325,10 +4348,10 @@
         <v>8</v>
       </c>
       <c r="C129">
-        <v>406511314.6900008</v>
+        <v>406511314.69000077</v>
       </c>
       <c r="D129">
-        <v>229260203242.5721</v>
+        <v>229260203242.57211</v>
       </c>
       <c r="E129" s="2">
         <v>40756</v>
@@ -4337,16 +4360,16 @@
         <v>3</v>
       </c>
       <c r="G129">
-        <v>563.9700420575066</v>
+        <v>563.97004205750659</v>
       </c>
       <c r="H129">
-        <v>-0.06122611303415766</v>
+        <v>-6.1226113034157661E-2</v>
       </c>
       <c r="I129">
         <v>1243.328354719979</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2011</v>
       </c>
@@ -4354,10 +4377,10 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>337931317.6100004</v>
+        <v>337931317.61000037</v>
       </c>
       <c r="D130">
-        <v>184637260284.4298</v>
+        <v>184637260284.42981</v>
       </c>
       <c r="E130" s="2">
         <v>40787</v>
@@ -4369,13 +4392,13 @@
         <v>546.375108380798</v>
       </c>
       <c r="H130">
-        <v>-0.09051430752464738</v>
+        <v>-9.0514307524647383E-2</v>
       </c>
       <c r="I130">
-        <v>1204.538563936307</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>1204.5385639363069</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2011</v>
       </c>
@@ -4383,10 +4406,10 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>308698503.5799988</v>
+        <v>308698503.57999879</v>
       </c>
       <c r="D131">
-        <v>163020604903.5063</v>
+        <v>163020604903.50629</v>
       </c>
       <c r="E131" s="2">
         <v>40817</v>
@@ -4395,16 +4418,16 @@
         <v>4</v>
       </c>
       <c r="G131">
-        <v>528.0900393521337</v>
+        <v>528.09003935213366</v>
       </c>
       <c r="H131">
         <v>-0.1209512882955651</v>
       </c>
       <c r="I131">
-        <v>1164.227300755714</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>1164.2273007557139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2011</v>
       </c>
@@ -4412,7 +4435,7 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>304102154.4400002</v>
+        <v>304102154.44000018</v>
       </c>
       <c r="D132">
         <v>156057738836.543</v>
@@ -4427,13 +4450,13 @@
         <v>513.1753805688129</v>
       </c>
       <c r="H132">
-        <v>-0.1457779477892258</v>
+        <v>-0.14577794778922579</v>
       </c>
       <c r="I132">
         <v>1131.346444002005</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2011</v>
       </c>
@@ -4441,7 +4464,7 @@
         <v>12</v>
       </c>
       <c r="C133">
-        <v>335740462.7599996</v>
+        <v>335740462.75999957</v>
       </c>
       <c r="D133">
         <v>172480800969.3779</v>
@@ -4453,16 +4476,16 @@
         <v>4</v>
       </c>
       <c r="G133">
-        <v>513.7325407592408</v>
+        <v>513.73254075924081</v>
       </c>
       <c r="H133">
-        <v>-0.1448505094527454</v>
+        <v>-0.14485050945274541</v>
       </c>
       <c r="I133">
-        <v>1132.574759357822</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>1132.5747593578219</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2012</v>
       </c>
@@ -4470,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>339526480.11</v>
+        <v>339526480.11000001</v>
       </c>
       <c r="D134">
         <v>170247829923.9166</v>
@@ -4482,16 +4505,16 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <v>501.4272520622238</v>
+        <v>501.42725206222377</v>
       </c>
       <c r="H134">
-        <v>-0.1653336607531075</v>
+        <v>-0.16533366075310749</v>
       </c>
       <c r="I134">
         <v>1105.446519896379</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2012</v>
       </c>
@@ -4499,10 +4522,10 @@
         <v>2</v>
       </c>
       <c r="C135">
-        <v>309389432.5400003</v>
+        <v>309389432.54000032</v>
       </c>
       <c r="D135">
-        <v>154575798513.2398</v>
+        <v>154575798513.23981</v>
       </c>
       <c r="E135" s="2">
         <v>40940</v>
@@ -4511,16 +4534,16 @@
         <v>1</v>
       </c>
       <c r="G135">
-        <v>499.6156373028513</v>
+        <v>499.61563730285133</v>
       </c>
       <c r="H135">
         <v>-0.1683492404869818</v>
       </c>
       <c r="I135">
-        <v>1101.452633997866</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>1101.4526339978661</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2012</v>
       </c>
@@ -4528,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>309089552.0700002</v>
+        <v>309089552.07000017</v>
       </c>
       <c r="D136">
         <v>148163169591.2052</v>
@@ -4540,16 +4563,16 @@
         <v>1</v>
       </c>
       <c r="G136">
-        <v>479.3535355658036</v>
+        <v>479.35353556580361</v>
       </c>
       <c r="H136">
         <v>-0.2020771525874015</v>
       </c>
       <c r="I136">
-        <v>1056.782804508371</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>1056.7828045083711</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2012</v>
       </c>
@@ -4557,7 +4580,7 @@
         <v>4</v>
       </c>
       <c r="C137">
-        <v>295229204.9300002</v>
+        <v>295229204.93000019</v>
       </c>
       <c r="D137">
         <v>139659379335.5679</v>
@@ -4569,16 +4592,16 @@
         <v>2</v>
       </c>
       <c r="G137">
-        <v>473.0540779957103</v>
+        <v>473.05407799571032</v>
       </c>
       <c r="H137">
-        <v>-0.2125631107551049</v>
+        <v>-0.21256311075510489</v>
       </c>
       <c r="I137">
         <v>1042.895020349343</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2012</v>
       </c>
@@ -4586,10 +4609,10 @@
         <v>5</v>
       </c>
       <c r="C138">
-        <v>336516155.9900011</v>
+        <v>336516155.99000108</v>
       </c>
       <c r="D138">
-        <v>166815373297.1386</v>
+        <v>166815373297.13861</v>
       </c>
       <c r="E138" s="2">
         <v>41030</v>
@@ -4598,16 +4621,16 @@
         <v>2</v>
       </c>
       <c r="G138">
-        <v>495.7128218892861</v>
+        <v>495.71282188928609</v>
       </c>
       <c r="H138">
         <v>-0.1748457933580102</v>
       </c>
       <c r="I138">
-        <v>1092.84848713712</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>1092.8484871371199</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2012</v>
       </c>
@@ -4615,10 +4638,10 @@
         <v>6</v>
       </c>
       <c r="C139">
-        <v>360825380.8999996</v>
+        <v>360825380.89999962</v>
       </c>
       <c r="D139">
-        <v>187525796587.812</v>
+        <v>187525796587.81201</v>
       </c>
       <c r="E139" s="2">
         <v>41061</v>
@@ -4627,16 +4650,16 @@
         <v>2</v>
       </c>
       <c r="G139">
-        <v>519.7134306906851</v>
+        <v>519.71343069068507</v>
       </c>
       <c r="H139">
-        <v>-0.1348948329633118</v>
+        <v>-0.13489483296331181</v>
       </c>
       <c r="I139">
-        <v>1145.760229300684</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>1145.7602293006839</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2012</v>
       </c>
@@ -4644,10 +4667,10 @@
         <v>7</v>
       </c>
       <c r="C140">
-        <v>414641217.4800014</v>
+        <v>414641217.48000139</v>
       </c>
       <c r="D140">
-        <v>227581970414.2741</v>
+        <v>227581970414.27411</v>
       </c>
       <c r="E140" s="2">
         <v>41091</v>
@@ -4656,16 +4679,16 @@
         <v>3</v>
       </c>
       <c r="G140">
-        <v>548.8648036425626</v>
+        <v>548.86480364256261</v>
       </c>
       <c r="H140">
-        <v>-0.08637000778539124</v>
+        <v>-8.6370007785391237E-2</v>
       </c>
       <c r="I140">
-        <v>1210.027346110394</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>1210.0273461103941</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2012</v>
       </c>
@@ -4673,7 +4696,7 @@
         <v>8</v>
       </c>
       <c r="C141">
-        <v>395699749.1599997</v>
+        <v>395699749.15999973</v>
       </c>
       <c r="D141">
         <v>214802597723.9902</v>
@@ -4685,16 +4708,16 @@
         <v>3</v>
       </c>
       <c r="G141">
-        <v>542.8423904234915</v>
+        <v>542.84239042349145</v>
       </c>
       <c r="H141">
-        <v>-0.09639480315564852</v>
+        <v>-9.6394803155648523E-2</v>
       </c>
       <c r="I141">
-        <v>1196.750333927629</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>1196.7503339276291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2012</v>
       </c>
@@ -4702,7 +4725,7 @@
         <v>9</v>
       </c>
       <c r="C142">
-        <v>334585562.6599988</v>
+        <v>334585562.65999877</v>
       </c>
       <c r="D142">
         <v>176523138568.7124</v>
@@ -4714,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="G142">
-        <v>527.5874343331807</v>
+        <v>527.58743433318068</v>
       </c>
       <c r="H142">
         <v>-0.1217879151233477</v>
@@ -4723,7 +4746,7 @@
         <v>1163.11925773093</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2012</v>
       </c>
@@ -4731,7 +4754,7 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>311651930.7100009</v>
+        <v>311651930.71000087</v>
       </c>
       <c r="D143">
         <v>162960519289.8992</v>
@@ -4746,13 +4769,13 @@
         <v>522.8926992964391</v>
       </c>
       <c r="H143">
-        <v>-0.1296026824514804</v>
+        <v>-0.12960268245148041</v>
       </c>
       <c r="I143">
-        <v>1152.76924486893</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>1152.7692448689299</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2012</v>
       </c>
@@ -4760,10 +4783,10 @@
         <v>11</v>
       </c>
       <c r="C144">
-        <v>305975851.0200003</v>
+        <v>305975851.02000028</v>
       </c>
       <c r="D144">
-        <v>164576843874.8134</v>
+        <v>164576843874.81339</v>
       </c>
       <c r="E144" s="2">
         <v>41214</v>
@@ -4772,16 +4795,16 @@
         <v>4</v>
       </c>
       <c r="G144">
-        <v>537.875271287523</v>
+        <v>537.87527128752299</v>
       </c>
       <c r="H144">
-        <v>-0.104662975914052</v>
+        <v>-0.10466297591405201</v>
       </c>
       <c r="I144">
-        <v>1185.799823080473</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>1185.7998230804731</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2012</v>
       </c>
@@ -4789,7 +4812,7 @@
         <v>12</v>
       </c>
       <c r="C145">
-        <v>334634749.14</v>
+        <v>334634749.13999999</v>
       </c>
       <c r="D145">
         <v>170853320851.3811</v>
@@ -4801,16 +4824,16 @@
         <v>4</v>
       </c>
       <c r="G145">
-        <v>510.5665842847116</v>
+        <v>510.56658428471161</v>
       </c>
       <c r="H145">
-        <v>-0.150120500842209</v>
+        <v>-0.15012050084220899</v>
       </c>
       <c r="I145">
-        <v>1125.595091714075</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>1125.5950917140749</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2013</v>
       </c>
@@ -4818,10 +4841,10 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>348967377.9199986</v>
+        <v>348967377.91999859</v>
       </c>
       <c r="D146">
-        <v>178397845815.8471</v>
+        <v>178397845815.84711</v>
       </c>
       <c r="E146" s="2">
         <v>41275</v>
@@ -4830,16 +4853,16 @@
         <v>1</v>
       </c>
       <c r="G146">
-        <v>511.2163975875852</v>
+        <v>511.21639758758522</v>
       </c>
       <c r="H146">
-        <v>-0.1490388338835966</v>
+        <v>-0.14903883388359659</v>
       </c>
       <c r="I146">
         <v>1127.027670121591</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2013</v>
       </c>
@@ -4847,10 +4870,10 @@
         <v>2</v>
       </c>
       <c r="C147">
-        <v>309728080.0200012</v>
+        <v>309728080.02000117</v>
       </c>
       <c r="D147">
-        <v>158954946025.1223</v>
+        <v>158954946025.12231</v>
       </c>
       <c r="E147" s="2">
         <v>41306</v>
@@ -4859,16 +4882,16 @@
         <v>1</v>
       </c>
       <c r="G147">
-        <v>513.2080566116497</v>
+        <v>513.20805661164968</v>
       </c>
       <c r="H147">
-        <v>-0.1457235558650863</v>
+        <v>-0.14572355586508631</v>
       </c>
       <c r="I147">
-        <v>1131.418481606043</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>1131.4184816060431</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2013</v>
       </c>
@@ -4876,7 +4899,7 @@
         <v>3</v>
       </c>
       <c r="C148">
-        <v>325398834.0400007</v>
+        <v>325398834.04000068</v>
       </c>
       <c r="D148">
         <v>168353222446.6665</v>
@@ -4888,16 +4911,16 @@
         <v>1</v>
       </c>
       <c r="G148">
-        <v>517.3750021057884</v>
+        <v>517.37500210578844</v>
       </c>
       <c r="H148">
-        <v>-0.1387873370474411</v>
+        <v>-0.13878733704744109</v>
       </c>
       <c r="I148">
         <v>1140.604929642421</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2013</v>
       </c>
@@ -4905,10 +4928,10 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>299332868.2999996</v>
+        <v>299332868.29999959</v>
       </c>
       <c r="D149">
-        <v>147114753908.7479</v>
+        <v>147114753908.74789</v>
       </c>
       <c r="E149" s="2">
         <v>41365</v>
@@ -4917,16 +4940,16 @@
         <v>2</v>
       </c>
       <c r="G149">
-        <v>491.4754425207507</v>
+        <v>491.47544252075068</v>
       </c>
       <c r="H149">
         <v>-0.1818992550735232</v>
       </c>
       <c r="I149">
-        <v>1083.506760581247</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>1083.5067605812469</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2013</v>
       </c>
@@ -4934,10 +4957,10 @@
         <v>5</v>
       </c>
       <c r="C150">
-        <v>322155640.4299989</v>
+        <v>322155640.42999887</v>
       </c>
       <c r="D150">
-        <v>159530991047.7253</v>
+        <v>159530991047.72531</v>
       </c>
       <c r="E150" s="2">
         <v>41395</v>
@@ -4946,16 +4969,16 @@
         <v>2</v>
       </c>
       <c r="G150">
-        <v>495.1985035394396</v>
+        <v>495.19850353943963</v>
       </c>
       <c r="H150">
-        <v>-0.175701917975307</v>
+        <v>-0.17570191797530699</v>
       </c>
       <c r="I150">
-        <v>1091.714620903049</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>1091.7146209030491</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2013</v>
       </c>
@@ -4963,7 +4986,7 @@
         <v>6</v>
       </c>
       <c r="C151">
-        <v>356822647.2400001</v>
+        <v>356822647.24000013</v>
       </c>
       <c r="D151">
         <v>186026531327.4711</v>
@@ -4975,16 +4998,16 @@
         <v>2</v>
       </c>
       <c r="G151">
-        <v>521.3417163018495</v>
+        <v>521.34171630184949</v>
       </c>
       <c r="H151">
-        <v>-0.1321844194691718</v>
+        <v>-0.13218441946917181</v>
       </c>
       <c r="I151">
-        <v>1149.349947759057</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>1149.3499477590569</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2013</v>
       </c>
@@ -4995,7 +5018,7 @@
         <v>394845620.8199994</v>
       </c>
       <c r="D152">
-        <v>210998316982.5652</v>
+        <v>210998316982.56519</v>
       </c>
       <c r="E152" s="2">
         <v>41456</v>
@@ -5004,16 +5027,16 @@
         <v>3</v>
       </c>
       <c r="G152">
-        <v>534.3818086278188</v>
+        <v>534.38180862781883</v>
       </c>
       <c r="H152">
-        <v>-0.1104781279176155</v>
+        <v>-0.11047812791761551</v>
       </c>
       <c r="I152">
         <v>1178.098135300889</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2013</v>
       </c>
@@ -5021,10 +5044,10 @@
         <v>8</v>
       </c>
       <c r="C153">
-        <v>385285745.1400011</v>
+        <v>385285745.14000112</v>
       </c>
       <c r="D153">
-        <v>206791058072.0198</v>
+        <v>206791058072.01981</v>
       </c>
       <c r="E153" s="2">
         <v>41487</v>
@@ -5033,16 +5056,16 @@
         <v>3</v>
       </c>
       <c r="G153">
-        <v>536.7212794153032</v>
+        <v>536.72127941530323</v>
       </c>
       <c r="H153">
         <v>-0.1065838890027303</v>
       </c>
       <c r="I153">
-        <v>1183.255732598978</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>1183.2557325989781</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2013</v>
       </c>
@@ -5050,7 +5073,7 @@
         <v>9</v>
       </c>
       <c r="C154">
-        <v>340940901.5700007</v>
+        <v>340940901.57000071</v>
       </c>
       <c r="D154">
         <v>181516374117.5791</v>
@@ -5062,16 +5085,16 @@
         <v>3</v>
       </c>
       <c r="G154">
-        <v>532.398351977464</v>
+        <v>532.39835197746402</v>
       </c>
       <c r="H154">
         <v>-0.1137797524196701</v>
       </c>
       <c r="I154">
-        <v>1173.725406769517</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>1173.7254067695169</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2013</v>
       </c>
@@ -5079,10 +5102,10 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>314925462.4800003</v>
+        <v>314925462.48000032</v>
       </c>
       <c r="D155">
-        <v>162302138771.8079</v>
+        <v>162302138771.80789</v>
       </c>
       <c r="E155" s="2">
         <v>41548</v>
@@ -5091,16 +5114,16 @@
         <v>4</v>
       </c>
       <c r="G155">
-        <v>515.3668347224069</v>
+        <v>515.36683472240691</v>
       </c>
       <c r="H155">
         <v>-0.1421300945692722</v>
       </c>
       <c r="I155">
-        <v>1136.177723829018</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>1136.1777238290181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2013</v>
       </c>
@@ -5108,10 +5131,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>314539641.849999</v>
+        <v>314539641.84999901</v>
       </c>
       <c r="D156">
-        <v>158849706359.9778</v>
+        <v>158849706359.97781</v>
       </c>
       <c r="E156" s="2">
         <v>41579</v>
@@ -5120,7 +5143,7 @@
         <v>4</v>
       </c>
       <c r="G156">
-        <v>505.0228499838241</v>
+        <v>505.02284998382407</v>
       </c>
       <c r="H156">
         <v>-0.1593484963204144</v>
@@ -5129,7 +5152,7 @@
         <v>1113.373375074339</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2013</v>
       </c>
@@ -5137,7 +5160,7 @@
         <v>12</v>
       </c>
       <c r="C157">
-        <v>353021247.7299989</v>
+        <v>353021247.72999889</v>
       </c>
       <c r="D157">
         <v>183693007434.1669</v>
@@ -5149,16 +5172,16 @@
         <v>4</v>
       </c>
       <c r="G157">
-        <v>520.3454710314227</v>
+        <v>520.34547103142268</v>
       </c>
       <c r="H157">
-        <v>-0.133842750542003</v>
+        <v>-0.13384275054200301</v>
       </c>
       <c r="I157">
         <v>1147.153625435875</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2014</v>
       </c>
@@ -5166,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>377878743.7700012</v>
+        <v>377878743.77000117</v>
       </c>
       <c r="D158">
         <v>200314714590.8685</v>
@@ -5178,16 +5201,16 @@
         <v>1</v>
       </c>
       <c r="G158">
-        <v>530.1031558228942</v>
+        <v>530.10315582289422</v>
       </c>
       <c r="H158">
         <v>-0.1176002926162979</v>
       </c>
       <c r="I158">
-        <v>1168.665417327153</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>1168.6654173271529</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2014</v>
       </c>
@@ -5195,10 +5218,10 @@
         <v>2</v>
       </c>
       <c r="C159">
-        <v>325012264.2899993</v>
+        <v>325012264.28999931</v>
       </c>
       <c r="D159">
-        <v>176806376432.7185</v>
+        <v>176806376432.71851</v>
       </c>
       <c r="E159" s="2">
         <v>41671</v>
@@ -5210,13 +5233,13 @@
         <v>543.9990912926263</v>
       </c>
       <c r="H159">
-        <v>-0.09446938072183818</v>
+        <v>-9.4469380721838178E-2</v>
       </c>
       <c r="I159">
-        <v>1199.300396663724</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>1199.3003966637241</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2014</v>
       </c>
@@ -5224,10 +5247,10 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>332730088.9900007</v>
+        <v>332730088.99000072</v>
       </c>
       <c r="D160">
-        <v>171566703650.7436</v>
+        <v>171566703650.74359</v>
       </c>
       <c r="E160" s="2">
         <v>41699</v>
@@ -5236,16 +5259,16 @@
         <v>1</v>
       </c>
       <c r="G160">
-        <v>515.6332695114314</v>
+        <v>515.63326951143142</v>
       </c>
       <c r="H160">
-        <v>-0.1416865922484699</v>
+        <v>-0.14168659224846991</v>
       </c>
       <c r="I160">
         <v>1136.765105964902</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2014</v>
       </c>
@@ -5253,10 +5276,10 @@
         <v>4</v>
       </c>
       <c r="C161">
-        <v>298619011.4099998</v>
+        <v>298619011.40999979</v>
       </c>
       <c r="D161">
-        <v>143707241936.9412</v>
+        <v>143707241936.94119</v>
       </c>
       <c r="E161" s="2">
         <v>41730</v>
@@ -5265,16 +5288,16 @@
         <v>2</v>
       </c>
       <c r="G161">
-        <v>481.2394269822061</v>
+        <v>481.23942698220611</v>
       </c>
       <c r="H161">
-        <v>-0.1989379333322213</v>
+        <v>-0.19893793333222129</v>
       </c>
       <c r="I161">
-        <v>1060.940440724972</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>1060.9404407249719</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2014</v>
       </c>
@@ -5282,10 +5305,10 @@
         <v>5</v>
       </c>
       <c r="C162">
-        <v>325816311.9099999</v>
+        <v>325816311.90999991</v>
       </c>
       <c r="D162">
-        <v>160043517832.8091</v>
+        <v>160043517832.80911</v>
       </c>
       <c r="E162" s="2">
         <v>41760</v>
@@ -5294,16 +5317,16 @@
         <v>2</v>
       </c>
       <c r="G162">
-        <v>491.2078124468422</v>
+        <v>491.20781244684218</v>
       </c>
       <c r="H162">
-        <v>-0.1823447470429821</v>
+        <v>-0.18234474704298209</v>
       </c>
       <c r="I162">
         <v>1082.916743320309</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2014</v>
       </c>
@@ -5311,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="C163">
-        <v>358944603.5300015</v>
+        <v>358944603.53000152</v>
       </c>
       <c r="D163">
-        <v>183559432020.1158</v>
+        <v>183559432020.11581</v>
       </c>
       <c r="E163" s="2">
         <v>41791</v>
@@ -5323,16 +5346,16 @@
         <v>2</v>
       </c>
       <c r="G163">
-        <v>511.3865209698674</v>
+        <v>511.38652096986738</v>
       </c>
       <c r="H163">
-        <v>-0.1487556497125614</v>
+        <v>-0.14875564971256139</v>
       </c>
       <c r="I163">
-        <v>1127.40272413017</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>1127.4027241301701</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2014</v>
       </c>
@@ -5340,10 +5363,10 @@
         <v>7</v>
       </c>
       <c r="C164">
-        <v>386928079.2699994</v>
+        <v>386928079.26999938</v>
       </c>
       <c r="D164">
-        <v>203546004030.5381</v>
+        <v>203546004030.53809</v>
       </c>
       <c r="E164" s="2">
         <v>41821</v>
@@ -5352,16 +5375,16 @@
         <v>3</v>
       </c>
       <c r="G164">
-        <v>526.0564299560777</v>
+        <v>526.05642995607775</v>
       </c>
       <c r="H164">
         <v>-0.124336396111471</v>
       </c>
       <c r="I164">
-        <v>1159.744005481169</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>1159.7440054811691</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2014</v>
       </c>
@@ -5369,10 +5392,10 @@
         <v>8</v>
       </c>
       <c r="C165">
-        <v>385480282.9199991</v>
+        <v>385480282.91999912</v>
       </c>
       <c r="D165">
-        <v>205688642210.9272</v>
+        <v>205688642210.92719</v>
       </c>
       <c r="E165" s="2">
         <v>41852</v>
@@ -5381,16 +5404,16 @@
         <v>3</v>
       </c>
       <c r="G165">
-        <v>533.5905656518752</v>
+        <v>533.59056565187518</v>
       </c>
       <c r="H165">
-        <v>-0.1117952160405078</v>
+        <v>-0.11179521604050779</v>
       </c>
       <c r="I165">
-        <v>1176.353761036124</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>1176.3537610361241</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2014</v>
       </c>
@@ -5398,7 +5421,7 @@
         <v>9</v>
       </c>
       <c r="C166">
-        <v>340932866.2200012</v>
+        <v>340932866.22000122</v>
       </c>
       <c r="D166">
         <v>175512757492.3775</v>
@@ -5410,16 +5433,16 @@
         <v>3</v>
       </c>
       <c r="G166">
-        <v>514.8015192501873</v>
+        <v>514.80151925018731</v>
       </c>
       <c r="H166">
-        <v>-0.1430711080338906</v>
+        <v>-0.14307110803389059</v>
       </c>
       <c r="I166">
         <v>1134.931429338963</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2014</v>
       </c>
@@ -5427,10 +5450,10 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>315486876.4400007</v>
+        <v>315486876.44000071</v>
       </c>
       <c r="D167">
-        <v>155351876772.524</v>
+        <v>155351876772.52399</v>
       </c>
       <c r="E167" s="2">
         <v>41913</v>
@@ -5442,13 +5465,13 @@
         <v>492.4194582213276</v>
       </c>
       <c r="H167">
-        <v>-0.180327864356821</v>
+        <v>-0.18032786435682099</v>
       </c>
       <c r="I167">
-        <v>1085.587937594739</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>1085.5879375947391</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2014</v>
       </c>
@@ -5456,10 +5479,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>318286810.6899995</v>
+        <v>318286810.68999952</v>
       </c>
       <c r="D168">
-        <v>156617340281.782</v>
+        <v>156617340281.78201</v>
       </c>
       <c r="E168" s="2">
         <v>41944</v>
@@ -5468,16 +5491,16 @@
         <v>4</v>
       </c>
       <c r="G168">
-        <v>492.0635572119951</v>
+        <v>492.06355721199509</v>
       </c>
       <c r="H168">
         <v>-0.1809202904592557</v>
       </c>
       <c r="I168">
-        <v>1084.803318229565</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>1084.8033182295651</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2014</v>
       </c>
@@ -5485,10 +5508,10 @@
         <v>12</v>
       </c>
       <c r="C169">
-        <v>338722724.0999991</v>
+        <v>338722724.09999913</v>
       </c>
       <c r="D169">
-        <v>165524312005.0776</v>
+        <v>165524312005.07761</v>
       </c>
       <c r="E169" s="2">
         <v>41974</v>
@@ -5497,16 +5520,16 @@
         <v>4</v>
       </c>
       <c r="G169">
-        <v>488.6720028745719</v>
+        <v>488.67200287457189</v>
       </c>
       <c r="H169">
-        <v>-0.1865658077930896</v>
+        <v>-0.18656580779308959</v>
       </c>
       <c r="I169">
-        <v>1077.326297537281</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>1077.3262975372811</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2015</v>
       </c>
@@ -5514,10 +5537,10 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>361201613.1300006</v>
+        <v>361201613.13000059</v>
       </c>
       <c r="D170">
-        <v>177592614038.5396</v>
+        <v>177592614038.53961</v>
       </c>
       <c r="E170" s="2">
         <v>42005</v>
@@ -5526,16 +5549,16 @@
         <v>1</v>
       </c>
       <c r="G170">
-        <v>491.6717079406342</v>
+        <v>491.67170794063418</v>
       </c>
       <c r="H170">
-        <v>-0.1815725553601328</v>
+        <v>-0.18157255536013281</v>
       </c>
       <c r="I170">
-        <v>1083.939447325922</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>1083.9394473259219</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2015</v>
       </c>
@@ -5543,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="C171">
-        <v>335291310.930001</v>
+        <v>335291310.93000102</v>
       </c>
       <c r="D171">
         <v>169590219137.9678</v>
@@ -5555,16 +5578,16 @@
         <v>1</v>
       </c>
       <c r="G171">
-        <v>505.7996244148816</v>
+        <v>505.79962441488158</v>
       </c>
       <c r="H171">
-        <v>-0.158055492264243</v>
+        <v>-0.15805549226424301</v>
       </c>
       <c r="I171">
-        <v>1115.085851985048</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>1115.0858519850481</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2015</v>
       </c>
@@ -5572,10 +5595,10 @@
         <v>3</v>
       </c>
       <c r="C172">
-        <v>325325470.7699997</v>
+        <v>325325470.76999968</v>
       </c>
       <c r="D172">
-        <v>152204676402.3637</v>
+        <v>152204676402.36371</v>
       </c>
       <c r="E172" s="2">
         <v>42064</v>
@@ -5584,16 +5607,16 @@
         <v>1</v>
       </c>
       <c r="G172">
-        <v>467.8535499913874</v>
+        <v>467.85354999138741</v>
       </c>
       <c r="H172">
-        <v>-0.2212198115101338</v>
+        <v>-0.22121981151013381</v>
       </c>
       <c r="I172">
-        <v>1031.429936311013</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>1031.4299363110131</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2015</v>
       </c>
@@ -5601,10 +5624,10 @@
         <v>4</v>
       </c>
       <c r="C173">
-        <v>295396870.7600003</v>
+        <v>295396870.76000029</v>
       </c>
       <c r="D173">
-        <v>130425140639.7763</v>
+        <v>130425140639.77631</v>
       </c>
       <c r="E173" s="2">
         <v>42095</v>
@@ -5613,16 +5636,16 @@
         <v>2</v>
       </c>
       <c r="G173">
-        <v>441.525126194523</v>
+        <v>441.52512619452301</v>
       </c>
       <c r="H173">
-        <v>-0.2650456088083281</v>
+        <v>-0.26504560880832811</v>
       </c>
       <c r="I173">
-        <v>973.3862932084454</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>973.38629320844541</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2015</v>
       </c>
@@ -5630,10 +5653,10 @@
         <v>5</v>
       </c>
       <c r="C174">
-        <v>323480748.8700004</v>
+        <v>323480748.87000042</v>
       </c>
       <c r="D174">
-        <v>152658789454.2633</v>
+        <v>152658789454.26331</v>
       </c>
       <c r="E174" s="2">
         <v>42125</v>
@@ -5642,16 +5665,16 @@
         <v>2</v>
       </c>
       <c r="G174">
-        <v>471.9254236536141</v>
+        <v>471.92542365361408</v>
       </c>
       <c r="H174">
-        <v>-0.2144418474693902</v>
+        <v>-0.21444184746939021</v>
       </c>
       <c r="I174">
-        <v>1040.406788986758</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>1040.4067889867581</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2015</v>
       </c>
@@ -5659,7 +5682,7 @@
         <v>6</v>
       </c>
       <c r="C175">
-        <v>363817215.3499995</v>
+        <v>363817215.34999949</v>
       </c>
       <c r="D175">
         <v>183271078606.4408</v>
@@ -5671,16 +5694,16 @@
         <v>2</v>
       </c>
       <c r="G175">
-        <v>503.7449325484235</v>
+        <v>503.74493254842349</v>
       </c>
       <c r="H175">
-        <v>-0.1614756935624447</v>
+        <v>-0.16147569356244471</v>
       </c>
       <c r="I175">
         <v>1110.556078296255</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2015</v>
       </c>
@@ -5688,10 +5711,10 @@
         <v>7</v>
       </c>
       <c r="C176">
-        <v>401905534.3499987</v>
+        <v>401905534.34999871</v>
       </c>
       <c r="D176">
-        <v>206313087443.2357</v>
+        <v>206313087443.23569</v>
       </c>
       <c r="E176" s="2">
         <v>42186</v>
@@ -5700,16 +5723,16 @@
         <v>3</v>
       </c>
       <c r="G176">
-        <v>513.3372641332386</v>
+        <v>513.33726413323859</v>
       </c>
       <c r="H176">
-        <v>-0.1455084794634663</v>
+        <v>-0.14550847946346629</v>
       </c>
       <c r="I176">
-        <v>1131.703332508138</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>1131.7033325081379</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2015</v>
       </c>
@@ -5717,10 +5740,10 @@
         <v>8</v>
       </c>
       <c r="C177">
-        <v>393584251.3400007</v>
+        <v>393584251.34000069</v>
       </c>
       <c r="D177">
-        <v>201395107297.7289</v>
+        <v>201395107297.72891</v>
       </c>
       <c r="E177" s="2">
         <v>42217</v>
@@ -5729,16 +5752,16 @@
         <v>3</v>
       </c>
       <c r="G177">
-        <v>511.6950350834852</v>
+        <v>511.69503508348521</v>
       </c>
       <c r="H177">
-        <v>-0.1482421029422965</v>
+        <v>-0.14824210294229651</v>
       </c>
       <c r="I177">
-        <v>1128.082874345051</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>1128.0828743450511</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2015</v>
       </c>
@@ -5746,10 +5769,10 @@
         <v>9</v>
       </c>
       <c r="C178">
-        <v>351451299.6500006</v>
+        <v>351451299.65000057</v>
       </c>
       <c r="D178">
-        <v>176242756718.4962</v>
+        <v>176242756718.49619</v>
       </c>
       <c r="E178" s="2">
         <v>42248</v>
@@ -5758,16 +5781,16 @@
         <v>3</v>
       </c>
       <c r="G178">
-        <v>501.4713472222491</v>
+        <v>501.47134722224911</v>
       </c>
       <c r="H178">
-        <v>-0.165260260782034</v>
+        <v>-0.16526026078203401</v>
       </c>
       <c r="I178">
-        <v>1105.54373208617</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>1105.5437320861699</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2015</v>
       </c>
@@ -5775,10 +5798,10 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>313309387.4300001</v>
+        <v>313309387.43000013</v>
       </c>
       <c r="D179">
-        <v>148090160544.8026</v>
+        <v>148090160544.80261</v>
       </c>
       <c r="E179" s="2">
         <v>42278</v>
@@ -5787,16 +5810,16 @@
         <v>4</v>
       </c>
       <c r="G179">
-        <v>472.6642944201253</v>
+        <v>472.66429442012532</v>
       </c>
       <c r="H179">
-        <v>-0.2132119371377836</v>
+        <v>-0.21321193713778361</v>
       </c>
       <c r="I179">
         <v>1042.035703478608</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2015</v>
       </c>
@@ -5804,7 +5827,7 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>301635315.8000002</v>
+        <v>301635315.80000019</v>
       </c>
       <c r="D180">
         <v>135387944058.0659</v>
@@ -5816,16 +5839,16 @@
         <v>4</v>
       </c>
       <c r="G180">
-        <v>448.8464611611828</v>
+        <v>448.84646116118279</v>
       </c>
       <c r="H180">
-        <v>-0.2528586528144326</v>
+        <v>-0.25285865281443259</v>
       </c>
       <c r="I180">
-        <v>989.5269082759436</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>989.52690827594358</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2015</v>
       </c>
@@ -5833,7 +5856,7 @@
         <v>12</v>
       </c>
       <c r="C181">
-        <v>325341187.4799992</v>
+        <v>325341187.47999918</v>
       </c>
       <c r="D181">
         <v>140021704408.0881</v>
@@ -5845,16 +5868,16 @@
         <v>4</v>
       </c>
       <c r="G181">
-        <v>430.384192953424</v>
+        <v>430.38419295342402</v>
       </c>
       <c r="H181">
-        <v>-0.2835905959942024</v>
+        <v>-0.28359059599420239</v>
       </c>
       <c r="I181">
-        <v>948.8249917851185</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>948.82499178511853</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2016</v>
       </c>
@@ -5862,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>353765767.7799999</v>
+        <v>353765767.77999991</v>
       </c>
       <c r="D182">
         <v>162170131694.5358</v>
@@ -5874,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="G182">
-        <v>458.4110348273896</v>
+        <v>458.41103482738959</v>
       </c>
       <c r="H182">
         <v>-0.2369376440228334</v>
@@ -5883,7 +5906,7 @@
         <v>1010.612967380463</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2016</v>
       </c>
@@ -5891,7 +5914,7 @@
         <v>2</v>
       </c>
       <c r="C183">
-        <v>314938583.1</v>
+        <v>314938583.10000002</v>
       </c>
       <c r="D183">
         <v>136571372750.1956</v>
@@ -5903,16 +5926,16 @@
         <v>1</v>
       </c>
       <c r="G183">
-        <v>433.644463012114</v>
+        <v>433.64446301211399</v>
       </c>
       <c r="H183">
-        <v>-0.2781636119927317</v>
+        <v>-0.27816361199273171</v>
       </c>
       <c r="I183">
-        <v>956.0125831565067</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>956.01258315650671</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2016</v>
       </c>
@@ -5920,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="C184">
-        <v>305534646.7800001</v>
+        <v>305534646.78000009</v>
       </c>
       <c r="D184">
-        <v>119935249338.5785</v>
+        <v>119935249338.57851</v>
       </c>
       <c r="E184" s="2">
         <v>42430</v>
@@ -5932,16 +5955,16 @@
         <v>1</v>
       </c>
       <c r="G184">
-        <v>392.5422226335521</v>
+        <v>392.54222263355211</v>
       </c>
       <c r="H184">
-        <v>-0.3465816255141885</v>
+        <v>-0.34658162551418847</v>
       </c>
       <c r="I184">
         <v>865.3985840179289</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2016</v>
       </c>
@@ -5949,10 +5972,10 @@
         <v>4</v>
       </c>
       <c r="C185">
-        <v>294406074.5300002</v>
+        <v>294406074.53000021</v>
       </c>
       <c r="D185">
-        <v>117363052579.9513</v>
+        <v>117363052579.95129</v>
       </c>
       <c r="E185" s="2">
         <v>42461</v>
@@ -5961,16 +5984,16 @@
         <v>2</v>
       </c>
       <c r="G185">
-        <v>398.6434477186439</v>
+        <v>398.64344771864393</v>
       </c>
       <c r="H185">
-        <v>-0.3364256413993423</v>
+        <v>-0.33642564139934228</v>
       </c>
       <c r="I185">
-        <v>878.8493448405223</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>878.84934484052235</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2016</v>
       </c>
@@ -5978,7 +6001,7 @@
         <v>5</v>
       </c>
       <c r="C186">
-        <v>319281763.15</v>
+        <v>319281763.14999998</v>
       </c>
       <c r="D186">
         <v>133152489367.1985</v>
@@ -5993,13 +6016,13 @@
         <v>417.0375659841331</v>
       </c>
       <c r="H186">
-        <v>-0.3058071393271313</v>
+        <v>-0.30580713932713133</v>
       </c>
       <c r="I186">
-        <v>919.4010179686198</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>919.40101796861984</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2016</v>
       </c>
@@ -6007,10 +6030,10 @@
         <v>6</v>
       </c>
       <c r="C187">
-        <v>370409329.3600001</v>
+        <v>370409329.36000007</v>
       </c>
       <c r="D187">
-        <v>176906046797.0786</v>
+        <v>176906046797.07861</v>
       </c>
       <c r="E187" s="2">
         <v>42522</v>
@@ -6019,16 +6042,16 @@
         <v>2</v>
       </c>
       <c r="G187">
-        <v>477.5960883672668</v>
+        <v>477.59608836726682</v>
       </c>
       <c r="H187">
-        <v>-0.2050025660219318</v>
+        <v>-0.20500256602193179</v>
       </c>
       <c r="I187">
         <v>1052.908336414476</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2016</v>
       </c>
@@ -6039,7 +6062,7 @@
         <v>414515390.9800002</v>
       </c>
       <c r="D188">
-        <v>207166101145.8193</v>
+        <v>207166101145.81931</v>
       </c>
       <c r="E188" s="2">
         <v>42552</v>
@@ -6048,16 +6071,16 @@
         <v>3</v>
       </c>
       <c r="G188">
-        <v>499.7790327062061</v>
+        <v>499.77903270620612</v>
       </c>
       <c r="H188">
-        <v>-0.1680772555826771</v>
+        <v>-0.16807725558267711</v>
       </c>
       <c r="I188">
-        <v>1101.812855504102</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>1101.8128555041019</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2016</v>
       </c>
@@ -6065,10 +6088,10 @@
         <v>8</v>
       </c>
       <c r="C189">
-        <v>412116918.48</v>
+        <v>412116918.48000002</v>
       </c>
       <c r="D189">
-        <v>207510325487.1016</v>
+        <v>207510325487.10159</v>
       </c>
       <c r="E189" s="2">
         <v>42583</v>
@@ -6077,16 +6100,16 @@
         <v>3</v>
       </c>
       <c r="G189">
-        <v>503.5229474500985</v>
+        <v>503.52294745009851</v>
       </c>
       <c r="H189">
-        <v>-0.1618452057671051</v>
+        <v>-0.16184520576710509</v>
       </c>
       <c r="I189">
         <v>1110.066689948487</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2016</v>
       </c>
@@ -6094,10 +6117,10 @@
         <v>9</v>
       </c>
       <c r="C190">
-        <v>353558668.0799999</v>
+        <v>353558668.07999992</v>
       </c>
       <c r="D190">
-        <v>171962273632.2987</v>
+        <v>171962273632.29871</v>
       </c>
       <c r="E190" s="2">
         <v>42614</v>
@@ -6106,16 +6129,16 @@
         <v>3</v>
       </c>
       <c r="G190">
-        <v>486.3754990540601</v>
+        <v>486.37549905406013</v>
       </c>
       <c r="H190">
-        <v>-0.190388524705762</v>
+        <v>-0.19038852470576201</v>
       </c>
       <c r="I190">
         <v>1072.263425214581</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2016</v>
       </c>
@@ -6123,10 +6146,10 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>314435599.5199997</v>
+        <v>314435599.51999968</v>
       </c>
       <c r="D191">
-        <v>145457102873.5331</v>
+        <v>145457102873.53311</v>
       </c>
       <c r="E191" s="2">
         <v>42644</v>
@@ -6135,16 +6158,16 @@
         <v>4</v>
       </c>
       <c r="G191">
-        <v>462.5974383803235</v>
+        <v>462.59743838032352</v>
       </c>
       <c r="H191">
-        <v>-0.2299690356877925</v>
+        <v>-0.22996903568779251</v>
       </c>
       <c r="I191">
         <v>1019.842312653261</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2016</v>
       </c>
@@ -6152,7 +6175,7 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>298734097.48</v>
+        <v>298734097.48000002</v>
       </c>
       <c r="D192">
         <v>129322166395.9572</v>
@@ -6164,16 +6187,16 @@
         <v>4</v>
       </c>
       <c r="G192">
-        <v>432.9005878032228</v>
+        <v>432.90058780322278</v>
       </c>
       <c r="H192">
-        <v>-0.2794018526246643</v>
+        <v>-0.27940185262466433</v>
       </c>
       <c r="I192">
-        <v>954.3726358709852</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>954.37263587098516</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2016</v>
       </c>
@@ -6181,7 +6204,7 @@
         <v>12</v>
       </c>
       <c r="C193">
-        <v>346439984.52</v>
+        <v>346439984.51999998</v>
       </c>
       <c r="D193">
         <v>160812544820.3605</v>
@@ -6193,13 +6216,13 @@
         <v>4</v>
       </c>
       <c r="G193">
-        <v>464.1858676999125</v>
+        <v>464.18586769991248</v>
       </c>
       <c r="H193">
-        <v>-0.2273249662243138</v>
+        <v>-0.22732496622431381</v>
       </c>
       <c r="I193">
-        <v>1023.344163931227</v>
+        <v>1023.3441639312269</v>
       </c>
     </row>
   </sheetData>
@@ -6208,14 +6231,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6241,7 +6272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -6249,25 +6280,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>916139901.9999999</v>
+        <v>916139901.99999988</v>
       </c>
       <c r="D2">
-        <v>584439237512.6323</v>
+        <v>584439237512.63232</v>
       </c>
       <c r="E2">
-        <v>637.9366691012574</v>
+        <v>637.93666910125739</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>0.06189733820854917</v>
+        <v>6.1897338208549167E-2</v>
       </c>
       <c r="H2">
         <v>1406.395180700632</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -6275,25 +6306,25 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>906264469.9999998</v>
+        <v>906264469.99999976</v>
       </c>
       <c r="D3">
-        <v>569305106211.3159</v>
+        <v>569305106211.31592</v>
       </c>
       <c r="E3">
-        <v>628.1887076642386</v>
+        <v>628.18870766423856</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3">
-        <v>0.04567106559513581</v>
+        <v>4.5671065595135812E-2</v>
       </c>
       <c r="H3">
-        <v>1384.90482491658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1384.9048249165801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -6304,22 +6335,22 @@
         <v>1035075394</v>
       </c>
       <c r="D4">
-        <v>663067049124.5269</v>
+        <v>663067049124.52686</v>
       </c>
       <c r="E4">
-        <v>640.5978279148687</v>
+        <v>640.59782791486873</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4">
-        <v>0.06632705293980184</v>
+        <v>6.6327052939801845E-2</v>
       </c>
       <c r="H4">
-        <v>1412.26197142112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1412.2619714211201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -6327,25 +6358,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>879163882.9999998</v>
+        <v>879163882.99999976</v>
       </c>
       <c r="D5">
-        <v>542132756547.3499</v>
+        <v>542132756547.34991</v>
       </c>
       <c r="E5">
-        <v>616.6458461617104</v>
+        <v>616.64584616171044</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5">
-        <v>0.02645703621175984</v>
+        <v>2.6457036211759839E-2</v>
       </c>
       <c r="H5">
-        <v>1359.457432448107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1359.4574324481071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -6353,25 +6384,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>904316199.0000019</v>
+        <v>904316199.00000191</v>
       </c>
       <c r="D6">
-        <v>549366405235.6032</v>
+        <v>549366405235.60321</v>
       </c>
       <c r="E6">
-        <v>607.4937127556664</v>
+        <v>607.49371275566637</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6">
-        <v>0.01122256769233829</v>
+        <v>1.122256769233829E-2</v>
       </c>
       <c r="H6">
         <v>1339.280639141142</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -6379,25 +6410,25 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>938545965.9999986</v>
+        <v>938545965.99999857</v>
       </c>
       <c r="D7">
         <v>568760055593.802</v>
       </c>
       <c r="E7">
-        <v>606.0012787842539</v>
+        <v>606.00127878425394</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7">
-        <v>0.00873829027350361</v>
+        <v>8.7382902735036096E-3</v>
       </c>
       <c r="H7">
-        <v>1335.990419207766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1335.9904192077661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2002</v>
       </c>
@@ -6408,22 +6439,22 @@
         <v>1087407360.000001</v>
       </c>
       <c r="D8">
-        <v>682919513020.7764</v>
+        <v>682919513020.77637</v>
       </c>
       <c r="E8">
-        <v>628.0254651033221</v>
+        <v>628.02546510332206</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8">
-        <v>0.04539933510946895</v>
+        <v>4.5399335109468947E-2</v>
       </c>
       <c r="H8">
         <v>1384.544940366784</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -6431,25 +6462,25 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>928182725.9999988</v>
+        <v>928182725.99999881</v>
       </c>
       <c r="D9">
-        <v>581132247908.8049</v>
+        <v>581132247908.80493</v>
       </c>
       <c r="E9">
-        <v>626.0968143774803</v>
+        <v>626.09681437748031</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9">
-        <v>0.04218893951488641</v>
+        <v>4.2188939514886413E-2</v>
       </c>
       <c r="H9">
-        <v>1380.293036976593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1380.2930369765929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -6457,25 +6488,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>945554943.3699985</v>
+        <v>945554943.36999846</v>
       </c>
       <c r="D10">
-        <v>591689650435.5876</v>
+        <v>591689650435.58765</v>
       </c>
       <c r="E10">
-        <v>625.7591423791623</v>
+        <v>625.75914237916231</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10">
-        <v>0.04162685708011022</v>
+        <v>4.162685708011022E-2</v>
       </c>
       <c r="H10">
         <v>1379.548605289101</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -6483,25 +6514,25 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>921994282.9999998</v>
+        <v>921994282.99999976</v>
       </c>
       <c r="D11">
-        <v>555368343792.7346</v>
+        <v>555368343792.73462</v>
       </c>
       <c r="E11">
-        <v>602.3555178516598</v>
+        <v>602.35551785165978</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11">
-        <v>0.002669625439546626</v>
+        <v>2.6696254395466262E-3</v>
       </c>
       <c r="H11">
-        <v>1327.952974655769</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>1327.9529746557689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -6512,22 +6543,22 @@
         <v>1079347901</v>
       </c>
       <c r="D12">
-        <v>674142242421.6572</v>
+        <v>674142242421.65723</v>
       </c>
       <c r="E12">
-        <v>624.5829002836567</v>
+        <v>624.58290028365673</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12">
-        <v>0.03966890668972754</v>
+        <v>3.9668906689727543E-2</v>
       </c>
       <c r="H12">
         <v>1376.95546196535</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2003</v>
       </c>
@@ -6535,25 +6566,25 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>936288071.9999998</v>
+        <v>936288071.99999976</v>
       </c>
       <c r="D13">
-        <v>585786160978.0298</v>
+        <v>585786160978.02979</v>
       </c>
       <c r="E13">
-        <v>625.6473605679236</v>
+        <v>625.64736056792356</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
       <c r="G13">
-        <v>0.04144078718702538</v>
+        <v>4.1440787187025381E-2</v>
       </c>
       <c r="H13">
-        <v>1379.302171108044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>1379.3021711080439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2004</v>
       </c>
@@ -6561,25 +6592,25 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>969637632.0800002</v>
+        <v>969637632.08000016</v>
       </c>
       <c r="D14">
-        <v>589467476634.6302</v>
+        <v>589467476634.63025</v>
       </c>
       <c r="E14">
-        <v>607.9255354086712</v>
+        <v>607.92553540867118</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14">
-        <v>0.01194137152979443</v>
+        <v>1.194137152979443E-2</v>
       </c>
       <c r="H14">
         <v>1340.232635361956</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2004</v>
       </c>
@@ -6587,25 +6618,25 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>963025256.6500021</v>
+        <v>963025256.65000212</v>
       </c>
       <c r="D15">
-        <v>570808373050.0146</v>
+        <v>570808373050.01465</v>
       </c>
       <c r="E15">
-        <v>592.7241981540956</v>
+        <v>592.72419815409557</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15">
-        <v>-0.01336248753600586</v>
+        <v>-1.3362487536005861E-2</v>
       </c>
       <c r="H15">
         <v>1306.719767250519</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -6616,22 +6647,22 @@
         <v>1081392932.099999</v>
       </c>
       <c r="D16">
-        <v>651691215351.5176</v>
+        <v>651691215351.51758</v>
       </c>
       <c r="E16">
-        <v>602.6405351900842</v>
+        <v>602.64053519008417</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
       <c r="G16">
-        <v>0.003144059921330736</v>
+        <v>3.1440599213307359E-3</v>
       </c>
       <c r="H16">
-        <v>1328.58132388006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>1328.5813238800599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2004</v>
       </c>
@@ -6639,25 +6670,25 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>956499442.5400007</v>
+        <v>956499442.54000068</v>
       </c>
       <c r="D17">
-        <v>579920745439.9824</v>
+        <v>579920745439.98242</v>
       </c>
       <c r="E17">
-        <v>606.2949121015616</v>
+        <v>606.29491210156164</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
       </c>
       <c r="G17">
-        <v>0.009227066751108622</v>
+        <v>9.2270667511086223E-3</v>
       </c>
       <c r="H17">
-        <v>1336.637763219103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>1336.6377632191029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2005</v>
       </c>
@@ -6665,25 +6696,25 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>959080045.4200008</v>
+        <v>959080045.42000079</v>
       </c>
       <c r="D18">
-        <v>578927269295.3336</v>
+        <v>578927269295.33362</v>
       </c>
       <c r="E18">
-        <v>603.6276868233762</v>
+        <v>603.62768682337617</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
       </c>
       <c r="G18">
-        <v>0.004787253897431539</v>
+        <v>4.7872538974315388E-3</v>
       </c>
       <c r="H18">
         <v>1330.757598370815</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2005</v>
       </c>
@@ -6691,25 +6722,25 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>968296145.8299991</v>
+        <v>968296145.82999909</v>
       </c>
       <c r="D19">
-        <v>568194654822.918</v>
+        <v>568194654822.91797</v>
       </c>
       <c r="E19">
-        <v>586.7984265659509</v>
+        <v>586.79842656595088</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
       <c r="G19">
-        <v>-0.02322641507155235</v>
+        <v>-2.3226415071552351E-2</v>
       </c>
       <c r="H19">
-        <v>1293.655811207295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>1293.6558112072951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -6717,25 +6748,25 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>1157432328.019998</v>
+        <v>1157432328.0199981</v>
       </c>
       <c r="D20">
-        <v>700574460773.1313</v>
+        <v>700574460773.13135</v>
       </c>
       <c r="E20">
-        <v>605.2833015054913</v>
+        <v>605.28330150549129</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
       </c>
       <c r="G20">
-        <v>0.007543158847234625</v>
+        <v>7.5431588472346248E-3</v>
       </c>
       <c r="H20">
         <v>1334.407566499006</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2005</v>
       </c>
@@ -6743,25 +6774,25 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>970614230.3899989</v>
+        <v>970614230.38999891</v>
       </c>
       <c r="D21">
-        <v>588605871106.4304</v>
+        <v>588605871106.43042</v>
       </c>
       <c r="E21">
-        <v>606.4261708484584</v>
+        <v>606.42617084845836</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
       </c>
       <c r="G21">
-        <v>0.009445557583658793</v>
+        <v>9.4455575836587934E-3</v>
       </c>
       <c r="H21">
         <v>1336.927136252511</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2006</v>
       </c>
@@ -6769,25 +6800,25 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>954720968.1599991</v>
+        <v>954720968.15999913</v>
       </c>
       <c r="D22">
-        <v>560197734782.0659</v>
+        <v>560197734782.06592</v>
       </c>
       <c r="E22">
-        <v>586.7659279147454</v>
+        <v>586.76592791474536</v>
       </c>
       <c r="F22" t="s">
         <v>30</v>
       </c>
       <c r="G22">
-        <v>-0.02328051171293075</v>
+        <v>-2.3280511712930749E-2</v>
       </c>
       <c r="H22">
-        <v>1293.584164680848</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>1293.5841646808481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2006</v>
       </c>
@@ -6795,25 +6826,25 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>992733445.1300013</v>
+        <v>992733445.13000131</v>
       </c>
       <c r="D23">
         <v>565181785618.6687</v>
       </c>
       <c r="E23">
-        <v>569.3187717118331</v>
+        <v>569.31877171183305</v>
       </c>
       <c r="F23" t="s">
         <v>31</v>
       </c>
       <c r="G23">
-        <v>-0.05232271860986745</v>
+        <v>-5.2322718609867452E-2</v>
       </c>
       <c r="H23">
-        <v>1255.120164115907</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>1255.1201641159071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2006</v>
       </c>
@@ -6821,25 +6852,25 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>1150238650.530001</v>
+        <v>1150238650.5300009</v>
       </c>
       <c r="D24">
-        <v>683766315823.2096</v>
+        <v>683766315823.20959</v>
       </c>
       <c r="E24">
-        <v>594.4560422379712</v>
+        <v>594.45604223797125</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
       </c>
       <c r="G24">
-        <v>-0.0104796925628768</v>
+        <v>-1.04796925628768E-2</v>
       </c>
       <c r="H24">
         <v>1310.537790717832</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2006</v>
       </c>
@@ -6847,25 +6878,25 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>967009163.6200013</v>
+        <v>967009163.62000132</v>
       </c>
       <c r="D25">
-        <v>577856417958.4175</v>
+        <v>577856417958.41748</v>
       </c>
       <c r="E25">
-        <v>597.5707777113615</v>
+        <v>597.57077771136153</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
       </c>
       <c r="G25">
-        <v>-0.005294962685102849</v>
+        <v>-5.2949626851028489E-3</v>
       </c>
       <c r="H25">
-        <v>1317.404536542468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>1317.4045365424679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2007</v>
       </c>
@@ -6873,25 +6904,25 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>997232732.1900008</v>
+        <v>997232732.19000077</v>
       </c>
       <c r="D26">
-        <v>584080749388.1119</v>
+        <v>584080749388.11194</v>
       </c>
       <c r="E26">
-        <v>585.7015424126974</v>
+        <v>585.70154241269745</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26">
-        <v>-0.02505226772915851</v>
+        <v>-2.5052267729158511E-2</v>
       </c>
       <c r="H26">
-        <v>1291.237620403033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>1291.2376204030329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2007</v>
       </c>
@@ -6899,10 +6930,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>996086698.8799984</v>
+        <v>996086698.87999845</v>
       </c>
       <c r="D27">
-        <v>580292279395.0942</v>
+        <v>580292279395.09424</v>
       </c>
       <c r="E27">
         <v>582.5720592871844</v>
@@ -6911,13 +6942,13 @@
         <v>35</v>
       </c>
       <c r="G27">
-        <v>-0.03026154627029125</v>
+        <v>-3.0261546270291251E-2</v>
       </c>
       <c r="H27">
-        <v>1284.338361904527</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>1284.3383619045269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2007</v>
       </c>
@@ -6925,25 +6956,25 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>1170417003.390001</v>
+        <v>1170417003.3900011</v>
       </c>
       <c r="D28">
-        <v>696808174840.7042</v>
+        <v>696808174840.70422</v>
       </c>
       <c r="E28">
-        <v>595.350351902327</v>
+        <v>595.35035190232702</v>
       </c>
       <c r="F28" t="s">
         <v>36</v>
       </c>
       <c r="G28">
-        <v>-0.008991041575857214</v>
+        <v>-8.9910415758572143E-3</v>
       </c>
       <c r="H28">
-        <v>1312.50938580387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>1312.5093858038699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2007</v>
       </c>
@@ -6951,25 +6982,25 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>993008289.5400012</v>
+        <v>993008289.54000115</v>
       </c>
       <c r="D29">
-        <v>590556653611.6024</v>
+        <v>590556653611.60242</v>
       </c>
       <c r="E29">
-        <v>594.7147267875986</v>
+        <v>594.71472678759858</v>
       </c>
       <c r="F29" t="s">
         <v>37</v>
       </c>
       <c r="G29">
-        <v>-0.01004909114428781</v>
+        <v>-1.004909114428781E-2</v>
       </c>
       <c r="H29">
-        <v>1311.10808667594</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>1311.1080866759401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2008</v>
       </c>
@@ -6980,22 +7011,22 @@
         <v>1012733875.740001</v>
       </c>
       <c r="D30">
-        <v>595409630210.5243</v>
+        <v>595409630210.52429</v>
       </c>
       <c r="E30">
-        <v>587.9230906297674</v>
+        <v>587.92309062976744</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
       </c>
       <c r="G30">
-        <v>-0.02135432049917394</v>
+        <v>-2.1354320499173941E-2</v>
       </c>
       <c r="H30">
-        <v>1296.135245602385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>1296.1352456023851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -7006,22 +7037,22 @@
         <v>1004218860.050002</v>
       </c>
       <c r="D31">
-        <v>574363890270.1809</v>
+        <v>574363890270.18091</v>
       </c>
       <c r="E31">
-        <v>571.9509094278338</v>
+        <v>571.95090942783384</v>
       </c>
       <c r="F31" t="s">
         <v>39</v>
       </c>
       <c r="G31">
-        <v>-0.0479413118499185</v>
+        <v>-4.7941311849918497E-2</v>
       </c>
       <c r="H31">
-        <v>1260.922974924603</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>1260.9229749246031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2008</v>
       </c>
@@ -7029,25 +7060,25 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>1129943185.030002</v>
+        <v>1129943185.0300021</v>
       </c>
       <c r="D32">
-        <v>664235293333.8571</v>
+        <v>664235293333.85706</v>
       </c>
       <c r="E32">
-        <v>587.8483999319137</v>
+        <v>587.84839993191372</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
       </c>
       <c r="G32">
-        <v>-0.02147864922501996</v>
+        <v>-2.147864922501996E-2</v>
       </c>
       <c r="H32">
         <v>1295.970582489897</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -7055,25 +7086,25 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>972491838.7900035</v>
+        <v>972491838.79000354</v>
       </c>
       <c r="D33">
-        <v>563126253298.175</v>
+        <v>563126253298.17505</v>
       </c>
       <c r="E33">
-        <v>579.054991349675</v>
+        <v>579.05499134967499</v>
       </c>
       <c r="F33" t="s">
         <v>41</v>
       </c>
       <c r="G33">
-        <v>-0.03611599117373521</v>
+        <v>-3.6115991173735207E-2</v>
       </c>
       <c r="H33">
         <v>1276.584633929494</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -7081,10 +7112,10 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>966482997.73</v>
+        <v>966482997.73000002</v>
       </c>
       <c r="D34">
-        <v>537797550480.2059</v>
+        <v>537797550480.20587</v>
       </c>
       <c r="E34">
         <v>556.4480200307122</v>
@@ -7093,13 +7124,13 @@
         <v>42</v>
       </c>
       <c r="G34">
-        <v>-0.07374712892034618</v>
+        <v>-7.3747128920346183E-2</v>
       </c>
       <c r="H34">
-        <v>1226.745304959708</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>1226.7453049597079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2009</v>
       </c>
@@ -7107,13 +7138,13 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>948501368.5500002</v>
+        <v>948501368.55000019</v>
       </c>
       <c r="D35">
-        <v>506578967035.7477</v>
+        <v>506578967035.74768</v>
       </c>
       <c r="E35">
-        <v>534.0835383402438</v>
+        <v>534.08353834024376</v>
       </c>
       <c r="F35" t="s">
         <v>43</v>
@@ -7125,7 +7156,7 @@
         <v>1177.440568624902</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2009</v>
       </c>
@@ -7136,7 +7167,7 @@
         <v>1081164254.379998</v>
       </c>
       <c r="D36">
-        <v>601460309811.1108</v>
+        <v>601460309811.11084</v>
       </c>
       <c r="E36">
         <v>556.3079868525831</v>
@@ -7145,13 +7176,13 @@
         <v>44</v>
       </c>
       <c r="G36">
-        <v>-0.0739802255055067</v>
+        <v>-7.3980225505506703E-2</v>
       </c>
       <c r="H36">
         <v>1226.436587815205</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2009</v>
       </c>
@@ -7159,25 +7190,25 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>954182305.8999994</v>
+        <v>954182305.89999938</v>
       </c>
       <c r="D37">
-        <v>534520159652.7754</v>
+        <v>534520159652.77539</v>
       </c>
       <c r="E37">
-        <v>560.1866187914769</v>
+        <v>560.18661879147692</v>
       </c>
       <c r="F37" t="s">
         <v>45</v>
       </c>
       <c r="G37">
-        <v>-0.06752392798994837</v>
+        <v>-6.7523927989948371E-2</v>
       </c>
       <c r="H37">
         <v>1234.98741978769</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2010</v>
       </c>
@@ -7188,22 +7219,22 @@
         <v>992859533.9500035</v>
       </c>
       <c r="D38">
-        <v>559685669826.4835</v>
+        <v>559685669826.48352</v>
       </c>
       <c r="E38">
-        <v>563.7108278547961</v>
+        <v>563.71082785479609</v>
       </c>
       <c r="F38" t="s">
         <v>46</v>
       </c>
       <c r="G38">
-        <v>-0.06165759610327159</v>
+        <v>-6.1657596103271588E-2</v>
       </c>
       <c r="H38">
         <v>1242.756891088683</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2010</v>
       </c>
@@ -7211,25 +7242,25 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>991496196.5399998</v>
+        <v>991496196.53999984</v>
       </c>
       <c r="D39">
-        <v>545527025340.6848</v>
+        <v>545527025340.68481</v>
       </c>
       <c r="E39">
-        <v>550.2058679038782</v>
+        <v>550.20586790387824</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
       </c>
       <c r="G39">
-        <v>-0.08413769752885127</v>
+        <v>-8.4137697528851266E-2</v>
       </c>
       <c r="H39">
-        <v>1212.98385638089</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>1212.9838563808901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2010</v>
       </c>
@@ -7240,22 +7271,22 @@
         <v>1164654767.579999</v>
       </c>
       <c r="D40">
-        <v>665251560567.1019</v>
+        <v>665251560567.10193</v>
       </c>
       <c r="E40">
-        <v>571.2006502574217</v>
+        <v>571.20065025742167</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
       <c r="G40">
-        <v>-0.04919017910370036</v>
+        <v>-4.9190179103700361E-2</v>
       </c>
       <c r="H40">
-        <v>1259.268953557512</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>1259.2689535575121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2010</v>
       </c>
@@ -7263,25 +7294,25 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>976049400.9799991</v>
+        <v>976049400.97999907</v>
       </c>
       <c r="D41">
         <v>537802040652.5376</v>
       </c>
       <c r="E41">
-        <v>550.9987917748418</v>
+        <v>550.99879177484183</v>
       </c>
       <c r="F41" t="s">
         <v>49</v>
       </c>
       <c r="G41">
-        <v>-0.08281781141983593</v>
+        <v>-8.2817811419835935E-2</v>
       </c>
       <c r="H41">
-        <v>1214.731936346816</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>1214.7319363468159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2011</v>
       </c>
@@ -7289,25 +7320,25 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>994708440.9299974</v>
+        <v>994708440.92999744</v>
       </c>
       <c r="D42">
-        <v>539995713725.1833</v>
+        <v>539995713725.18329</v>
       </c>
       <c r="E42">
-        <v>542.8683335795535</v>
+        <v>542.86833357955345</v>
       </c>
       <c r="F42" t="s">
         <v>50</v>
       </c>
       <c r="G42">
-        <v>-0.09635161866774979</v>
+        <v>-9.6351618667749786E-2</v>
       </c>
       <c r="H42">
         <v>1196.807528209484</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -7315,25 +7346,25 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>993755977.5400009</v>
+        <v>993755977.54000092</v>
       </c>
       <c r="D43">
-        <v>533230308414.3215</v>
+        <v>533230308414.32147</v>
       </c>
       <c r="E43">
-        <v>536.5807305474626</v>
+        <v>536.58073054746262</v>
       </c>
       <c r="F43" t="s">
         <v>51</v>
       </c>
       <c r="G43">
-        <v>-0.1068178439952509</v>
+        <v>-0.10681784399525091</v>
       </c>
       <c r="H43">
         <v>1182.945878564936</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2011</v>
       </c>
@@ -7344,7 +7375,7 @@
         <v>1163135386.930001</v>
       </c>
       <c r="D44">
-        <v>649407099531.1034</v>
+        <v>649407099531.10339</v>
       </c>
       <c r="E44">
         <v>558.3245998947375</v>
@@ -7353,13 +7384,13 @@
         <v>52</v>
       </c>
       <c r="G44">
-        <v>-0.07062340949949576</v>
+        <v>-7.0623409499495762E-2</v>
       </c>
       <c r="H44">
         <v>1230.882412927938</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2011</v>
       </c>
@@ -7367,10 +7398,10 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>948541120.7799987</v>
+        <v>948541120.77999866</v>
       </c>
       <c r="D45">
-        <v>491559144709.4272</v>
+        <v>491559144709.42719</v>
       </c>
       <c r="E45">
         <v>518.226499558829</v>
@@ -7385,7 +7416,7 @@
         <v>1142.482140927395</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2012</v>
       </c>
@@ -7393,13 +7424,13 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>958005464.7200005</v>
+        <v>958005464.72000051</v>
       </c>
       <c r="D46">
-        <v>472986798028.3616</v>
+        <v>472986798028.36157</v>
       </c>
       <c r="E46">
-        <v>493.7203548902542</v>
+        <v>493.72035489025421</v>
       </c>
       <c r="F46" t="s">
         <v>54</v>
@@ -7411,7 +7442,7 @@
         <v>1088.455894391054</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2012</v>
       </c>
@@ -7419,25 +7450,25 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>992570741.8200009</v>
+        <v>992570741.82000089</v>
       </c>
       <c r="D47">
-        <v>494000549220.5186</v>
+        <v>494000549220.51862</v>
       </c>
       <c r="E47">
-        <v>497.6980767282215</v>
+        <v>497.69807672822151</v>
       </c>
       <c r="F47" t="s">
         <v>55</v>
       </c>
       <c r="G47">
-        <v>-0.1715411756251856</v>
+        <v>-0.17154117562518559</v>
       </c>
       <c r="H47">
         <v>1097.225179955037</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2012</v>
       </c>
@@ -7448,10 +7479,10 @@
         <v>1144926529.3</v>
       </c>
       <c r="D48">
-        <v>618907706706.9767</v>
+        <v>618907706706.97668</v>
       </c>
       <c r="E48">
-        <v>540.5654344347952</v>
+        <v>540.56543443479518</v>
       </c>
       <c r="F48" t="s">
         <v>56</v>
@@ -7463,7 +7494,7 @@
         <v>1191.730556754949</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2012</v>
       </c>
@@ -7471,10 +7502,10 @@
         <v>4</v>
       </c>
       <c r="C49">
-        <v>952262530.8700013</v>
+        <v>952262530.87000132</v>
       </c>
       <c r="D49">
-        <v>498390684016.0936</v>
+        <v>498390684016.09363</v>
       </c>
       <c r="E49">
         <v>523.3752960549192</v>
@@ -7483,13 +7514,13 @@
         <v>57</v>
       </c>
       <c r="G49">
-        <v>-0.1287993609964211</v>
+        <v>-0.12879936099642109</v>
       </c>
       <c r="H49">
-        <v>1153.833177682675</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>1153.8331776826749</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2013</v>
       </c>
@@ -7500,22 +7531,22 @@
         <v>984094291.9800005</v>
       </c>
       <c r="D50">
-        <v>505706014287.636</v>
+        <v>505706014287.63599</v>
       </c>
       <c r="E50">
-        <v>513.8796336986713</v>
+        <v>513.87963369867134</v>
       </c>
       <c r="F50" t="s">
         <v>58</v>
       </c>
       <c r="G50">
-        <v>-0.1446056613221769</v>
+        <v>-0.14460566132217689</v>
       </c>
       <c r="H50">
         <v>1132.899040452091</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2013</v>
       </c>
@@ -7523,25 +7554,25 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>978311155.9699987</v>
+        <v>978311155.96999872</v>
       </c>
       <c r="D51">
-        <v>492672276283.9442</v>
+        <v>492672276283.94421</v>
       </c>
       <c r="E51">
-        <v>503.5946623704378</v>
+        <v>503.59466237043779</v>
       </c>
       <c r="F51" t="s">
         <v>59</v>
       </c>
       <c r="G51">
-        <v>-0.1617258304643412</v>
+        <v>-0.16172583046434119</v>
       </c>
       <c r="H51">
         <v>1110.224792661867</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2013</v>
       </c>
@@ -7549,13 +7580,13 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>1121072267.530001</v>
+        <v>1121072267.5300009</v>
       </c>
       <c r="D52">
-        <v>599305749172.1642</v>
+        <v>599305749172.16418</v>
       </c>
       <c r="E52">
-        <v>534.5826192744761</v>
+        <v>534.58261927447609</v>
       </c>
       <c r="F52" t="s">
         <v>60</v>
@@ -7564,10 +7595,10 @@
         <v>-0.1101438623055294</v>
       </c>
       <c r="H52">
-        <v>1178.54084245251</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>1178.5408424525101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2013</v>
       </c>
@@ -7575,25 +7606,25 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>982486352.0599982</v>
+        <v>982486352.05999815</v>
       </c>
       <c r="D53">
-        <v>504844852565.9525</v>
+        <v>504844852565.95251</v>
       </c>
       <c r="E53">
-        <v>513.8441378930451</v>
+        <v>513.84413789304506</v>
       </c>
       <c r="F53" t="s">
         <v>61</v>
       </c>
       <c r="G53">
-        <v>-0.1446647469702322</v>
+        <v>-0.14466474697023221</v>
       </c>
       <c r="H53">
-        <v>1132.820786399007</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>1132.8207863990069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2014</v>
       </c>
@@ -7604,22 +7635,22 @@
         <v>1035621097.050001</v>
       </c>
       <c r="D54">
-        <v>548687794674.3306</v>
+        <v>548687794674.33063</v>
       </c>
       <c r="E54">
-        <v>529.8151961535785</v>
+        <v>529.81519615357854</v>
       </c>
       <c r="F54" t="s">
         <v>62</v>
       </c>
       <c r="G54">
-        <v>-0.1180796248465465</v>
+        <v>-0.11807962484654649</v>
       </c>
       <c r="H54">
         <v>1168.030581440179</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2014</v>
       </c>
@@ -7630,10 +7661,10 @@
         <v>983379926.8500011</v>
       </c>
       <c r="D55">
-        <v>487310191789.8661</v>
+        <v>487310191789.86609</v>
       </c>
       <c r="E55">
-        <v>495.5462059824997</v>
+        <v>495.54620598249971</v>
       </c>
       <c r="F55" t="s">
         <v>63</v>
@@ -7645,7 +7676,7 @@
         <v>1092.481165709019</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2014</v>
       </c>
@@ -7653,13 +7684,13 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>1113341228.41</v>
+        <v>1113341228.4100001</v>
       </c>
       <c r="D56">
-        <v>584747403733.8428</v>
+        <v>584747403733.84277</v>
       </c>
       <c r="E56">
-        <v>525.2184943954159</v>
+        <v>525.21849439541586</v>
       </c>
       <c r="F56" t="s">
         <v>64</v>
@@ -7671,7 +7702,7 @@
         <v>1157.896692744134</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2014</v>
       </c>
@@ -7679,13 +7710,13 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>972496411.2299992</v>
+        <v>972496411.22999918</v>
       </c>
       <c r="D57">
-        <v>477493529059.3837</v>
+        <v>477493529059.38373</v>
       </c>
       <c r="E57">
-        <v>490.9977286758898</v>
+        <v>490.99772867588979</v>
       </c>
       <c r="F57" t="s">
         <v>65</v>
@@ -7694,10 +7725,10 @@
         <v>-0.182694448522738</v>
       </c>
       <c r="H57">
-        <v>1082.453592638867</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>1082.4535926388669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2015</v>
       </c>
@@ -7708,22 +7739,22 @@
         <v>1021818394.830001</v>
       </c>
       <c r="D58">
-        <v>499387509578.8711</v>
+        <v>499387509578.87109</v>
       </c>
       <c r="E58">
-        <v>488.7243292013289</v>
+        <v>488.72432920132889</v>
       </c>
       <c r="F58" t="s">
         <v>66</v>
       </c>
       <c r="G58">
-        <v>-0.1864787063772393</v>
+        <v>-0.18647870637723929</v>
       </c>
       <c r="H58">
         <v>1077.44165615725</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -7731,25 +7762,25 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>982694834.9800003</v>
+        <v>982694834.98000026</v>
       </c>
       <c r="D59">
-        <v>466355008700.4804</v>
+        <v>466355008700.48041</v>
       </c>
       <c r="E59">
-        <v>474.5674772066668</v>
+        <v>474.56747720666681</v>
       </c>
       <c r="F59" t="s">
         <v>67</v>
       </c>
       <c r="G59">
-        <v>-0.2100439349942481</v>
+        <v>-0.21004393499424809</v>
       </c>
       <c r="H59">
         <v>1046.231460249817</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2015</v>
       </c>
@@ -7757,25 +7788,25 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>1146941085.34</v>
+        <v>1146941085.3399999</v>
       </c>
       <c r="D60">
-        <v>583950951459.4607</v>
+        <v>583950951459.46069</v>
       </c>
       <c r="E60">
-        <v>509.1377045633986</v>
+        <v>509.13770456339859</v>
       </c>
       <c r="F60" t="s">
         <v>68</v>
       </c>
       <c r="G60">
-        <v>-0.1524989870559268</v>
+        <v>-0.15249898705592679</v>
       </c>
       <c r="H60">
-        <v>1122.444983480469</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>1122.4449834804691</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2015</v>
       </c>
@@ -7783,25 +7814,25 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>940285890.7099996</v>
+        <v>940285890.70999956</v>
       </c>
       <c r="D61">
         <v>423499809010.9566</v>
       </c>
       <c r="E61">
-        <v>450.3947290873168</v>
+        <v>450.39472908731682</v>
       </c>
       <c r="F61" t="s">
         <v>69</v>
       </c>
       <c r="G61">
-        <v>-0.2502814352484451</v>
+        <v>-0.25028143524844509</v>
       </c>
       <c r="H61">
-        <v>992.9402197458986</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>992.94021974589862</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2016</v>
       </c>
@@ -7809,10 +7840,10 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>974238997.66</v>
+        <v>974238997.65999997</v>
       </c>
       <c r="D62">
-        <v>418676753783.3098</v>
+        <v>418676753783.30981</v>
       </c>
       <c r="E62">
         <v>429.7474796111826</v>
@@ -7821,13 +7852,13 @@
         <v>70</v>
       </c>
       <c r="G62">
-        <v>-0.2846504570056105</v>
+        <v>-0.28465045700561048</v>
       </c>
       <c r="H62">
-        <v>947.4212935508132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>947.42129355081317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2016</v>
       </c>
@@ -7835,10 +7866,10 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>984097167.0400003</v>
+        <v>984097167.04000032</v>
       </c>
       <c r="D63">
-        <v>427421588744.2284</v>
+        <v>427421588744.22839</v>
       </c>
       <c r="E63">
         <v>434.3286446295146</v>
@@ -7847,13 +7878,13 @@
         <v>71</v>
       </c>
       <c r="G63">
-        <v>-0.2770247361864664</v>
+        <v>-0.27702473618646639</v>
       </c>
       <c r="H63">
-        <v>957.5209299502279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>957.52092995022792</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2016</v>
       </c>
@@ -7867,7 +7898,7 @@
         <v>586638700265.2196</v>
       </c>
       <c r="E64">
-        <v>497.0709922626372</v>
+        <v>497.07099226263722</v>
       </c>
       <c r="F64" t="s">
         <v>72</v>
@@ -7876,10 +7907,10 @@
         <v>-0.1725850085902573</v>
       </c>
       <c r="H64">
-        <v>1095.84270954221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>1095.8427095422101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2016</v>
       </c>
@@ -7887,19 +7918,19 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>959609681.5199997</v>
+        <v>959609681.51999974</v>
       </c>
       <c r="D65">
-        <v>435591814089.8508</v>
+        <v>435591814089.85083</v>
       </c>
       <c r="E65">
-        <v>453.9260310503364</v>
+        <v>453.92603105033641</v>
       </c>
       <c r="F65" t="s">
         <v>73</v>
       </c>
       <c r="G65">
-        <v>-0.2444032966548068</v>
+        <v>-0.24440329665480681</v>
       </c>
       <c r="H65">
         <v>1000.725328053572</v>
@@ -7911,14 +7942,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7938,7 +7976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -7946,19 +7984,19 @@
         <v>3736643648.999999</v>
       </c>
       <c r="C2">
-        <v>2358944149395.825</v>
+        <v>2358944149395.8252</v>
       </c>
       <c r="D2">
-        <v>631.3002713082169</v>
+        <v>631.30027130821691</v>
       </c>
       <c r="E2">
-        <v>0.05085051570553933</v>
+        <v>5.0850515705539327E-2</v>
       </c>
       <c r="F2">
-        <v>1391.764578126095</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1391.7645781260951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -7966,19 +8004,19 @@
         <v>3858452251.000001</v>
       </c>
       <c r="C3">
-        <v>2382178221758.986</v>
+        <v>2382178221758.9858</v>
       </c>
       <c r="D3">
-        <v>617.392173543574</v>
+        <v>617.39217354357402</v>
       </c>
       <c r="E3">
-        <v>0.02769935868453679</v>
+        <v>2.7699358684536789E-2</v>
       </c>
       <c r="F3">
-        <v>1361.102785794163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1361.1027857941631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -7986,39 +8024,39 @@
         <v>3883185199.369998</v>
       </c>
       <c r="C4">
-        <v>2406986397628.009</v>
+        <v>2406986397628.0088</v>
       </c>
       <c r="D4">
-        <v>619.8484682158644</v>
+        <v>619.84846821586439</v>
       </c>
       <c r="E4">
-        <v>0.03178806043299667</v>
+        <v>3.1788060432996673E-2</v>
       </c>
       <c r="F4">
-        <v>1366.517933028695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1366.5179330286951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2004</v>
       </c>
       <c r="B5">
-        <v>3970555263.370002</v>
+        <v>3970555263.3700018</v>
       </c>
       <c r="C5">
         <v>2391887810476.145</v>
       </c>
       <c r="D5">
-        <v>602.4063768970274</v>
+        <v>602.40637689702737</v>
       </c>
       <c r="E5">
-        <v>0.002754284446491054</v>
+        <v>2.7542844464910538E-3</v>
       </c>
       <c r="F5">
         <v>1328.065098507187</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -8029,7 +8067,7 @@
         <v>2436302255997.813</v>
       </c>
       <c r="D6">
-        <v>600.7517357350897</v>
+        <v>600.75173573508971</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -8038,27 +8076,27 @@
         <v>1324.417276601579</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2006</v>
       </c>
       <c r="B7">
-        <v>4064702227.440003</v>
+        <v>4064702227.4400029</v>
       </c>
       <c r="C7">
-        <v>2387002254182.362</v>
+        <v>2387002254182.3618</v>
       </c>
       <c r="D7">
-        <v>587.2514444153327</v>
+        <v>587.25144441533268</v>
       </c>
       <c r="E7">
-        <v>-0.02247233011027067</v>
+        <v>-2.247233011027067E-2</v>
       </c>
       <c r="F7">
-        <v>1294.654534358043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1294.6545343580431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -8066,39 +8104,39 @@
         <v>4156744724.000001</v>
       </c>
       <c r="C8">
-        <v>2451737857235.513</v>
+        <v>2451737857235.5132</v>
       </c>
       <c r="D8">
-        <v>589.8216080193218</v>
+        <v>589.82160801932184</v>
       </c>
       <c r="E8">
-        <v>-0.01819408428740299</v>
+        <v>-1.819408428740299E-2</v>
       </c>
       <c r="F8">
-        <v>1300.320717039397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1300.3207170393971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2008</v>
       </c>
       <c r="B9">
-        <v>4119387759.610008</v>
+        <v>4119387759.6100078</v>
       </c>
       <c r="C9">
-        <v>2397135067112.737</v>
+        <v>2397135067112.7368</v>
       </c>
       <c r="D9">
-        <v>581.9153735941769</v>
+        <v>581.91537359417691</v>
       </c>
       <c r="E9">
-        <v>-0.03135465287980286</v>
+        <v>-3.1354652879802859E-2</v>
       </c>
       <c r="F9">
         <v>1282.890632625722</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -8106,79 +8144,79 @@
         <v>3950330926.559998</v>
       </c>
       <c r="C10">
-        <v>2180356986979.84</v>
+        <v>2180356986979.8401</v>
       </c>
       <c r="D10">
-        <v>551.942869474615</v>
+        <v>551.94286947461501</v>
       </c>
       <c r="E10">
-        <v>-0.08124631750044196</v>
+        <v>-8.1246317500441964E-2</v>
       </c>
       <c r="F10">
-        <v>1216.813250043736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1216.8132500437359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2010</v>
       </c>
       <c r="B11">
-        <v>4125059899.050002</v>
+        <v>4125059899.0500021</v>
       </c>
       <c r="C11">
-        <v>2308266296386.808</v>
+        <v>2308266296386.8081</v>
       </c>
       <c r="D11">
-        <v>559.5715826862054</v>
+        <v>559.57158268620537</v>
       </c>
       <c r="E11">
-        <v>-0.06854770548185869</v>
+        <v>-6.8547705481858692E-2</v>
       </c>
       <c r="F11">
         <v>1233.631511190008</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
       <c r="B12">
-        <v>4100140926.179998</v>
+        <v>4100140926.1799979</v>
       </c>
       <c r="C12">
-        <v>2214192266380.036</v>
+        <v>2214192266380.0361</v>
       </c>
       <c r="D12">
         <v>540.0283322561171</v>
       </c>
       <c r="E12">
-        <v>-0.1010790312651706</v>
+        <v>-0.10107903126517059</v>
       </c>
       <c r="F12">
-        <v>1190.546461291836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1190.5464612918361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2012</v>
       </c>
       <c r="B13">
-        <v>4047765266.710002</v>
+        <v>4047765266.7100019</v>
       </c>
       <c r="C13">
-        <v>2084285737971.951</v>
+        <v>2084285737971.9509</v>
       </c>
       <c r="D13">
-        <v>514.9225808901821</v>
+        <v>514.92258089018208</v>
       </c>
       <c r="E13">
         <v>-0.1428695911130172</v>
       </c>
       <c r="F13">
-        <v>1135.198321830495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1135.1983218304949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -8189,67 +8227,67 @@
         <v>2102528892309.697</v>
       </c>
       <c r="D14">
-        <v>517.1046416998404</v>
+        <v>517.10464169984039</v>
       </c>
       <c r="E14">
-        <v>-0.1392373738760777</v>
+        <v>-0.13923737387607771</v>
       </c>
       <c r="F14">
-        <v>1140.008893091468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1140.0088930914681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2014</v>
       </c>
       <c r="B15">
-        <v>4104838663.540001</v>
+        <v>4104838663.5400009</v>
       </c>
       <c r="C15">
-        <v>2098238919257.423</v>
+        <v>2098238919257.4231</v>
       </c>
       <c r="D15">
-        <v>511.1623357805512</v>
+        <v>511.16233578055119</v>
       </c>
       <c r="E15">
-        <v>-0.1491288241471586</v>
+        <v>-0.14912882414715861</v>
       </c>
       <c r="F15">
-        <v>1126.908485461803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>1126.9084854618029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
       <c r="B16">
-        <v>4091740205.860001</v>
+        <v>4091740205.8600011</v>
       </c>
       <c r="C16">
         <v>1973193278749.769</v>
       </c>
       <c r="D16">
-        <v>482.2381626096038</v>
+        <v>482.23816260960382</v>
       </c>
       <c r="E16">
-        <v>-0.1972754568581825</v>
+        <v>-0.19727545685818251</v>
       </c>
       <c r="F16">
         <v>1063.142253289132</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2016</v>
       </c>
       <c r="B17">
-        <v>4098136823.76</v>
+        <v>4098136823.7600002</v>
       </c>
       <c r="C17">
-        <v>1868328856882.609</v>
+        <v>1868328856882.6089</v>
       </c>
       <c r="D17">
-        <v>455.8971399028194</v>
+        <v>455.89713990281939</v>
       </c>
       <c r="E17">
         <v>-0.2411222260640227</v>

--- a/Calculated values/2017/2017 Q1 US Power Sector CO2 Emissions Intensity.xlsx
+++ b/Calculated values/2017/2017 Q1 US Power Sector CO2 Emissions Intensity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>quarter</t>
-  </si>
-  <si>
-    <t>index (g/kWh)</t>
   </si>
   <si>
     <t>change since 2005</t>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>2016 Q4</t>
+  </si>
+  <si>
+    <t>index (kg/MWh)</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -648,13 +650,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6234,7 +6236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6260,16 +6264,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6289,7 +6293,7 @@
         <v>637.93666910125739</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>6.1897338208549167E-2</v>
@@ -6315,7 +6319,7 @@
         <v>628.18870766423856</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>4.5671065595135812E-2</v>
@@ -6341,7 +6345,7 @@
         <v>640.59782791486873</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>6.6327052939801845E-2</v>
@@ -6367,7 +6371,7 @@
         <v>616.64584616171044</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>2.6457036211759839E-2</v>
@@ -6393,7 +6397,7 @@
         <v>607.49371275566637</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>1.122256769233829E-2</v>
@@ -6419,7 +6423,7 @@
         <v>606.00127878425394</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>8.7382902735036096E-3</v>
@@ -6445,7 +6449,7 @@
         <v>628.02546510332206</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>4.5399335109468947E-2</v>
@@ -6471,7 +6475,7 @@
         <v>626.09681437748031</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>4.2188939514886413E-2</v>
@@ -6497,7 +6501,7 @@
         <v>625.75914237916231</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>4.162685708011022E-2</v>
@@ -6523,7 +6527,7 @@
         <v>602.35551785165978</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>2.6696254395466262E-3</v>
@@ -6549,7 +6553,7 @@
         <v>624.58290028365673</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>3.9668906689727543E-2</v>
@@ -6575,7 +6579,7 @@
         <v>625.64736056792356</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>4.1440787187025381E-2</v>
@@ -6601,7 +6605,7 @@
         <v>607.92553540867118</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14">
         <v>1.194137152979443E-2</v>
@@ -6627,7 +6631,7 @@
         <v>592.72419815409557</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15">
         <v>-1.3362487536005861E-2</v>
@@ -6653,7 +6657,7 @@
         <v>602.64053519008417</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>3.1440599213307359E-3</v>
@@ -6679,7 +6683,7 @@
         <v>606.29491210156164</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17">
         <v>9.2270667511086223E-3</v>
@@ -6705,7 +6709,7 @@
         <v>603.62768682337617</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18">
         <v>4.7872538974315388E-3</v>
@@ -6731,7 +6735,7 @@
         <v>586.79842656595088</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19">
         <v>-2.3226415071552351E-2</v>
@@ -6757,7 +6761,7 @@
         <v>605.28330150549129</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>7.5431588472346248E-3</v>
@@ -6783,7 +6787,7 @@
         <v>606.42617084845836</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <v>9.4455575836587934E-3</v>
@@ -6809,7 +6813,7 @@
         <v>586.76592791474536</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>-2.3280511712930749E-2</v>
@@ -6835,7 +6839,7 @@
         <v>569.31877171183305</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>-5.2322718609867452E-2</v>
@@ -6861,7 +6865,7 @@
         <v>594.45604223797125</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>-1.04796925628768E-2</v>
@@ -6887,7 +6891,7 @@
         <v>597.57077771136153</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>-5.2949626851028489E-3</v>
@@ -6913,7 +6917,7 @@
         <v>585.70154241269745</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>-2.5052267729158511E-2</v>
@@ -6939,7 +6943,7 @@
         <v>582.5720592871844</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>-3.0261546270291251E-2</v>
@@ -6965,7 +6969,7 @@
         <v>595.35035190232702</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>-8.9910415758572143E-3</v>
@@ -6991,7 +6995,7 @@
         <v>594.71472678759858</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>-1.004909114428781E-2</v>
@@ -7017,7 +7021,7 @@
         <v>587.92309062976744</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>-2.1354320499173941E-2</v>
@@ -7043,7 +7047,7 @@
         <v>571.95090942783384</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>-4.7941311849918497E-2</v>
@@ -7069,7 +7073,7 @@
         <v>587.84839993191372</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32">
         <v>-2.147864922501996E-2</v>
@@ -7095,7 +7099,7 @@
         <v>579.05499134967499</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33">
         <v>-3.6115991173735207E-2</v>
@@ -7121,7 +7125,7 @@
         <v>556.4480200307122</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>-7.3747128920346183E-2</v>
@@ -7147,7 +7151,7 @@
         <v>534.08353834024376</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35">
         <v>-0.1109746230084039</v>
@@ -7173,7 +7177,7 @@
         <v>556.3079868525831</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>-7.3980225505506703E-2</v>
@@ -7199,7 +7203,7 @@
         <v>560.18661879147692</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>-6.7523927989948371E-2</v>
@@ -7225,7 +7229,7 @@
         <v>563.71082785479609</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>-6.1657596103271588E-2</v>
@@ -7251,7 +7255,7 @@
         <v>550.20586790387824</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G39">
         <v>-8.4137697528851266E-2</v>
@@ -7277,7 +7281,7 @@
         <v>571.20065025742167</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40">
         <v>-4.9190179103700361E-2</v>
@@ -7303,7 +7307,7 @@
         <v>550.99879177484183</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41">
         <v>-8.2817811419835935E-2</v>
@@ -7329,7 +7333,7 @@
         <v>542.86833357955345</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>-9.6351618667749786E-2</v>
@@ -7355,7 +7359,7 @@
         <v>536.58073054746262</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>-0.10681784399525091</v>
@@ -7381,7 +7385,7 @@
         <v>558.3245998947375</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G44">
         <v>-7.0623409499495762E-2</v>
@@ -7407,7 +7411,7 @@
         <v>518.226499558829</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45">
         <v>-0.1373699504592881</v>
@@ -7433,7 +7437,7 @@
         <v>493.72035489025421</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G46">
         <v>-0.1781624163164007</v>
@@ -7459,7 +7463,7 @@
         <v>497.69807672822151</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G47">
         <v>-0.17154117562518559</v>
@@ -7485,7 +7489,7 @@
         <v>540.56543443479518</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48">
         <v>-0.1001849811164498</v>
@@ -7511,7 +7515,7 @@
         <v>523.3752960549192</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G49">
         <v>-0.12879936099642109</v>
@@ -7537,7 +7541,7 @@
         <v>513.87963369867134</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G50">
         <v>-0.14460566132217689</v>
@@ -7563,7 +7567,7 @@
         <v>503.59466237043779</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51">
         <v>-0.16172583046434119</v>
@@ -7589,7 +7593,7 @@
         <v>534.58261927447609</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G52">
         <v>-0.1101438623055294</v>
@@ -7615,7 +7619,7 @@
         <v>513.84413789304506</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G53">
         <v>-0.14466474697023221</v>
@@ -7641,7 +7645,7 @@
         <v>529.81519615357854</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G54">
         <v>-0.11807962484654649</v>
@@ -7667,7 +7671,7 @@
         <v>495.54620598249971</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55">
         <v>-0.1751231390515397</v>
@@ -7693,7 +7697,7 @@
         <v>525.21849439541586</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56">
         <v>-0.1257312078295538</v>
@@ -7719,7 +7723,7 @@
         <v>490.99772867588979</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57">
         <v>-0.182694448522738</v>
@@ -7745,7 +7749,7 @@
         <v>488.72432920132889</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58">
         <v>-0.18647870637723929</v>
@@ -7771,7 +7775,7 @@
         <v>474.56747720666681</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G59">
         <v>-0.21004393499424809</v>
@@ -7797,7 +7801,7 @@
         <v>509.13770456339859</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G60">
         <v>-0.15249898705592679</v>
@@ -7823,7 +7827,7 @@
         <v>450.39472908731682</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G61">
         <v>-0.25028143524844509</v>
@@ -7849,7 +7853,7 @@
         <v>429.7474796111826</v>
       </c>
       <c r="F62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G62">
         <v>-0.28465045700561048</v>
@@ -7875,7 +7879,7 @@
         <v>434.3286446295146</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G63">
         <v>-0.27702473618646639</v>
@@ -7901,7 +7905,7 @@
         <v>497.07099226263722</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G64">
         <v>-0.1725850085902573</v>
@@ -7927,7 +7931,7 @@
         <v>453.92603105033641</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G65">
         <v>-0.24440329665480681</v>
@@ -7945,7 +7949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7967,13 +7973,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/Calculated values/2017/2017 Q1 US Power Sector CO2 Emissions Intensity.xlsx
+++ b/Calculated values/2017/2017 Q1 US Power Sector CO2 Emissions Intensity.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Quarterly" sheetId="2" r:id="rId2"/>
     <sheet name="Annual" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>year</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>quarter</t>
+  </si>
+  <si>
+    <t>index (g/kWh)</t>
   </si>
   <si>
     <t>change since 2005</t>
@@ -242,17 +245,18 @@
     <t>2016 Q4</t>
   </si>
   <si>
-    <t>index (kg/MWh)</t>
+    <t>2017 Q1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +266,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -301,18 +312,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,20 +628,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -650,13 +665,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -667,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>332493159.99999958</v>
+        <v>332493159.9999997</v>
       </c>
       <c r="D2">
         <v>214991603731.11499</v>
@@ -679,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>646.60459099704565</v>
+        <v>646.60459099704553</v>
       </c>
       <c r="H2">
-        <v>7.6325797387584327E-2</v>
+        <v>7.6325797387583938E-2</v>
       </c>
       <c r="I2">
         <v>1425.5044813120869</v>
@@ -708,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>637.28492256003517</v>
+        <v>637.28492256003528</v>
       </c>
       <c r="H3">
-        <v>6.0812453217872063E-2</v>
+        <v>6.0812453217872049E-2</v>
       </c>
       <c r="I3">
         <v>1404.958340275854</v>
@@ -725,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>300706544.00000072</v>
+        <v>300706544.0000006</v>
       </c>
       <c r="D4">
         <v>189134111609.96649</v>
@@ -737,13 +752,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>628.9657321523606</v>
+        <v>628.96573215236083</v>
       </c>
       <c r="H4">
-        <v>4.6964485891576993E-2</v>
+        <v>4.6964485891577173E-2</v>
       </c>
       <c r="I4">
-        <v>1386.6178531030939</v>
+        <v>1386.6178531030951</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -766,10 +781,10 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>628.90283799422787</v>
+        <v>628.90283799422798</v>
       </c>
       <c r="H5">
-        <v>4.6859793463088578E-2</v>
+        <v>4.6859793463088571E-2</v>
       </c>
       <c r="I5">
         <v>1386.4791966420751</v>
@@ -795,13 +810,13 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>629.79006939277633</v>
+        <v>629.79006939277622</v>
       </c>
       <c r="H6">
-        <v>4.8336662102448948E-2</v>
+        <v>4.8336662102448573E-2</v>
       </c>
       <c r="I6">
-        <v>1388.4351869833149</v>
+        <v>1388.435186983314</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -812,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>327693978.00000072</v>
+        <v>327693978.0000006</v>
       </c>
       <c r="D7">
         <v>205173876211.64801</v>
@@ -824,10 +839,10 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>626.11427119862287</v>
+        <v>626.11427119862299</v>
       </c>
       <c r="H7">
-        <v>4.221799780985945E-2</v>
+        <v>4.2217997809859437E-2</v>
       </c>
       <c r="I7">
         <v>1380.331522284484</v>
@@ -856,7 +871,7 @@
         <v>642.85637925031506</v>
       </c>
       <c r="H8">
-        <v>7.0086594862194665E-2</v>
+        <v>7.0086594862194471E-2</v>
       </c>
       <c r="I8">
         <v>1417.2411736952449</v>
@@ -870,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>370532827.99999893</v>
+        <v>370532827.99999881</v>
       </c>
       <c r="D9">
         <v>239206331644.10239</v>
@@ -882,10 +897,10 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>645.57392373369714</v>
+        <v>645.57392373369726</v>
       </c>
       <c r="H9">
-        <v>7.4610168115057357E-2</v>
+        <v>7.4610168115057343E-2</v>
       </c>
       <c r="I9">
         <v>1423.2322722633089</v>
@@ -914,7 +929,7 @@
         <v>631.95903225379743</v>
       </c>
       <c r="H10">
-        <v>5.1947076741313249E-2</v>
+        <v>5.1947076741313047E-2</v>
       </c>
       <c r="I10">
         <v>1393.216882506722</v>
@@ -928,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>294733613</v>
+        <v>294733613.00000012</v>
       </c>
       <c r="D11">
         <v>183289082282.09561</v>
@@ -940,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>621.88048528450554</v>
+        <v>621.88048528450543</v>
       </c>
       <c r="H11">
-        <v>3.5170517690743683E-2</v>
+        <v>3.5170517690743301E-2</v>
       </c>
       <c r="I11">
         <v>1370.997717858221</v>
@@ -972,7 +987,7 @@
         <v>616.34308983054223</v>
       </c>
       <c r="H12">
-        <v>2.595307373748125E-2</v>
+        <v>2.5953073737481059E-2</v>
       </c>
       <c r="I12">
         <v>1358.789975840413</v>
@@ -1001,7 +1016,7 @@
         <v>611.8720569183439</v>
       </c>
       <c r="H13">
-        <v>1.851067674344261E-2</v>
+        <v>1.8510676743442419E-2</v>
       </c>
       <c r="I13">
         <v>1348.9331366821809</v>
@@ -1015,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>319941476.00000101</v>
+        <v>319941476.00000089</v>
       </c>
       <c r="D14">
         <v>194460587937.147</v>
@@ -1027,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>607.80049641687094</v>
+        <v>607.80049641687117</v>
       </c>
       <c r="H14">
-        <v>1.1733233984178779E-2</v>
+        <v>1.173323398417897E-2</v>
       </c>
       <c r="I14">
         <v>1339.956974400634</v>
@@ -1059,7 +1074,7 @@
         <v>604.07572522574867</v>
       </c>
       <c r="H15">
-        <v>5.5330501652097368E-3</v>
+        <v>5.533050165209546E-3</v>
       </c>
       <c r="I15">
         <v>1331.7453438326861</v>
@@ -1088,7 +1103,7 @@
         <v>610.35316335835796</v>
       </c>
       <c r="H16">
-        <v>1.5982355192898281E-2</v>
+        <v>1.598235519289809E-2</v>
       </c>
       <c r="I16">
         <v>1345.584583939836</v>
@@ -1117,7 +1132,7 @@
         <v>603.15629899123155</v>
       </c>
       <c r="H17">
-        <v>4.0025906095796666E-3</v>
+        <v>4.0025906095794766E-3</v>
       </c>
       <c r="I17">
         <v>1329.7183767560689</v>
@@ -1146,7 +1161,7 @@
         <v>604.31578846170169</v>
       </c>
       <c r="H18">
-        <v>5.9326548965373477E-3</v>
+        <v>5.9326548965371569E-3</v>
       </c>
       <c r="I18">
         <v>1332.2745872426681</v>
@@ -1172,13 +1187,13 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>609.93999952800675</v>
+        <v>609.93999952800664</v>
       </c>
       <c r="H19">
-        <v>1.529461047944247E-2</v>
+        <v>1.529461047944209E-2</v>
       </c>
       <c r="I19">
-        <v>1344.6737229594439</v>
+        <v>1344.673722959443</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1204,7 +1219,7 @@
         <v>624.70086081992258</v>
       </c>
       <c r="H20">
-        <v>3.9865261571867858E-2</v>
+        <v>3.986526157186767E-2</v>
       </c>
       <c r="I20">
         <v>1377.2155177636009</v>
@@ -1233,7 +1248,7 @@
         <v>628.60222988727105</v>
       </c>
       <c r="H21">
-        <v>4.635940688228414E-2</v>
+        <v>4.6359406882283939E-2</v>
       </c>
       <c r="I21">
         <v>1385.816476009478</v>
@@ -1262,7 +1277,7 @@
         <v>631.20232580232835</v>
       </c>
       <c r="H22">
-        <v>5.068747746517771E-2</v>
+        <v>5.0687477465177523E-2</v>
       </c>
       <c r="I22">
         <v>1391.548647463813</v>
@@ -1288,10 +1303,10 @@
         <v>4</v>
       </c>
       <c r="G23">
-        <v>634.03072456119799</v>
+        <v>634.0307245611981</v>
       </c>
       <c r="H23">
-        <v>5.5395576652621202E-2</v>
+        <v>5.5395576652621188E-2</v>
       </c>
       <c r="I23">
         <v>1397.784135367617</v>
@@ -1305,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>296289560.99999923</v>
+        <v>296289560.99999928</v>
       </c>
       <c r="D24">
         <v>184251033028.017</v>
@@ -1317,13 +1332,13 @@
         <v>4</v>
       </c>
       <c r="G24">
-        <v>621.86137238907804</v>
+        <v>621.86137238907793</v>
       </c>
       <c r="H24">
-        <v>3.513870272577465E-2</v>
+        <v>3.5138702725774268E-2</v>
       </c>
       <c r="I24">
-        <v>1370.9555815689621</v>
+        <v>1370.955581568961</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1334,7 +1349,7 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>324833704.99999952</v>
+        <v>324833704.9999994</v>
       </c>
       <c r="D25">
         <v>202196082973.61771</v>
@@ -1346,10 +1361,10 @@
         <v>4</v>
       </c>
       <c r="G25">
-        <v>622.46029233209674</v>
+        <v>622.46029233209686</v>
       </c>
       <c r="H25">
-        <v>3.613565355819439E-2</v>
+        <v>3.6135653558194383E-2</v>
       </c>
       <c r="I25">
         <v>1372.275960475341</v>
@@ -1363,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>341988902.00999928</v>
+        <v>341988902.00999939</v>
       </c>
       <c r="D26">
         <v>216405212021.5058</v>
@@ -1375,13 +1390,13 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>632.78431185810348</v>
+        <v>632.78431185810325</v>
       </c>
       <c r="H26">
-        <v>5.332082159332973E-2</v>
+        <v>5.3320821593329147E-2</v>
       </c>
       <c r="I26">
-        <v>1395.0362939223751</v>
+        <v>1395.0362939223739</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1392,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>299248776.27000022</v>
+        <v>299248776.27000028</v>
       </c>
       <c r="D27">
         <v>187834834096.51459</v>
@@ -1404,13 +1419,13 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>627.6878937912137</v>
+        <v>627.68789379121358</v>
       </c>
       <c r="H27">
-        <v>4.4837420275056848E-2</v>
+        <v>4.483742027505646E-2</v>
       </c>
       <c r="I27">
-        <v>1383.8007306521099</v>
+        <v>1383.800730652109</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1436,7 +1451,7 @@
         <v>615.9676949716636</v>
       </c>
       <c r="H28">
-        <v>2.53281985410421E-2</v>
+        <v>2.5328198541041909E-2</v>
       </c>
       <c r="I28">
         <v>1357.9623803345301</v>
@@ -1465,7 +1480,7 @@
         <v>597.54985652879282</v>
       </c>
       <c r="H29">
-        <v>-5.3297876907153806E-3</v>
+        <v>-5.3297876907155697E-3</v>
       </c>
       <c r="I29">
         <v>1317.358413703377</v>
@@ -1479,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>307544887.00000018</v>
+        <v>307544887.00000012</v>
       </c>
       <c r="D30">
         <v>183875128969.5246</v>
@@ -1491,10 +1506,10 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>597.88062407138807</v>
+        <v>597.88062407138818</v>
       </c>
       <c r="H30">
-        <v>-4.7791982826123468E-3</v>
+        <v>-4.779198282612346E-3</v>
       </c>
       <c r="I30">
         <v>1318.087623827782</v>
@@ -1520,13 +1535,13 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>610.72037497413703</v>
+        <v>610.72037497413692</v>
       </c>
       <c r="H31">
-        <v>1.6593608717334202E-2</v>
+        <v>1.659360871733382E-2</v>
       </c>
       <c r="I31">
-        <v>1346.394138667983</v>
+        <v>1346.3941386679819</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1537,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>374396049.00000012</v>
+        <v>374396049.00000018</v>
       </c>
       <c r="D32">
         <v>233302449123.32919</v>
@@ -1549,10 +1564,10 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>623.1434593032501</v>
+        <v>623.14345930324998</v>
       </c>
       <c r="H32">
-        <v>3.7272840403468198E-2</v>
+        <v>3.7272840403467823E-2</v>
       </c>
       <c r="I32">
         <v>1373.782070379945</v>
@@ -1581,7 +1596,7 @@
         <v>625.41746436431299</v>
       </c>
       <c r="H33">
-        <v>4.1058106305830323E-2</v>
+        <v>4.1058106305830129E-2</v>
       </c>
       <c r="I33">
         <v>1378.795341937564</v>
@@ -1610,7 +1625,7 @@
         <v>625.26456728788582</v>
       </c>
       <c r="H34">
-        <v>4.0803596718371409E-2</v>
+        <v>4.0803596718371207E-2</v>
       </c>
       <c r="I34">
         <v>1378.4582650428731</v>
@@ -1636,13 +1651,13 @@
         <v>4</v>
       </c>
       <c r="G35">
-        <v>630.83148855984598</v>
+        <v>630.83148855984587</v>
       </c>
       <c r="H35">
-        <v>5.0070188790965878E-2</v>
+        <v>5.0070188790965503E-2</v>
       </c>
       <c r="I35">
-        <v>1390.731099679037</v>
+        <v>1390.7310996790361</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1668,7 +1683,7 @@
         <v>626.0659877235737</v>
       </c>
       <c r="H36">
-        <v>4.2137626048652482E-2</v>
+        <v>4.2137626048652281E-2</v>
       </c>
       <c r="I36">
         <v>1380.2250765353911</v>
@@ -1682,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>331680429.00000018</v>
+        <v>331680429.00000012</v>
       </c>
       <c r="D37">
         <v>205800105605.28281</v>
@@ -1694,13 +1709,13 @@
         <v>4</v>
       </c>
       <c r="G37">
-        <v>620.47708460146339</v>
+        <v>620.4770846014635</v>
       </c>
       <c r="H37">
-        <v>3.2834443403209707E-2</v>
+        <v>3.28344434032097E-2</v>
       </c>
       <c r="I37">
-        <v>1367.9037807123859</v>
+        <v>1367.9037807123871</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1714,7 +1729,7 @@
         <v>346545627.00999987</v>
       </c>
       <c r="D38">
-        <v>214495035413.8652</v>
+        <v>214495035413.86511</v>
       </c>
       <c r="E38" s="2">
         <v>37987</v>
@@ -1723,13 +1738,13 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>618.95178786277324</v>
+        <v>618.9517878627729</v>
       </c>
       <c r="H38">
-        <v>3.0295463242255589E-2</v>
+        <v>3.0295463242254819E-2</v>
       </c>
       <c r="I38">
-        <v>1364.5411115222701</v>
+        <v>1364.5411115222689</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1740,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>314279909.53999972</v>
+        <v>314279909.53999978</v>
       </c>
       <c r="D39">
         <v>191236506161.25171</v>
@@ -1752,10 +1767,10 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>608.49103094485974</v>
+        <v>608.49103094485963</v>
       </c>
       <c r="H39">
-        <v>1.2882684725496829E-2</v>
+        <v>1.288268472549645E-2</v>
       </c>
       <c r="I39">
         <v>1341.4793268210381</v>
@@ -1769,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>308812095.53000063</v>
+        <v>308812095.53000051</v>
       </c>
       <c r="D40">
         <v>183735935059.5134</v>
@@ -1781,10 +1796,10 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>594.9764847914247</v>
+        <v>594.97648479142481</v>
       </c>
       <c r="H40">
-        <v>-9.6133737118515514E-3</v>
+        <v>-9.6133737118515496E-3</v>
       </c>
       <c r="I40">
         <v>1311.685158371175</v>
@@ -1810,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="G41">
-        <v>587.79124834553954</v>
+        <v>587.79124834553966</v>
       </c>
       <c r="H41">
         <v>-2.157378267695122E-2</v>
@@ -1830,7 +1845,7 @@
         <v>327380263.6400004</v>
       </c>
       <c r="D42">
-        <v>194185917946.10629</v>
+        <v>194185917946.1062</v>
       </c>
       <c r="E42" s="2">
         <v>38108</v>
@@ -1839,13 +1854,13 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <v>593.15096086439837</v>
+        <v>593.15096086439803</v>
       </c>
       <c r="H42">
-        <v>-1.2652106383664119E-2</v>
+        <v>-1.265210638366487E-2</v>
       </c>
       <c r="I42">
-        <v>1307.6606083216529</v>
+        <v>1307.660608321652</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1856,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>345085078.82000101</v>
+        <v>345085078.82000113</v>
       </c>
       <c r="D43">
         <v>205833880422.995</v>
@@ -1871,7 +1886,7 @@
         <v>596.47284990365949</v>
       </c>
       <c r="H43">
-        <v>-7.1225525902049837E-3</v>
+        <v>-7.1225525902051719E-3</v>
       </c>
       <c r="I43">
         <v>1314.9840448976081</v>
@@ -1885,10 +1900,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>377331697.13999921</v>
+        <v>377331697.13999927</v>
       </c>
       <c r="D44">
-        <v>227314561161.4408</v>
+        <v>227314561161.4407</v>
       </c>
       <c r="E44" s="2">
         <v>38169</v>
@@ -1897,13 +1912,13 @@
         <v>3</v>
       </c>
       <c r="G44">
-        <v>602.42636090310111</v>
+        <v>602.42636090310077</v>
       </c>
       <c r="H44">
-        <v>2.7875494457996332E-3</v>
+        <v>2.787549445798876E-3</v>
       </c>
       <c r="I44">
-        <v>1328.109155246977</v>
+        <v>1328.1091552469759</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1917,7 +1932,7 @@
         <v>368439037.07000011</v>
       </c>
       <c r="D45">
-        <v>222671536515.57379</v>
+        <v>222671536515.5737</v>
       </c>
       <c r="E45" s="2">
         <v>38200</v>
@@ -1929,7 +1944,7 @@
         <v>604.36466853882303</v>
       </c>
       <c r="H45">
-        <v>6.0140197502926646E-3</v>
+        <v>6.0140197502924764E-3</v>
       </c>
       <c r="I45">
         <v>1332.382348260689</v>
@@ -1943,10 +1958,10 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>335622197.88999939</v>
+        <v>335622197.88999951</v>
       </c>
       <c r="D46">
-        <v>201705117674.50311</v>
+        <v>201705117674.50299</v>
       </c>
       <c r="E46" s="2">
         <v>38231</v>
@@ -1955,10 +1970,10 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>600.98860844899218</v>
+        <v>600.98860844899195</v>
       </c>
       <c r="H46">
-        <v>3.942938485441806E-4</v>
+        <v>3.942938485436128E-4</v>
       </c>
       <c r="I46">
         <v>1324.9394861866481</v>
@@ -1972,7 +1987,7 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>312450222.89999992</v>
+        <v>312450222.9000001</v>
       </c>
       <c r="D47">
         <v>188912682837.93951</v>
@@ -1984,13 +1999,13 @@
         <v>4</v>
       </c>
       <c r="G47">
-        <v>604.61689252307315</v>
+        <v>604.61689252307281</v>
       </c>
       <c r="H47">
-        <v>6.4338670336991739E-3</v>
+        <v>6.4338670336984158E-3</v>
       </c>
       <c r="I47">
-        <v>1332.9384012563669</v>
+        <v>1332.938401256366</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2004,7 +2019,7 @@
         <v>302101256.22000021</v>
       </c>
       <c r="D48">
-        <v>184184918201.0564</v>
+        <v>184184918201.0563</v>
       </c>
       <c r="E48" s="2">
         <v>38292</v>
@@ -2013,10 +2028,10 @@
         <v>4</v>
       </c>
       <c r="G48">
-        <v>609.67941843620395</v>
+        <v>609.67941843620372</v>
       </c>
       <c r="H48">
-        <v>1.4860852112545781E-2</v>
+        <v>1.486085211254521E-2</v>
       </c>
       <c r="I48">
         <v>1344.0992458844551</v>
@@ -2030,7 +2045,7 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>341947963.42000049</v>
+        <v>341947963.42000037</v>
       </c>
       <c r="D49">
         <v>206823144400.9866</v>
@@ -2042,10 +2057,10 @@
         <v>4</v>
       </c>
       <c r="G49">
-        <v>604.83806463544954</v>
+        <v>604.83806463544965</v>
       </c>
       <c r="H49">
-        <v>6.8020259572947319E-3</v>
+        <v>6.8020259572947311E-3</v>
       </c>
       <c r="I49">
         <v>1333.4259972953121</v>
@@ -2062,7 +2077,7 @@
         <v>343121453.37000048</v>
       </c>
       <c r="D50">
-        <v>208453956490.89639</v>
+        <v>208453956490.8963</v>
       </c>
       <c r="E50" s="2">
         <v>38353</v>
@@ -2071,13 +2086,13 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>607.52236400127617</v>
+        <v>607.52236400127583</v>
       </c>
       <c r="H50">
-        <v>1.127026001498261E-2</v>
+        <v>1.127026001498185E-2</v>
       </c>
       <c r="I50">
-        <v>1339.3438036772141</v>
+        <v>1339.3438036772129</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2100,10 +2115,10 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>601.74518292181165</v>
+        <v>601.74518292181187</v>
       </c>
       <c r="H51">
-        <v>1.653673435510682E-3</v>
+        <v>1.6536734355108711E-3</v>
       </c>
       <c r="I51">
         <v>1326.607430269426</v>
@@ -2129,10 +2144,10 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>601.18825039219303</v>
+        <v>601.18825039219291</v>
       </c>
       <c r="H52">
-        <v>7.266140589162073E-4</v>
+        <v>7.266140589158287E-4</v>
       </c>
       <c r="I52">
         <v>1325.3796168146289</v>
@@ -2149,7 +2164,7 @@
         <v>289562399.85999858</v>
       </c>
       <c r="D53">
-        <v>168758363484.164</v>
+        <v>168758363484.16409</v>
       </c>
       <c r="E53" s="2">
         <v>38443</v>
@@ -2158,13 +2173,13 @@
         <v>2</v>
       </c>
       <c r="G53">
-        <v>582.8048239887413</v>
+        <v>582.80482398874176</v>
       </c>
       <c r="H53">
-        <v>-2.9874090541558169E-2</v>
+        <v>-2.9874090541557589E-2</v>
       </c>
       <c r="I53">
-        <v>1284.8515149655791</v>
+        <v>1284.85151496558</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2178,7 +2193,7 @@
         <v>315062109.94000041</v>
       </c>
       <c r="D54">
-        <v>182492641482.6265</v>
+        <v>182492641482.6264</v>
       </c>
       <c r="E54" s="2">
         <v>38473</v>
@@ -2187,13 +2202,13 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>579.22751014833204</v>
+        <v>579.22751014833182</v>
       </c>
       <c r="H54">
-        <v>-3.5828819637816207E-2</v>
+        <v>-3.5828819637816769E-2</v>
       </c>
       <c r="I54">
-        <v>1276.964968873013</v>
+        <v>1276.9649688730119</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2204,7 +2219,7 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>363671636.03000009</v>
+        <v>363671636.03000021</v>
       </c>
       <c r="D55">
         <v>216943649856.12741</v>
@@ -2216,10 +2231,10 @@
         <v>2</v>
       </c>
       <c r="G55">
-        <v>596.5371735458391</v>
+        <v>596.53717354583898</v>
       </c>
       <c r="H55">
-        <v>-7.0154806695539454E-3</v>
+        <v>-7.015480669554321E-3</v>
       </c>
       <c r="I55">
         <v>1315.125852799157</v>
@@ -2236,7 +2251,7 @@
         <v>402273846.43999797</v>
       </c>
       <c r="D56">
-        <v>241391677790.3952</v>
+        <v>241391677790.39529</v>
       </c>
       <c r="E56" s="2">
         <v>38534</v>
@@ -2245,13 +2260,13 @@
         <v>3</v>
       </c>
       <c r="G56">
-        <v>600.06803804582023</v>
+        <v>600.06803804582046</v>
       </c>
       <c r="H56">
-        <v>-1.138070268632319E-3</v>
+        <v>-1.1380702686321299E-3</v>
       </c>
       <c r="I56">
-        <v>1322.9099966758149</v>
+        <v>1322.909996675816</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2265,7 +2280,7 @@
         <v>404940681.06000042</v>
       </c>
       <c r="D57">
-        <v>245152350886.9649</v>
+        <v>245152350886.96481</v>
       </c>
       <c r="E57" s="2">
         <v>38565</v>
@@ -2274,13 +2289,13 @@
         <v>3</v>
       </c>
       <c r="G57">
-        <v>605.40311792146281</v>
+        <v>605.40311792146258</v>
       </c>
       <c r="H57">
-        <v>7.7426029917028946E-3</v>
+        <v>7.7426029917023256E-3</v>
       </c>
       <c r="I57">
-        <v>1334.6717137696569</v>
+        <v>1334.671713769656</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2294,7 +2309,7 @@
         <v>350217800.51999998</v>
       </c>
       <c r="D58">
-        <v>214030432095.7713</v>
+        <v>214030432095.77121</v>
       </c>
       <c r="E58" s="2">
         <v>38596</v>
@@ -2306,7 +2321,7 @@
         <v>611.13521864959728</v>
       </c>
       <c r="H58">
-        <v>1.7284149669251112E-2</v>
+        <v>1.7284149669250921E-2</v>
       </c>
       <c r="I58">
         <v>1347.308703034902</v>
@@ -2320,10 +2335,10 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>316397923.61000001</v>
+        <v>316397923.61000007</v>
       </c>
       <c r="D59">
-        <v>194335522250.69031</v>
+        <v>194335522250.6904</v>
       </c>
       <c r="E59" s="2">
         <v>38626</v>
@@ -2332,10 +2347,10 @@
         <v>4</v>
       </c>
       <c r="G59">
-        <v>614.21238177982855</v>
+        <v>614.21238177982832</v>
       </c>
       <c r="H59">
-        <v>2.2406337333787781E-2</v>
+        <v>2.2406337333787212E-2</v>
       </c>
       <c r="I59">
         <v>1354.0926168718099</v>
@@ -2349,10 +2364,10 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>306115236.23000032</v>
+        <v>306115236.23000038</v>
       </c>
       <c r="D60">
-        <v>184396022128.14651</v>
+        <v>184396022128.14639</v>
       </c>
       <c r="E60" s="2">
         <v>38657</v>
@@ -2361,13 +2376,13 @@
         <v>4</v>
       </c>
       <c r="G60">
-        <v>602.37453188903066</v>
+        <v>602.37453188903021</v>
       </c>
       <c r="H60">
-        <v>2.701275847260578E-3</v>
+        <v>2.7012758472596309E-3</v>
       </c>
       <c r="I60">
-        <v>1327.9948930025571</v>
+        <v>1327.994893002556</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2378,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>348101070.54999858</v>
+        <v>348101070.54999852</v>
       </c>
       <c r="D61">
         <v>209874326727.59369</v>
@@ -2390,13 +2405,13 @@
         <v>4</v>
       </c>
       <c r="G61">
-        <v>602.91204044846199</v>
+        <v>602.91204044846211</v>
       </c>
       <c r="H61">
-        <v>3.5960024497124648E-3</v>
+        <v>3.5960024497124639E-3</v>
       </c>
       <c r="I61">
-        <v>1329.179884372679</v>
+        <v>1329.1798843726799</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2410,7 +2425,7 @@
         <v>328657738.49999952</v>
       </c>
       <c r="D62">
-        <v>192052247883.42941</v>
+        <v>192052247883.42929</v>
       </c>
       <c r="E62" s="2">
         <v>38718</v>
@@ -2419,13 +2434,13 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <v>584.35334205109439</v>
+        <v>584.35334205109416</v>
       </c>
       <c r="H62">
-        <v>-2.7296456603541679E-2</v>
+        <v>-2.7296456603542241E-2</v>
       </c>
       <c r="I62">
-        <v>1288.265377885843</v>
+        <v>1288.2653778858421</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2436,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>307333430.03000081</v>
+        <v>307333430.03000063</v>
       </c>
       <c r="D63">
         <v>181251578149.85779</v>
@@ -2448,10 +2463,10 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>589.7554917216936</v>
+        <v>589.75549172169383</v>
       </c>
       <c r="H63">
-        <v>-1.8304140228476928E-2</v>
+        <v>-1.8304140228476741E-2</v>
       </c>
       <c r="I63">
         <v>1300.1749570496461</v>
@@ -2465,10 +2480,10 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>318729799.62999892</v>
+        <v>318729799.6299988</v>
       </c>
       <c r="D64">
-        <v>186893908748.77869</v>
+        <v>186893908748.77881</v>
       </c>
       <c r="E64" s="2">
         <v>38777</v>
@@ -2477,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>586.37099187379613</v>
+        <v>586.37099187379647</v>
       </c>
       <c r="H64">
-        <v>-2.393791479220107E-2</v>
+        <v>-2.3937914792200681E-2</v>
       </c>
       <c r="I64">
-        <v>1292.713488684971</v>
+        <v>1292.7134886849719</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2506,13 +2521,13 @@
         <v>2</v>
       </c>
       <c r="G65">
-        <v>562.87711776253582</v>
+        <v>562.87711776253593</v>
       </c>
       <c r="H65">
-        <v>-6.3045374186409597E-2</v>
+        <v>-6.3045374186409583E-2</v>
       </c>
       <c r="I65">
-        <v>1240.918893819286</v>
+        <v>1240.918893819287</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2535,10 +2550,10 @@
         <v>2</v>
       </c>
       <c r="G66">
-        <v>568.63459102581282</v>
+        <v>568.63459102581294</v>
       </c>
       <c r="H66">
-        <v>-5.34615928657746E-2</v>
+        <v>-5.3461592865774593E-2</v>
       </c>
       <c r="I66">
         <v>1253.6118193755069</v>
@@ -2552,10 +2567,10 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>364259797.55999953</v>
+        <v>364259797.55999941</v>
       </c>
       <c r="D67">
-        <v>209524839979.8876</v>
+        <v>209524839979.88751</v>
       </c>
       <c r="E67" s="2">
         <v>38869</v>
@@ -2567,7 +2582,7 @@
         <v>575.207149906175</v>
       </c>
       <c r="H67">
-        <v>-4.2521035411837507E-2</v>
+        <v>-4.2521035411837688E-2</v>
       </c>
       <c r="I67">
         <v>1268.101682683154</v>
@@ -2581,10 +2596,10 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>410420793.33000141</v>
+        <v>410420793.33000147</v>
       </c>
       <c r="D68">
-        <v>243173478711.99799</v>
+        <v>243173478711.99811</v>
       </c>
       <c r="E68" s="2">
         <v>38899</v>
@@ -2593,10 +2608,10 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>592.49795006480804</v>
+        <v>592.49795006480792</v>
       </c>
       <c r="H68">
-        <v>-1.373909583495767E-2</v>
+        <v>-1.373909583495804E-2</v>
       </c>
       <c r="I68">
         <v>1306.2209807128761</v>
@@ -2610,10 +2625,10 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>407762536.3700003</v>
+        <v>407762536.37000042</v>
       </c>
       <c r="D69">
-        <v>243986833806.16409</v>
+        <v>243986833806.16422</v>
       </c>
       <c r="E69" s="2">
         <v>38930</v>
@@ -2625,7 +2640,7 @@
         <v>598.35519951929211</v>
       </c>
       <c r="H69">
-        <v>-3.9892289497341889E-3</v>
+        <v>-3.9892289497343771E-3</v>
       </c>
       <c r="I69">
         <v>1319.133872860232</v>
@@ -2642,7 +2657,7 @@
         <v>332055320.82999969</v>
       </c>
       <c r="D70">
-        <v>196606003305.04739</v>
+        <v>196606003305.04749</v>
       </c>
       <c r="E70" s="2">
         <v>38961</v>
@@ -2651,7 +2666,7 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>592.08809789168413</v>
+        <v>592.08809789168424</v>
       </c>
       <c r="H70">
         <v>-1.442132802630108E-2</v>
@@ -2668,10 +2683,10 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>321567091.31000042</v>
+        <v>321567091.3100003</v>
       </c>
       <c r="D71">
-        <v>194069474081.68939</v>
+        <v>194069474081.6893</v>
       </c>
       <c r="E71" s="2">
         <v>38991</v>
@@ -2680,10 +2695,10 @@
         <v>4</v>
       </c>
       <c r="G71">
-        <v>603.51161336531345</v>
+        <v>603.51161336531334</v>
       </c>
       <c r="H71">
-        <v>4.5940402100492026E-3</v>
+        <v>4.5940402100488236E-3</v>
       </c>
       <c r="I71">
         <v>1330.50170282517</v>
@@ -2697,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>309158826.41000092</v>
+        <v>309158826.4100008</v>
       </c>
       <c r="D72">
         <v>185024801937.5546</v>
@@ -2709,10 +2724,10 @@
         <v>4</v>
       </c>
       <c r="G72">
-        <v>598.47814822591545</v>
+        <v>598.47814822591556</v>
       </c>
       <c r="H72">
-        <v>-3.784570853369488E-3</v>
+        <v>-3.7845708533694872E-3</v>
       </c>
       <c r="I72">
         <v>1319.404925578853</v>
@@ -2729,7 +2744,7 @@
         <v>336283245.89999998</v>
       </c>
       <c r="D73">
-        <v>198762141939.17349</v>
+        <v>198762141939.17361</v>
       </c>
       <c r="E73" s="2">
         <v>39052</v>
@@ -2738,13 +2753,13 @@
         <v>4</v>
       </c>
       <c r="G73">
-        <v>591.0557375739113</v>
+        <v>591.05573757391153</v>
       </c>
       <c r="H73">
-        <v>-1.6139775525266051E-2</v>
+        <v>-1.613977552526585E-2</v>
       </c>
       <c r="I73">
-        <v>1303.0414790554451</v>
+        <v>1303.041479055446</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2767,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>579.71387173986773</v>
+        <v>579.71387173986784</v>
       </c>
       <c r="H74">
         <v>-3.5019231312714547E-2</v>
@@ -2796,10 +2811,10 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <v>595.64851694489391</v>
+        <v>595.6485169448938</v>
       </c>
       <c r="H75">
-        <v>-8.4947216739229246E-3</v>
+        <v>-8.4947216739233028E-3</v>
       </c>
       <c r="I75">
         <v>1313.1667204567129</v>
@@ -2813,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>320471242.54999989</v>
+        <v>320471242.54999977</v>
       </c>
       <c r="D76">
         <v>186602164323.05139</v>
@@ -2825,10 +2840,10 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>582.2742871973536</v>
+        <v>582.27428719735383</v>
       </c>
       <c r="H76">
-        <v>-3.0757212070518101E-2</v>
+        <v>-3.07572120705179E-2</v>
       </c>
       <c r="I76">
         <v>1283.681893555286</v>
@@ -2842,7 +2857,7 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>303129063.61999887</v>
+        <v>303129063.61999881</v>
       </c>
       <c r="D77">
         <v>175271551711.10809</v>
@@ -2854,10 +2869,10 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <v>578.20767701386637</v>
+        <v>578.2076770138666</v>
       </c>
       <c r="H77">
-        <v>-3.7526414623901078E-2</v>
+        <v>-3.7526414623900883E-2</v>
       </c>
       <c r="I77">
         <v>1274.7166447447701</v>
@@ -2871,7 +2886,7 @@
         <v>5</v>
       </c>
       <c r="C78">
-        <v>330202758.0400005</v>
+        <v>330202758.0400008</v>
       </c>
       <c r="D78">
         <v>190957281287.90521</v>
@@ -2883,13 +2898,13 @@
         <v>2</v>
       </c>
       <c r="G78">
-        <v>578.30310813083156</v>
+        <v>578.30310813083099</v>
       </c>
       <c r="H78">
-        <v>-3.7367561787881517E-2</v>
+        <v>-3.7367561787882662E-2</v>
       </c>
       <c r="I78">
-        <v>1274.9270321852309</v>
+        <v>1274.92703218523</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2900,7 +2915,7 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <v>362754877.21999902</v>
+        <v>362754877.21999931</v>
       </c>
       <c r="D79">
         <v>214063446396.08099</v>
@@ -2912,13 +2927,13 @@
         <v>2</v>
       </c>
       <c r="G79">
-        <v>590.10494369248261</v>
+        <v>590.10494369248227</v>
       </c>
       <c r="H79">
-        <v>-1.7722449073874751E-2</v>
+        <v>-1.7722449073875511E-2</v>
       </c>
       <c r="I79">
-        <v>1300.9453588644469</v>
+        <v>1300.945358864446</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2929,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>393226432.26000088</v>
+        <v>393226432.26000082</v>
       </c>
       <c r="D80">
         <v>233092777913.2843</v>
@@ -2941,10 +2956,10 @@
         <v>3</v>
       </c>
       <c r="G80">
-        <v>592.76986181631753</v>
+        <v>592.76986181631776</v>
       </c>
       <c r="H80">
-        <v>-1.3286476665781611E-2</v>
+        <v>-1.328647666578142E-2</v>
       </c>
       <c r="I80">
         <v>1306.8204373602539</v>
@@ -2958,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>421796659.27000028</v>
+        <v>421796659.27000058</v>
       </c>
       <c r="D81">
         <v>251103823430.64841</v>
@@ -2970,13 +2985,13 @@
         <v>3</v>
       </c>
       <c r="G81">
-        <v>595.31961174190326</v>
+        <v>595.31961174190269</v>
       </c>
       <c r="H81">
-        <v>-9.0422110666721622E-3</v>
+        <v>-9.0422110666732967E-3</v>
       </c>
       <c r="I81">
-        <v>1312.4416160461999</v>
+        <v>1312.441616046199</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2987,7 +3002,7 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>355393911.8599999</v>
+        <v>355393911.86000001</v>
       </c>
       <c r="D82">
         <v>212611573496.77151</v>
@@ -2999,13 +3014,13 @@
         <v>3</v>
       </c>
       <c r="G82">
-        <v>598.24202498022942</v>
+        <v>598.24202498022919</v>
       </c>
       <c r="H82">
-        <v>-4.1776171512667489E-3</v>
+        <v>-4.1776171512673162E-3</v>
       </c>
       <c r="I82">
-        <v>1318.8843682714139</v>
+        <v>1318.884368271413</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3016,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>332615416.40000057</v>
+        <v>332615416.40000081</v>
       </c>
       <c r="D83">
         <v>199847703416.5307</v>
@@ -3028,13 +3043,13 @@
         <v>4</v>
       </c>
       <c r="G83">
-        <v>600.83716377173403</v>
+        <v>600.8371637717338</v>
       </c>
       <c r="H83">
-        <v>1.4220189732768541E-4</v>
+        <v>1.4220189732711759E-4</v>
       </c>
       <c r="I83">
-        <v>1324.6056112511651</v>
+        <v>1324.605611251164</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3045,7 +3060,7 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>314102542.61999887</v>
+        <v>314102542.61999911</v>
       </c>
       <c r="D84">
         <v>185940225767.80511</v>
@@ -3057,13 +3072,13 @@
         <v>4</v>
       </c>
       <c r="G84">
-        <v>591.97300415602001</v>
+        <v>591.97300415601978</v>
       </c>
       <c r="H84">
-        <v>-1.461291088627116E-2</v>
+        <v>-1.4612910886271721E-2</v>
       </c>
       <c r="I84">
-        <v>1305.063684962362</v>
+        <v>1305.0636849623611</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3086,13 +3101,13 @@
         <v>4</v>
       </c>
       <c r="G85">
-        <v>591.32094193845614</v>
+        <v>591.32094193845603</v>
       </c>
       <c r="H85">
-        <v>-1.5698321345828121E-2</v>
+        <v>-1.5698321345828499E-2</v>
       </c>
       <c r="I85">
-        <v>1303.626148597521</v>
+        <v>1303.6261485975199</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3103,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>362998429.05000049</v>
+        <v>362998429.05000043</v>
       </c>
       <c r="D86">
         <v>214455801953.39221</v>
@@ -3115,13 +3130,13 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>590.78988995804286</v>
+        <v>590.78988995804309</v>
       </c>
       <c r="H86">
-        <v>-1.6582300448715739E-2</v>
+        <v>-1.6582300448715542E-2</v>
       </c>
       <c r="I86">
-        <v>1302.4553914015009</v>
+        <v>1302.4553914015021</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3132,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>325105597.11000079</v>
+        <v>325105597.11000073</v>
       </c>
       <c r="D87">
         <v>192790436164.82709</v>
@@ -3144,10 +3159,10 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>593.00866511872334</v>
+        <v>593.00866511872357</v>
       </c>
       <c r="H87">
-        <v>-1.2888969196055179E-2</v>
+        <v>-1.288896919605499E-2</v>
       </c>
       <c r="I87">
         <v>1307.346903120738</v>
@@ -3161,7 +3176,7 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>324629849.57999969</v>
+        <v>324629849.57999963</v>
       </c>
       <c r="D88">
         <v>188163392092.3049</v>
@@ -3173,10 +3188,10 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>579.62443175126191</v>
+        <v>579.62443175126202</v>
       </c>
       <c r="H88">
-        <v>-3.51681114295508E-2</v>
+        <v>-3.5168111429550793E-2</v>
       </c>
       <c r="I88">
         <v>1277.840022238832</v>
@@ -3190,7 +3205,7 @@
         <v>4</v>
       </c>
       <c r="C89">
-        <v>305865031.23000067</v>
+        <v>305865031.23000079</v>
       </c>
       <c r="D89">
         <v>175447149649.71771</v>
@@ -3202,13 +3217,13 @@
         <v>2</v>
       </c>
       <c r="G89">
-        <v>573.60970276391981</v>
+        <v>573.60970276391959</v>
       </c>
       <c r="H89">
-        <v>-4.5180115772713247E-2</v>
+        <v>-4.5180115772713809E-2</v>
       </c>
       <c r="I89">
-        <v>1264.5799507133379</v>
+        <v>1264.579950713337</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3219,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="C90">
-        <v>325244801.92000061</v>
+        <v>325244801.92000067</v>
       </c>
       <c r="D90">
         <v>185687764805.76651</v>
@@ -3231,10 +3246,10 @@
         <v>2</v>
       </c>
       <c r="G90">
-        <v>570.91693305966953</v>
+        <v>570.91693305966942</v>
       </c>
       <c r="H90">
-        <v>-4.9662449395861862E-2</v>
+        <v>-4.9662449395862229E-2</v>
       </c>
       <c r="I90">
         <v>1258.643470623347</v>
@@ -3248,7 +3263,7 @@
         <v>6</v>
       </c>
       <c r="C91">
-        <v>373109026.90000021</v>
+        <v>373109026.9000001</v>
       </c>
       <c r="D91">
         <v>213228975814.69659</v>
@@ -3260,10 +3275,10 @@
         <v>2</v>
       </c>
       <c r="G91">
-        <v>571.49240688793554</v>
+        <v>571.49240688793577</v>
       </c>
       <c r="H91">
-        <v>-4.8704526523509518E-2</v>
+        <v>-4.8704526523509317E-2</v>
       </c>
       <c r="I91">
         <v>1259.912160225143</v>
@@ -3277,7 +3292,7 @@
         <v>7</v>
       </c>
       <c r="C92">
-        <v>402900336.25000173</v>
+        <v>402900336.25000149</v>
       </c>
       <c r="D92">
         <v>235536908214.86679</v>
@@ -3289,13 +3304,13 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <v>584.60340442286179</v>
+        <v>584.60340442286201</v>
       </c>
       <c r="H92">
-        <v>-2.688020749947306E-2</v>
+        <v>-2.6880207499472859E-2</v>
       </c>
       <c r="I92">
-        <v>1288.816665390641</v>
+        <v>1288.8166653906419</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3306,7 +3321,7 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>388986718.79000062</v>
+        <v>388986718.79000092</v>
       </c>
       <c r="D93">
         <v>228963139679.09109</v>
@@ -3318,13 +3333,13 @@
         <v>3</v>
       </c>
       <c r="G93">
-        <v>588.61428583298164</v>
+        <v>588.61428583298118</v>
       </c>
       <c r="H93">
-        <v>-2.0203770010346081E-2</v>
+        <v>-2.0203770010347032E-2</v>
       </c>
       <c r="I93">
-        <v>1297.659054547391</v>
+        <v>1297.65905454739</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3335,7 +3350,7 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>338056129.98999989</v>
+        <v>338056129.98999977</v>
       </c>
       <c r="D94">
         <v>199735245439.89929</v>
@@ -3347,10 +3362,10 @@
         <v>3</v>
       </c>
       <c r="G94">
-        <v>590.83456183979763</v>
+        <v>590.83456183979774</v>
       </c>
       <c r="H94">
-        <v>-1.650794047753712E-2</v>
+        <v>-1.6507940477537109E-2</v>
       </c>
       <c r="I94">
         <v>1302.5538750320179</v>
@@ -3364,7 +3379,7 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>318547343.11000079</v>
+        <v>318547343.11000073</v>
       </c>
       <c r="D95">
         <v>185610497238.88879</v>
@@ -3376,13 +3391,13 @@
         <v>4</v>
       </c>
       <c r="G95">
-        <v>582.67790095738985</v>
+        <v>582.67790095739019</v>
       </c>
       <c r="H95">
-        <v>-3.0085364223849151E-2</v>
+        <v>-3.0085364223848769E-2</v>
       </c>
       <c r="I95">
-        <v>1284.5717004506621</v>
+        <v>1284.571700450663</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3408,7 +3423,7 @@
         <v>582.10598564193845</v>
       </c>
       <c r="H96">
-        <v>-3.1037363662937911E-2</v>
+        <v>-3.1037363662938099E-2</v>
       </c>
       <c r="I96">
         <v>1283.310855946218</v>
@@ -3422,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>343898254.48000169</v>
+        <v>343898254.48000193</v>
       </c>
       <c r="D97">
         <v>197035983230.98151</v>
@@ -3434,13 +3449,13 @@
         <v>4</v>
       </c>
       <c r="G97">
-        <v>572.94848305907726</v>
+        <v>572.94848305907715</v>
       </c>
       <c r="H97">
-        <v>-4.6280769612744979E-2</v>
+        <v>-4.6280769612745347E-2</v>
       </c>
       <c r="I97">
-        <v>1263.1222257520419</v>
+        <v>1263.122225752041</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3451,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>354992636.20000029</v>
+        <v>354992636.20000023</v>
       </c>
       <c r="D98">
         <v>202322791511.4393</v>
@@ -3463,10 +3478,10 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>569.93517859185135</v>
+        <v>569.93517859185158</v>
       </c>
       <c r="H98">
-        <v>-5.1296659352187482E-2</v>
+        <v>-5.1296659352187267E-2</v>
       </c>
       <c r="I98">
         <v>1256.4790947235961</v>
@@ -3480,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>300887397.71999979</v>
+        <v>300887397.71999991</v>
       </c>
       <c r="D99">
         <v>168223167269.6929</v>
@@ -3492,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>559.09010661270111</v>
+        <v>559.09010661270099</v>
       </c>
       <c r="H99">
-        <v>-6.9349161465860176E-2</v>
+        <v>-6.9349161465860537E-2</v>
       </c>
       <c r="I99">
         <v>1232.570049038361</v>
@@ -3509,7 +3524,7 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>310602963.80999982</v>
+        <v>310602963.8099997</v>
       </c>
       <c r="D100">
         <v>167251591699.0737</v>
@@ -3521,13 +3536,13 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>538.47390780657133</v>
+        <v>538.47390780657156</v>
       </c>
       <c r="H100">
-        <v>-0.10366649686382361</v>
+        <v>-0.1036664968638234</v>
       </c>
       <c r="I100">
-        <v>1187.1195771503669</v>
+        <v>1187.1195771503681</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3538,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>289537255.13999939</v>
+        <v>289537255.13999951</v>
       </c>
       <c r="D101">
         <v>154228259620.77649</v>
@@ -3553,7 +3568,7 @@
         <v>532.671553946323</v>
       </c>
       <c r="H101">
-        <v>-0.1133249855790472</v>
+        <v>-0.1133249855790474</v>
       </c>
       <c r="I101">
         <v>1174.3277078300639</v>
@@ -3567,7 +3582,7 @@
         <v>5</v>
       </c>
       <c r="C102">
-        <v>311305872.15000129</v>
+        <v>311305872.15000123</v>
       </c>
       <c r="D102">
         <v>163973978516.7988</v>
@@ -3579,10 +3594,10 @@
         <v>2</v>
       </c>
       <c r="G102">
-        <v>526.7294747263511</v>
+        <v>526.72947472635133</v>
       </c>
       <c r="H102">
-        <v>-0.12321605849072351</v>
+        <v>-0.1232160584907233</v>
       </c>
       <c r="I102">
         <v>1161.227799981714</v>
@@ -3608,10 +3623,10 @@
         <v>2</v>
       </c>
       <c r="G103">
-        <v>541.84456613324778</v>
+        <v>541.84456613324767</v>
       </c>
       <c r="H103">
-        <v>-9.8055762635062632E-2</v>
+        <v>-9.8055762635062979E-2</v>
       </c>
       <c r="I103">
         <v>1194.5505304973581</v>
@@ -3640,7 +3655,7 @@
         <v>553.93965651919996</v>
       </c>
       <c r="H104">
-        <v>-7.7922503475765445E-2</v>
+        <v>-7.7922503475765612E-2</v>
       </c>
       <c r="I104">
         <v>1221.2153667622281</v>
@@ -3654,7 +3669,7 @@
         <v>8</v>
       </c>
       <c r="C105">
-        <v>381221416.93000013</v>
+        <v>381221416.93000001</v>
       </c>
       <c r="D105">
         <v>214984985262.64709</v>
@@ -3666,10 +3681,10 @@
         <v>3</v>
       </c>
       <c r="G105">
-        <v>563.93732281343125</v>
+        <v>563.93732281343136</v>
       </c>
       <c r="H105">
-        <v>-6.1280576870263441E-2</v>
+        <v>-6.1280576870263427E-2</v>
       </c>
       <c r="I105">
         <v>1243.2562218744911</v>
@@ -3683,7 +3698,7 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>327400611.89999872</v>
+        <v>327400611.89999878</v>
       </c>
       <c r="D106">
         <v>180109412088.39859</v>
@@ -3695,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="G106">
-        <v>550.11935085634866</v>
+        <v>550.11935085634855</v>
       </c>
       <c r="H106">
-        <v>-8.4281712173143078E-2</v>
+        <v>-8.4281712173143439E-2</v>
       </c>
       <c r="I106">
         <v>1212.793120897906</v>
@@ -3712,7 +3727,7 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>307040340.66000062</v>
+        <v>307040340.6600008</v>
       </c>
       <c r="D107">
         <v>172890026478.72421</v>
@@ -3724,10 +3739,10 @@
         <v>4</v>
       </c>
       <c r="G107">
-        <v>563.08570433151328</v>
+        <v>563.08570433151306</v>
       </c>
       <c r="H107">
-        <v>-6.2698164920801339E-2</v>
+        <v>-6.2698164920801894E-2</v>
       </c>
       <c r="I107">
         <v>1241.378743769254</v>
@@ -3741,7 +3756,7 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>296634669.94999921</v>
+        <v>296634669.94999927</v>
       </c>
       <c r="D108">
         <v>164608806886.23361</v>
@@ -3753,13 +3768,13 @@
         <v>4</v>
       </c>
       <c r="G108">
-        <v>554.92099731289011</v>
+        <v>554.92099731288999</v>
       </c>
       <c r="H108">
-        <v>-7.628898211358516E-2</v>
+        <v>-7.6288982113585521E-2</v>
       </c>
       <c r="I108">
-        <v>1223.378830675998</v>
+        <v>1223.3788306759971</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3785,7 +3800,7 @@
         <v>562.10335401095688</v>
       </c>
       <c r="H109">
-        <v>-6.433336672234817E-2</v>
+        <v>-6.4333366722348351E-2</v>
       </c>
       <c r="I109">
         <v>1239.213054252556</v>
@@ -3799,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>360957166.95000118</v>
+        <v>360957166.95000112</v>
       </c>
       <c r="D110">
         <v>206090364787.9744</v>
@@ -3811,13 +3826,13 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <v>570.95518155072807</v>
+        <v>570.9551815507283</v>
       </c>
       <c r="H110">
-        <v>-4.9598781679593452E-2</v>
+        <v>-4.9598781679593251E-2</v>
       </c>
       <c r="I110">
-        <v>1258.727793246735</v>
+        <v>1258.7277932467359</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3828,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>319734726.67000151</v>
+        <v>319734726.67000139</v>
       </c>
       <c r="D111">
         <v>180661093140.4216</v>
@@ -3840,10 +3855,10 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>565.03431773578382</v>
+        <v>565.03431773578393</v>
       </c>
       <c r="H111">
-        <v>-5.945453982850564E-2</v>
+        <v>-5.9454539828505633E-2</v>
       </c>
       <c r="I111">
         <v>1245.6746568803089</v>
@@ -3857,7 +3872,7 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>312167640.33000082</v>
+        <v>312167640.33000058</v>
       </c>
       <c r="D112">
         <v>172934211898.08749</v>
@@ -3869,13 +3884,13 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>553.97866260344654</v>
+        <v>553.97866260344676</v>
       </c>
       <c r="H112">
-        <v>-7.7857574684175923E-2</v>
+        <v>-7.7857574684175729E-2</v>
       </c>
       <c r="I112">
-        <v>1221.3013595755581</v>
+        <v>1221.301359575559</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3886,7 +3901,7 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>287800226.58000022</v>
+        <v>287800226.5800001</v>
       </c>
       <c r="D113">
         <v>155405863588.64661</v>
@@ -3898,7 +3913,7 @@
         <v>2</v>
       </c>
       <c r="G113">
-        <v>539.97825309372456</v>
+        <v>539.97825309372467</v>
       </c>
       <c r="H113">
         <v>-0.1011623920936352</v>
@@ -3927,13 +3942,13 @@
         <v>2</v>
       </c>
       <c r="G114">
-        <v>546.58519988557725</v>
+        <v>546.58519988557714</v>
       </c>
       <c r="H114">
-        <v>-9.0164593171309426E-2</v>
+        <v>-9.0164593171309787E-2</v>
       </c>
       <c r="I114">
-        <v>1205.001731667744</v>
+        <v>1205.0017316677429</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3944,7 +3959,7 @@
         <v>6</v>
       </c>
       <c r="C115">
-        <v>375759478.39999962</v>
+        <v>375759478.39999968</v>
       </c>
       <c r="D115">
         <v>210875928962.94061</v>
@@ -3956,13 +3971,13 @@
         <v>2</v>
       </c>
       <c r="G115">
-        <v>561.19922739104175</v>
+        <v>561.19922739104163</v>
       </c>
       <c r="H115">
-        <v>-6.5838358828294946E-2</v>
+        <v>-6.5838358828295321E-2</v>
       </c>
       <c r="I115">
-        <v>1237.2198167062911</v>
+        <v>1237.21981670629</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3973,7 +3988,7 @@
         <v>7</v>
       </c>
       <c r="C116">
-        <v>409725440.37</v>
+        <v>409725440.36999989</v>
       </c>
       <c r="D116">
         <v>235948042075.09409</v>
@@ -3988,7 +4003,7 @@
         <v>575.86866429876227</v>
       </c>
       <c r="H116">
-        <v>-4.1419891040148218E-2</v>
+        <v>-4.1419891040148399E-2</v>
       </c>
       <c r="I116">
         <v>1269.5600573130509</v>
@@ -4002,7 +4017,7 @@
         <v>8</v>
       </c>
       <c r="C117">
-        <v>408884155.38000017</v>
+        <v>408884155.38000041</v>
       </c>
       <c r="D117">
         <v>236460078736.2309</v>
@@ -4014,13 +4029,13 @@
         <v>3</v>
       </c>
       <c r="G117">
-        <v>578.30580037143909</v>
+        <v>578.30580037143886</v>
       </c>
       <c r="H117">
-        <v>-3.7363080334982791E-2</v>
+        <v>-3.7363080334983353E-2</v>
       </c>
       <c r="I117">
-        <v>1274.9329674988751</v>
+        <v>1274.9329674988739</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4031,7 +4046,7 @@
         <v>9</v>
       </c>
       <c r="C118">
-        <v>346045171.82999921</v>
+        <v>346045171.82999903</v>
       </c>
       <c r="D118">
         <v>192843439755.77689</v>
@@ -4043,13 +4058,13 @@
         <v>3</v>
       </c>
       <c r="G118">
-        <v>557.27822681633802</v>
+        <v>557.27822681633836</v>
       </c>
       <c r="H118">
-        <v>-7.23651823753063E-2</v>
+        <v>-7.2365182375305911E-2</v>
       </c>
       <c r="I118">
-        <v>1228.5755788392989</v>
+        <v>1228.5755788393001</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4060,7 +4075,7 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>307920690.56999958</v>
+        <v>307920690.56999969</v>
       </c>
       <c r="D119">
         <v>168633379151.6488</v>
@@ -4072,10 +4087,10 @@
         <v>4</v>
       </c>
       <c r="G119">
-        <v>547.65199064566718</v>
+        <v>547.65199064566707</v>
       </c>
       <c r="H119">
-        <v>-8.8388833407944636E-2</v>
+        <v>-8.8388833407944997E-2</v>
       </c>
       <c r="I119">
         <v>1207.3535785774379</v>
@@ -4104,7 +4119,7 @@
         <v>544.78928402090196</v>
       </c>
       <c r="H120">
-        <v>-9.3154040821390338E-2</v>
+        <v>-9.3154040821390505E-2</v>
       </c>
       <c r="I120">
         <v>1201.042455552481</v>
@@ -4130,13 +4145,13 @@
         <v>4</v>
       </c>
       <c r="G121">
-        <v>559.09203687326783</v>
+        <v>559.09203687326794</v>
       </c>
       <c r="H121">
-        <v>-6.9345948390554843E-2</v>
+        <v>-6.9345948390554829E-2</v>
       </c>
       <c r="I121">
-        <v>1232.5743044908061</v>
+        <v>1232.574304490807</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4159,10 +4174,10 @@
         <v>1</v>
       </c>
       <c r="G122">
-        <v>563.08562376525413</v>
+        <v>563.08562376525401</v>
       </c>
       <c r="H122">
-        <v>-6.2698299029875629E-2</v>
+        <v>-6.2698299029876003E-2</v>
       </c>
       <c r="I122">
         <v>1241.3785661528791</v>
@@ -4191,7 +4206,7 @@
         <v>539.84129500211168</v>
       </c>
       <c r="H123">
-        <v>-0.10139036994782361</v>
+        <v>-0.1013903699478238</v>
       </c>
       <c r="I123">
         <v>1190.134118961656</v>
@@ -4205,7 +4220,7 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>318709940.90999991</v>
+        <v>318709940.91000003</v>
       </c>
       <c r="D124">
         <v>166629094476.26929</v>
@@ -4217,10 +4232,10 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>522.8236496185209</v>
+        <v>522.82364961852079</v>
       </c>
       <c r="H124">
-        <v>-0.12971762124201711</v>
+        <v>-0.12971762124201741</v>
       </c>
       <c r="I124">
         <v>1152.6170179489909</v>
@@ -4234,7 +4249,7 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <v>302400724.45999962</v>
+        <v>302400724.45999968</v>
       </c>
       <c r="D125">
         <v>156973428713.5278</v>
@@ -4249,7 +4264,7 @@
         <v>519.09078258273678</v>
       </c>
       <c r="H125">
-        <v>-0.1359312812511996</v>
+        <v>-0.1359312812511998</v>
       </c>
       <c r="I125">
         <v>1144.387539281902</v>
@@ -4278,7 +4293,7 @@
         <v>536.40418912317682</v>
       </c>
       <c r="H126">
-        <v>-0.10711171151786369</v>
+        <v>-0.10711171151786381</v>
       </c>
       <c r="I126">
         <v>1182.556675340956</v>
@@ -4292,7 +4307,7 @@
         <v>6</v>
       </c>
       <c r="C127">
-        <v>367727015.02000052</v>
+        <v>367727015.02000058</v>
       </c>
       <c r="D127">
         <v>202661337086.85651</v>
@@ -4304,10 +4319,10 @@
         <v>2</v>
       </c>
       <c r="G127">
-        <v>551.11897904980924</v>
+        <v>551.11897904980901</v>
       </c>
       <c r="H127">
-        <v>-8.2617749950483141E-2</v>
+        <v>-8.2617749950483682E-2</v>
       </c>
       <c r="I127">
         <v>1214.996901213209</v>
@@ -4321,7 +4336,7 @@
         <v>7</v>
       </c>
       <c r="C128">
-        <v>418692754.6299997</v>
+        <v>418692754.62999958</v>
       </c>
       <c r="D128">
         <v>235509636004.10159</v>
@@ -4333,10 +4348,10 @@
         <v>3</v>
       </c>
       <c r="G128">
-        <v>562.48796617515461</v>
+        <v>562.48796617515472</v>
       </c>
       <c r="H128">
-        <v>-6.3693148573453248E-2</v>
+        <v>-6.3693148573453234E-2</v>
       </c>
       <c r="I128">
         <v>1240.0609702297461</v>
@@ -4365,7 +4380,7 @@
         <v>563.97004205750659</v>
       </c>
       <c r="H129">
-        <v>-6.1226113034157661E-2</v>
+        <v>-6.1226113034157828E-2</v>
       </c>
       <c r="I129">
         <v>1243.328354719979</v>
@@ -4391,10 +4406,10 @@
         <v>3</v>
       </c>
       <c r="G130">
-        <v>546.375108380798</v>
+        <v>546.37510838079788</v>
       </c>
       <c r="H130">
-        <v>-9.0514307524647383E-2</v>
+        <v>-9.0514307524647744E-2</v>
       </c>
       <c r="I130">
         <v>1204.5385639363069</v>
@@ -4423,7 +4438,7 @@
         <v>528.09003935213366</v>
       </c>
       <c r="H131">
-        <v>-0.1209512882955651</v>
+        <v>-0.1209512882955652</v>
       </c>
       <c r="I131">
         <v>1164.2273007557139</v>
@@ -4437,7 +4452,7 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>304102154.44000018</v>
+        <v>304102154.44000012</v>
       </c>
       <c r="D132">
         <v>156057738836.543</v>
@@ -4449,10 +4464,10 @@
         <v>4</v>
       </c>
       <c r="G132">
-        <v>513.1753805688129</v>
+        <v>513.17538056881313</v>
       </c>
       <c r="H132">
-        <v>-0.14577794778922579</v>
+        <v>-0.14577794778922559</v>
       </c>
       <c r="I132">
         <v>1131.346444002005</v>
@@ -4466,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="C133">
-        <v>335740462.75999957</v>
+        <v>335740462.75999939</v>
       </c>
       <c r="D133">
         <v>172480800969.3779</v>
@@ -4478,13 +4493,13 @@
         <v>4</v>
       </c>
       <c r="G133">
-        <v>513.73254075924081</v>
+        <v>513.73254075924115</v>
       </c>
       <c r="H133">
-        <v>-0.14485050945274541</v>
+        <v>-0.144850509452745</v>
       </c>
       <c r="I133">
-        <v>1132.5747593578219</v>
+        <v>1132.574759357823</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4510,7 +4525,7 @@
         <v>501.42725206222377</v>
       </c>
       <c r="H134">
-        <v>-0.16533366075310749</v>
+        <v>-0.1653336607531076</v>
       </c>
       <c r="I134">
         <v>1105.446519896379</v>
@@ -4539,7 +4554,7 @@
         <v>499.61563730285133</v>
       </c>
       <c r="H135">
-        <v>-0.1683492404869818</v>
+        <v>-0.16834924048698191</v>
       </c>
       <c r="I135">
         <v>1101.4526339978661</v>
@@ -4568,7 +4583,7 @@
         <v>479.35353556580361</v>
       </c>
       <c r="H136">
-        <v>-0.2020771525874015</v>
+        <v>-0.20207715258740161</v>
       </c>
       <c r="I136">
         <v>1056.7828045083711</v>
@@ -4582,7 +4597,7 @@
         <v>4</v>
       </c>
       <c r="C137">
-        <v>295229204.93000019</v>
+        <v>295229204.93000042</v>
       </c>
       <c r="D137">
         <v>139659379335.5679</v>
@@ -4594,10 +4609,10 @@
         <v>2</v>
       </c>
       <c r="G137">
-        <v>473.05407799571032</v>
+        <v>473.05407799571009</v>
       </c>
       <c r="H137">
-        <v>-0.21256311075510489</v>
+        <v>-0.21256311075510531</v>
       </c>
       <c r="I137">
         <v>1042.895020349343</v>
@@ -4611,7 +4626,7 @@
         <v>5</v>
       </c>
       <c r="C138">
-        <v>336516155.99000108</v>
+        <v>336516155.9900009</v>
       </c>
       <c r="D138">
         <v>166815373297.13861</v>
@@ -4623,13 +4638,13 @@
         <v>2</v>
       </c>
       <c r="G138">
-        <v>495.71282188928609</v>
+        <v>495.71282188928637</v>
       </c>
       <c r="H138">
-        <v>-0.1748457933580102</v>
+        <v>-0.1748457933580099</v>
       </c>
       <c r="I138">
-        <v>1092.8484871371199</v>
+        <v>1092.8484871371211</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4640,7 +4655,7 @@
         <v>6</v>
       </c>
       <c r="C139">
-        <v>360825380.89999962</v>
+        <v>360825380.89999968</v>
       </c>
       <c r="D139">
         <v>187525796587.81201</v>
@@ -4652,10 +4667,10 @@
         <v>2</v>
       </c>
       <c r="G139">
-        <v>519.71343069068507</v>
+        <v>519.71343069068496</v>
       </c>
       <c r="H139">
-        <v>-0.13489483296331181</v>
+        <v>-0.13489483296331209</v>
       </c>
       <c r="I139">
         <v>1145.7602293006839</v>
@@ -4669,7 +4684,7 @@
         <v>7</v>
       </c>
       <c r="C140">
-        <v>414641217.48000139</v>
+        <v>414641217.48000127</v>
       </c>
       <c r="D140">
         <v>227581970414.27411</v>
@@ -4681,10 +4696,10 @@
         <v>3</v>
       </c>
       <c r="G140">
-        <v>548.86480364256261</v>
+        <v>548.86480364256283</v>
       </c>
       <c r="H140">
-        <v>-8.6370007785391237E-2</v>
+        <v>-8.6370007785391043E-2</v>
       </c>
       <c r="I140">
         <v>1210.0273461103941</v>
@@ -4698,7 +4713,7 @@
         <v>8</v>
       </c>
       <c r="C141">
-        <v>395699749.15999973</v>
+        <v>395699749.16000003</v>
       </c>
       <c r="D141">
         <v>214802597723.9902</v>
@@ -4710,10 +4725,10 @@
         <v>3</v>
       </c>
       <c r="G141">
-        <v>542.84239042349145</v>
+        <v>542.84239042349111</v>
       </c>
       <c r="H141">
-        <v>-9.6394803155648523E-2</v>
+        <v>-9.6394803155649272E-2</v>
       </c>
       <c r="I141">
         <v>1196.7503339276291</v>
@@ -4742,7 +4757,7 @@
         <v>527.58743433318068</v>
       </c>
       <c r="H142">
-        <v>-0.1217879151233477</v>
+        <v>-0.1217879151233479</v>
       </c>
       <c r="I142">
         <v>1163.11925773093</v>
@@ -4756,7 +4771,7 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>311651930.71000087</v>
+        <v>311651930.71000081</v>
       </c>
       <c r="D143">
         <v>162960519289.8992</v>
@@ -4768,7 +4783,7 @@
         <v>4</v>
       </c>
       <c r="G143">
-        <v>522.8926992964391</v>
+        <v>522.89269929643922</v>
       </c>
       <c r="H143">
         <v>-0.12960268245148041</v>
@@ -4800,7 +4815,7 @@
         <v>537.87527128752299</v>
       </c>
       <c r="H144">
-        <v>-0.10466297591405201</v>
+        <v>-0.1046629759140522</v>
       </c>
       <c r="I144">
         <v>1185.7998230804731</v>
@@ -4829,7 +4844,7 @@
         <v>510.56658428471161</v>
       </c>
       <c r="H145">
-        <v>-0.15012050084220899</v>
+        <v>-0.1501205008422091</v>
       </c>
       <c r="I145">
         <v>1125.5950917140749</v>
@@ -4843,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>348967377.91999859</v>
+        <v>348967377.91999853</v>
       </c>
       <c r="D146">
         <v>178397845815.84711</v>
@@ -4855,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="G146">
-        <v>511.21639758758522</v>
+        <v>511.2163975875855</v>
       </c>
       <c r="H146">
-        <v>-0.14903883388359659</v>
+        <v>-0.14903883388359629</v>
       </c>
       <c r="I146">
         <v>1127.027670121591</v>
@@ -4887,7 +4902,7 @@
         <v>513.20805661164968</v>
       </c>
       <c r="H147">
-        <v>-0.14572355586508631</v>
+        <v>-0.14572355586508651</v>
       </c>
       <c r="I147">
         <v>1131.4184816060431</v>
@@ -4913,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="G148">
-        <v>517.37500210578844</v>
+        <v>517.37500210578855</v>
       </c>
       <c r="H148">
         <v>-0.13878733704744109</v>
@@ -4930,7 +4945,7 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>299332868.29999959</v>
+        <v>299332868.29999948</v>
       </c>
       <c r="D149">
         <v>147114753908.74789</v>
@@ -4942,10 +4957,10 @@
         <v>2</v>
       </c>
       <c r="G149">
-        <v>491.47544252075068</v>
+        <v>491.47544252075079</v>
       </c>
       <c r="H149">
-        <v>-0.1818992550735232</v>
+        <v>-0.18189925507352331</v>
       </c>
       <c r="I149">
         <v>1083.5067605812469</v>
@@ -4959,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="C150">
-        <v>322155640.42999887</v>
+        <v>322155640.42999899</v>
       </c>
       <c r="D150">
         <v>159530991047.72531</v>
@@ -4971,13 +4986,13 @@
         <v>2</v>
       </c>
       <c r="G150">
-        <v>495.19850353943963</v>
+        <v>495.19850353943951</v>
       </c>
       <c r="H150">
-        <v>-0.17570191797530699</v>
+        <v>-0.17570191797530729</v>
       </c>
       <c r="I150">
-        <v>1091.7146209030491</v>
+        <v>1091.7146209030479</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -4988,7 +5003,7 @@
         <v>6</v>
       </c>
       <c r="C151">
-        <v>356822647.24000013</v>
+        <v>356822647.24000019</v>
       </c>
       <c r="D151">
         <v>186026531327.4711</v>
@@ -5000,10 +5015,10 @@
         <v>2</v>
       </c>
       <c r="G151">
-        <v>521.34171630184949</v>
+        <v>521.34171630184937</v>
       </c>
       <c r="H151">
-        <v>-0.13218441946917181</v>
+        <v>-0.13218441946917209</v>
       </c>
       <c r="I151">
         <v>1149.3499477590569</v>
@@ -5017,7 +5032,7 @@
         <v>7</v>
       </c>
       <c r="C152">
-        <v>394845620.8199994</v>
+        <v>394845620.81999928</v>
       </c>
       <c r="D152">
         <v>210998316982.56519</v>
@@ -5029,13 +5044,13 @@
         <v>3</v>
       </c>
       <c r="G152">
-        <v>534.38180862781883</v>
+        <v>534.38180862781894</v>
       </c>
       <c r="H152">
         <v>-0.11047812791761551</v>
       </c>
       <c r="I152">
-        <v>1178.098135300889</v>
+        <v>1178.0981353008899</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5046,7 +5061,7 @@
         <v>8</v>
       </c>
       <c r="C153">
-        <v>385285745.14000112</v>
+        <v>385285745.1400013</v>
       </c>
       <c r="D153">
         <v>206791058072.01981</v>
@@ -5058,13 +5073,13 @@
         <v>3</v>
       </c>
       <c r="G153">
-        <v>536.72127941530323</v>
+        <v>536.721279415303</v>
       </c>
       <c r="H153">
-        <v>-0.1065838890027303</v>
+        <v>-0.1065838890027309</v>
       </c>
       <c r="I153">
-        <v>1183.2557325989781</v>
+        <v>1183.2557325989769</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5090,7 +5105,7 @@
         <v>532.39835197746402</v>
       </c>
       <c r="H154">
-        <v>-0.1137797524196701</v>
+        <v>-0.1137797524196703</v>
       </c>
       <c r="I154">
         <v>1173.7254067695169</v>
@@ -5119,7 +5134,7 @@
         <v>515.36683472240691</v>
       </c>
       <c r="H155">
-        <v>-0.1421300945692722</v>
+        <v>-0.14213009456927231</v>
       </c>
       <c r="I155">
         <v>1136.1777238290181</v>
@@ -5148,7 +5163,7 @@
         <v>505.02284998382407</v>
       </c>
       <c r="H156">
-        <v>-0.1593484963204144</v>
+        <v>-0.15934849632041451</v>
       </c>
       <c r="I156">
         <v>1113.373375074339</v>
@@ -5177,7 +5192,7 @@
         <v>520.34547103142268</v>
       </c>
       <c r="H157">
-        <v>-0.13384275054200301</v>
+        <v>-0.1338427505420032</v>
       </c>
       <c r="I157">
         <v>1147.153625435875</v>
@@ -5191,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>377878743.77000117</v>
+        <v>377878743.77000129</v>
       </c>
       <c r="D158">
         <v>200314714590.8685</v>
@@ -5203,13 +5218,13 @@
         <v>1</v>
       </c>
       <c r="G158">
-        <v>530.10315582289422</v>
+        <v>530.10315582289411</v>
       </c>
       <c r="H158">
-        <v>-0.1176002926162979</v>
+        <v>-0.1176002926162982</v>
       </c>
       <c r="I158">
-        <v>1168.6654173271529</v>
+        <v>1168.665417327152</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5220,7 +5235,7 @@
         <v>2</v>
       </c>
       <c r="C159">
-        <v>325012264.28999931</v>
+        <v>325012264.28999919</v>
       </c>
       <c r="D159">
         <v>176806376432.71851</v>
@@ -5232,10 +5247,10 @@
         <v>1</v>
       </c>
       <c r="G159">
-        <v>543.9990912926263</v>
+        <v>543.99909129262642</v>
       </c>
       <c r="H159">
-        <v>-9.4469380721838178E-2</v>
+        <v>-9.446938072183815E-2</v>
       </c>
       <c r="I159">
         <v>1199.3003966637241</v>
@@ -5264,7 +5279,7 @@
         <v>515.63326951143142</v>
       </c>
       <c r="H160">
-        <v>-0.14168659224846991</v>
+        <v>-0.14168659224847011</v>
       </c>
       <c r="I160">
         <v>1136.765105964902</v>
@@ -5293,7 +5308,7 @@
         <v>481.23942698220611</v>
       </c>
       <c r="H161">
-        <v>-0.19893793333222129</v>
+        <v>-0.19893793333222151</v>
       </c>
       <c r="I161">
         <v>1060.9404407249719</v>
@@ -5322,7 +5337,7 @@
         <v>491.20781244684218</v>
       </c>
       <c r="H162">
-        <v>-0.18234474704298209</v>
+        <v>-0.18234474704298231</v>
       </c>
       <c r="I162">
         <v>1082.916743320309</v>
@@ -5351,7 +5366,7 @@
         <v>511.38652096986738</v>
       </c>
       <c r="H163">
-        <v>-0.14875564971256139</v>
+        <v>-0.1487556497125615</v>
       </c>
       <c r="I163">
         <v>1127.4027241301701</v>
@@ -5380,7 +5395,7 @@
         <v>526.05642995607775</v>
       </c>
       <c r="H164">
-        <v>-0.124336396111471</v>
+        <v>-0.1243363961114712</v>
       </c>
       <c r="I164">
         <v>1159.7440054811691</v>
@@ -5406,10 +5421,10 @@
         <v>3</v>
       </c>
       <c r="G165">
-        <v>533.59056565187518</v>
+        <v>533.59056565187507</v>
       </c>
       <c r="H165">
-        <v>-0.11179521604050779</v>
+        <v>-0.1117952160405082</v>
       </c>
       <c r="I165">
         <v>1176.3537610361241</v>
@@ -5423,7 +5438,7 @@
         <v>9</v>
       </c>
       <c r="C166">
-        <v>340932866.22000122</v>
+        <v>340932866.22000128</v>
       </c>
       <c r="D166">
         <v>175512757492.3775</v>
@@ -5435,10 +5450,10 @@
         <v>3</v>
       </c>
       <c r="G166">
-        <v>514.80151925018731</v>
+        <v>514.8015192501872</v>
       </c>
       <c r="H166">
-        <v>-0.14307110803389059</v>
+        <v>-0.14307110803389089</v>
       </c>
       <c r="I166">
         <v>1134.931429338963</v>
@@ -5452,7 +5467,7 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>315486876.44000071</v>
+        <v>315486876.44000059</v>
       </c>
       <c r="D167">
         <v>155351876772.52399</v>
@@ -5464,10 +5479,10 @@
         <v>4</v>
       </c>
       <c r="G167">
-        <v>492.4194582213276</v>
+        <v>492.41945822132772</v>
       </c>
       <c r="H167">
-        <v>-0.18032786435682099</v>
+        <v>-0.18032786435682091</v>
       </c>
       <c r="I167">
         <v>1085.5879375947391</v>
@@ -5481,7 +5496,7 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>318286810.68999952</v>
+        <v>318286810.68999958</v>
       </c>
       <c r="D168">
         <v>156617340281.78201</v>
@@ -5493,13 +5508,13 @@
         <v>4</v>
       </c>
       <c r="G168">
-        <v>492.06355721199509</v>
+        <v>492.06355721199498</v>
       </c>
       <c r="H168">
-        <v>-0.1809202904592557</v>
+        <v>-0.18092029045925609</v>
       </c>
       <c r="I168">
-        <v>1084.8033182295651</v>
+        <v>1084.803318229564</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5522,10 +5537,10 @@
         <v>4</v>
       </c>
       <c r="G169">
-        <v>488.67200287457189</v>
+        <v>488.67200287457177</v>
       </c>
       <c r="H169">
-        <v>-0.18656580779308959</v>
+        <v>-0.1865658077930899</v>
       </c>
       <c r="I169">
         <v>1077.3262975372811</v>
@@ -5539,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>361201613.13000059</v>
+        <v>361201613.13000071</v>
       </c>
       <c r="D170">
         <v>177592614038.53961</v>
@@ -5551,10 +5566,10 @@
         <v>1</v>
       </c>
       <c r="G170">
-        <v>491.67170794063418</v>
+        <v>491.67170794063412</v>
       </c>
       <c r="H170">
-        <v>-0.18157255536013281</v>
+        <v>-0.18157255536013309</v>
       </c>
       <c r="I170">
         <v>1083.9394473259219</v>
@@ -5568,7 +5583,7 @@
         <v>2</v>
       </c>
       <c r="C171">
-        <v>335291310.93000102</v>
+        <v>335291310.93000108</v>
       </c>
       <c r="D171">
         <v>169590219137.9678</v>
@@ -5580,10 +5595,10 @@
         <v>1</v>
       </c>
       <c r="G171">
-        <v>505.79962441488158</v>
+        <v>505.79962441488152</v>
       </c>
       <c r="H171">
-        <v>-0.15805549226424301</v>
+        <v>-0.15805549226424331</v>
       </c>
       <c r="I171">
         <v>1115.0858519850481</v>
@@ -5597,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="C172">
-        <v>325325470.76999968</v>
+        <v>325325470.76999962</v>
       </c>
       <c r="D172">
         <v>152204676402.36371</v>
@@ -5609,10 +5624,10 @@
         <v>1</v>
       </c>
       <c r="G172">
-        <v>467.85354999138741</v>
+        <v>467.85354999138752</v>
       </c>
       <c r="H172">
-        <v>-0.22121981151013381</v>
+        <v>-0.2212198115101337</v>
       </c>
       <c r="I172">
         <v>1031.4299363110131</v>
@@ -5641,7 +5656,7 @@
         <v>441.52512619452301</v>
       </c>
       <c r="H173">
-        <v>-0.26504560880832811</v>
+        <v>-0.26504560880832823</v>
       </c>
       <c r="I173">
         <v>973.38629320844541</v>
@@ -5670,7 +5685,7 @@
         <v>471.92542365361408</v>
       </c>
       <c r="H174">
-        <v>-0.21444184746939021</v>
+        <v>-0.2144418474693903</v>
       </c>
       <c r="I174">
         <v>1040.4067889867581</v>
@@ -5696,7 +5711,7 @@
         <v>2</v>
       </c>
       <c r="G175">
-        <v>503.74493254842349</v>
+        <v>503.74493254842361</v>
       </c>
       <c r="H175">
         <v>-0.16147569356244471</v>
@@ -5713,7 +5728,7 @@
         <v>7</v>
       </c>
       <c r="C176">
-        <v>401905534.34999871</v>
+        <v>401905534.34999859</v>
       </c>
       <c r="D176">
         <v>206313087443.23569</v>
@@ -5725,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="G176">
-        <v>513.33726413323859</v>
+        <v>513.3372641332387</v>
       </c>
       <c r="H176">
         <v>-0.14550847946346629</v>
@@ -5757,7 +5772,7 @@
         <v>511.69503508348521</v>
       </c>
       <c r="H177">
-        <v>-0.14824210294229651</v>
+        <v>-0.14824210294229659</v>
       </c>
       <c r="I177">
         <v>1128.0828743450511</v>
@@ -5771,7 +5786,7 @@
         <v>9</v>
       </c>
       <c r="C178">
-        <v>351451299.65000057</v>
+        <v>351451299.65000051</v>
       </c>
       <c r="D178">
         <v>176242756718.49619</v>
@@ -5783,13 +5798,13 @@
         <v>3</v>
       </c>
       <c r="G178">
-        <v>501.47134722224911</v>
+        <v>501.47134722224922</v>
       </c>
       <c r="H178">
         <v>-0.16526026078203401</v>
       </c>
       <c r="I178">
-        <v>1105.5437320861699</v>
+        <v>1105.5437320861711</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5800,7 +5815,7 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>313309387.43000013</v>
+        <v>313309387.43000019</v>
       </c>
       <c r="D179">
         <v>148090160544.80261</v>
@@ -5812,10 +5827,10 @@
         <v>4</v>
       </c>
       <c r="G179">
-        <v>472.66429442012532</v>
+        <v>472.66429442012509</v>
       </c>
       <c r="H179">
-        <v>-0.21321193713778361</v>
+        <v>-0.21321193713778411</v>
       </c>
       <c r="I179">
         <v>1042.035703478608</v>
@@ -5844,7 +5859,7 @@
         <v>448.84646116118279</v>
       </c>
       <c r="H180">
-        <v>-0.25285865281443259</v>
+        <v>-0.25285865281443282</v>
       </c>
       <c r="I180">
         <v>989.52690827594358</v>
@@ -5873,7 +5888,7 @@
         <v>430.38419295342402</v>
       </c>
       <c r="H181">
-        <v>-0.28359059599420239</v>
+        <v>-0.28359059599420261</v>
       </c>
       <c r="I181">
         <v>948.82499178511853</v>
@@ -5902,7 +5917,7 @@
         <v>458.41103482738959</v>
       </c>
       <c r="H182">
-        <v>-0.2369376440228334</v>
+        <v>-0.2369376440228336</v>
       </c>
       <c r="I182">
         <v>1010.612967380463</v>
@@ -5928,13 +5943,13 @@
         <v>1</v>
       </c>
       <c r="G183">
-        <v>433.64446301211399</v>
+        <v>433.64446301211422</v>
       </c>
       <c r="H183">
         <v>-0.27816361199273171</v>
       </c>
       <c r="I183">
-        <v>956.01258315650671</v>
+        <v>956.01258315650693</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -5945,10 +5960,10 @@
         <v>3</v>
       </c>
       <c r="C184">
-        <v>305534646.78000009</v>
+        <v>305750405.76000011</v>
       </c>
       <c r="D184">
-        <v>119935249338.57851</v>
+        <v>119916916299.98241</v>
       </c>
       <c r="E184" s="2">
         <v>42430</v>
@@ -5957,13 +5972,13 @@
         <v>1</v>
       </c>
       <c r="G184">
-        <v>392.54222263355211</v>
+        <v>392.20525644735102</v>
       </c>
       <c r="H184">
-        <v>-0.34658162551418847</v>
+        <v>-0.34714253306743731</v>
       </c>
       <c r="I184">
-        <v>865.3985840179289</v>
+        <v>864.65570836382994</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -5974,10 +5989,10 @@
         <v>4</v>
       </c>
       <c r="C185">
-        <v>294406074.53000021</v>
+        <v>294599079.36000007</v>
       </c>
       <c r="D185">
-        <v>117363052579.95129</v>
+        <v>117357537468.6153</v>
       </c>
       <c r="E185" s="2">
         <v>42461</v>
@@ -5986,13 +6001,13 @@
         <v>2</v>
       </c>
       <c r="G185">
-        <v>398.64344771864393</v>
+        <v>398.36355810604692</v>
       </c>
       <c r="H185">
-        <v>-0.33642564139934228</v>
+        <v>-0.33689154036550112</v>
       </c>
       <c r="I185">
-        <v>878.84934484052235</v>
+        <v>878.23230020059111</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6018,7 +6033,7 @@
         <v>417.0375659841331</v>
       </c>
       <c r="H186">
-        <v>-0.30580713932713133</v>
+        <v>-0.30580713932713138</v>
       </c>
       <c r="I186">
         <v>919.40101796861984</v>
@@ -6032,7 +6047,7 @@
         <v>6</v>
       </c>
       <c r="C187">
-        <v>370409329.36000007</v>
+        <v>370409329.36000001</v>
       </c>
       <c r="D187">
         <v>176906046797.07861</v>
@@ -6044,13 +6059,13 @@
         <v>2</v>
       </c>
       <c r="G187">
-        <v>477.59608836726682</v>
+        <v>477.59608836726687</v>
       </c>
       <c r="H187">
-        <v>-0.20500256602193179</v>
+        <v>-0.2050025660219317</v>
       </c>
       <c r="I187">
-        <v>1052.908336414476</v>
+        <v>1052.9083364144769</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6061,7 +6076,7 @@
         <v>7</v>
       </c>
       <c r="C188">
-        <v>414515390.9800002</v>
+        <v>414515390.98000008</v>
       </c>
       <c r="D188">
         <v>207166101145.81931</v>
@@ -6090,7 +6105,7 @@
         <v>8</v>
       </c>
       <c r="C189">
-        <v>412116918.48000002</v>
+        <v>412116918.48000008</v>
       </c>
       <c r="D189">
         <v>207510325487.10159</v>
@@ -6102,10 +6117,10 @@
         <v>3</v>
       </c>
       <c r="G189">
-        <v>503.52294745009851</v>
+        <v>503.5229474500984</v>
       </c>
       <c r="H189">
-        <v>-0.16184520576710509</v>
+        <v>-0.1618452057671054</v>
       </c>
       <c r="I189">
         <v>1110.066689948487</v>
@@ -6134,7 +6149,7 @@
         <v>486.37549905406013</v>
       </c>
       <c r="H190">
-        <v>-0.19038852470576201</v>
+        <v>-0.1903885247057622</v>
       </c>
       <c r="I190">
         <v>1072.263425214581</v>
@@ -6148,7 +6163,7 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>314435599.51999968</v>
+        <v>314435599.5199998</v>
       </c>
       <c r="D191">
         <v>145457102873.53311</v>
@@ -6160,10 +6175,10 @@
         <v>4</v>
       </c>
       <c r="G191">
-        <v>462.59743838032352</v>
+        <v>462.59743838032341</v>
       </c>
       <c r="H191">
-        <v>-0.22996903568779251</v>
+        <v>-0.22996903568779289</v>
       </c>
       <c r="I191">
         <v>1019.842312653261</v>
@@ -6189,16 +6204,16 @@
         <v>4</v>
       </c>
       <c r="G192">
-        <v>432.90058780322278</v>
+        <v>432.90058780322272</v>
       </c>
       <c r="H192">
-        <v>-0.27940185262466433</v>
+        <v>-0.2794018526246646</v>
       </c>
       <c r="I192">
-        <v>954.37263587098516</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+        <v>954.37263587098482</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2016</v>
       </c>
@@ -6221,11 +6236,101 @@
         <v>464.18586769991248</v>
       </c>
       <c r="H193">
-        <v>-0.22732496622431381</v>
+        <v>-0.22732496622431389</v>
       </c>
       <c r="I193">
         <v>1023.3441639312269</v>
       </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2017</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>342364912.02000022</v>
+      </c>
+      <c r="D194">
+        <v>156912015904.67471</v>
+      </c>
+      <c r="E194" s="2">
+        <v>42736</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>458.31804135205368</v>
+      </c>
+      <c r="H194">
+        <v>-0.237092439206608</v>
+      </c>
+      <c r="I194">
+        <v>1010.407953964738</v>
+      </c>
+      <c r="J194" s="3"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2017</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>289878148.23999977</v>
+      </c>
+      <c r="D195">
+        <v>123254468519.563</v>
+      </c>
+      <c r="E195" s="2">
+        <v>42767</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>425.19406608571433</v>
+      </c>
+      <c r="H195">
+        <v>-0.29222998321354859</v>
+      </c>
+      <c r="I195">
+        <v>937.38283809256575</v>
+      </c>
+      <c r="J195" s="3"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2017</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>320008115.56</v>
+      </c>
+      <c r="D196">
+        <v>132142496877.40421</v>
+      </c>
+      <c r="E196" s="2">
+        <v>42795</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>412.93483025004122</v>
+      </c>
+      <c r="H196">
+        <v>-0.31263647579017428</v>
+      </c>
+      <c r="I196">
+        <v>910.35612676924075</v>
+      </c>
+      <c r="J196" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6234,20 +6339,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -6264,16 +6370,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6284,19 +6390,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>916139901.99999988</v>
+        <v>916139901.99999976</v>
       </c>
       <c r="D2">
         <v>584439237512.63232</v>
       </c>
       <c r="E2">
-        <v>637.93666910125739</v>
+        <v>637.93666910125751</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>6.1897338208549167E-2</v>
+        <v>6.1897338208549361E-2</v>
       </c>
       <c r="H2">
         <v>1406.395180700632</v>
@@ -6310,7 +6416,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>906264469.99999976</v>
+        <v>906264469.99999964</v>
       </c>
       <c r="D3">
         <v>569305106211.31592</v>
@@ -6319,7 +6425,7 @@
         <v>628.18870766423856</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4.5671065595135812E-2</v>
@@ -6345,7 +6451,7 @@
         <v>640.59782791486873</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>6.6327052939801845E-2</v>
@@ -6371,7 +6477,7 @@
         <v>616.64584616171044</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>2.6457036211759839E-2</v>
@@ -6397,7 +6503,7 @@
         <v>607.49371275566637</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>1.122256769233829E-2</v>
@@ -6414,19 +6520,19 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>938545965.99999857</v>
+        <v>938545965.99999869</v>
       </c>
       <c r="D7">
         <v>568760055593.802</v>
       </c>
       <c r="E7">
-        <v>606.00127878425394</v>
+        <v>606.00127878425383</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>8.7382902735036096E-3</v>
+        <v>8.7382902735034206E-3</v>
       </c>
       <c r="H7">
         <v>1335.9904192077661</v>
@@ -6449,7 +6555,7 @@
         <v>628.02546510332206</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>4.5399335109468947E-2</v>
@@ -6466,19 +6572,19 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>928182725.99999881</v>
+        <v>928182725.99999869</v>
       </c>
       <c r="D9">
         <v>581132247908.80493</v>
       </c>
       <c r="E9">
-        <v>626.09681437748031</v>
+        <v>626.09681437748043</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>4.2188939514886413E-2</v>
+        <v>4.2188939514886593E-2</v>
       </c>
       <c r="H9">
         <v>1380.2930369765929</v>
@@ -6492,19 +6598,19 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>945554943.36999846</v>
+        <v>945554943.36999869</v>
       </c>
       <c r="D10">
         <v>591689650435.58765</v>
       </c>
       <c r="E10">
-        <v>625.75914237916231</v>
+        <v>625.7591423791622</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>4.162685708011022E-2</v>
+        <v>4.1626857080110033E-2</v>
       </c>
       <c r="H10">
         <v>1379.548605289101</v>
@@ -6527,7 +6633,7 @@
         <v>602.35551785165978</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>2.6696254395466262E-3</v>
@@ -6553,7 +6659,7 @@
         <v>624.58290028365673</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>3.9668906689727543E-2</v>
@@ -6570,7 +6676,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>936288071.99999976</v>
+        <v>936288071.99999964</v>
       </c>
       <c r="D13">
         <v>585786160978.02979</v>
@@ -6579,7 +6685,7 @@
         <v>625.64736056792356</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13">
         <v>4.1440787187025381E-2</v>
@@ -6599,16 +6705,16 @@
         <v>969637632.08000016</v>
       </c>
       <c r="D14">
-        <v>589467476634.63025</v>
+        <v>589467476634.63013</v>
       </c>
       <c r="E14">
-        <v>607.92553540867118</v>
+        <v>607.92553540867107</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14">
-        <v>1.194137152979443E-2</v>
+        <v>1.1941371529794241E-2</v>
       </c>
       <c r="H14">
         <v>1340.232635361956</v>
@@ -6622,7 +6728,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>963025256.65000212</v>
+        <v>963025256.65000224</v>
       </c>
       <c r="D15">
         <v>570808373050.01465</v>
@@ -6631,7 +6737,7 @@
         <v>592.72419815409557</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15">
         <v>-1.3362487536005861E-2</v>
@@ -6651,19 +6757,19 @@
         <v>1081392932.099999</v>
       </c>
       <c r="D16">
-        <v>651691215351.51758</v>
+        <v>651691215351.51746</v>
       </c>
       <c r="E16">
-        <v>602.64053519008417</v>
+        <v>602.64053519008394</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>3.1440599213307359E-3</v>
+        <v>3.1440599213303569E-3</v>
       </c>
       <c r="H16">
-        <v>1328.5813238800599</v>
+        <v>1328.581323880059</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6674,19 +6780,19 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>956499442.54000068</v>
+        <v>956499442.5400008</v>
       </c>
       <c r="D17">
         <v>579920745439.98242</v>
       </c>
       <c r="E17">
-        <v>606.29491210156164</v>
+        <v>606.29491210156152</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17">
-        <v>9.2270667511086223E-3</v>
+        <v>9.2270667511084332E-3</v>
       </c>
       <c r="H17">
         <v>1336.6377632191029</v>
@@ -6709,7 +6815,7 @@
         <v>603.62768682337617</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G18">
         <v>4.7872538974315388E-3</v>
@@ -6726,19 +6832,19 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>968296145.82999909</v>
+        <v>968296145.82999921</v>
       </c>
       <c r="D19">
         <v>568194654822.91797</v>
       </c>
       <c r="E19">
-        <v>586.79842656595088</v>
+        <v>586.79842656595076</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G19">
-        <v>-2.3226415071552351E-2</v>
+        <v>-2.3226415071552538E-2</v>
       </c>
       <c r="H19">
         <v>1293.6558112072951</v>
@@ -6761,7 +6867,7 @@
         <v>605.28330150549129</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20">
         <v>7.5431588472346248E-3</v>
@@ -6778,19 +6884,19 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>970614230.38999891</v>
+        <v>970614230.38999915</v>
       </c>
       <c r="D21">
         <v>588605871106.43042</v>
       </c>
       <c r="E21">
-        <v>606.42617084845836</v>
+        <v>606.42617084845824</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21">
-        <v>9.4455575836587934E-3</v>
+        <v>9.4455575836586043E-3</v>
       </c>
       <c r="H21">
         <v>1336.927136252511</v>
@@ -6804,7 +6910,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>954720968.15999913</v>
+        <v>954720968.15999901</v>
       </c>
       <c r="D22">
         <v>560197734782.06592</v>
@@ -6813,7 +6919,7 @@
         <v>586.76592791474536</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>-2.3280511712930749E-2</v>
@@ -6833,19 +6939,19 @@
         <v>992733445.13000131</v>
       </c>
       <c r="D23">
-        <v>565181785618.6687</v>
+        <v>565181785618.66882</v>
       </c>
       <c r="E23">
-        <v>569.31877171183305</v>
+        <v>569.31877171183316</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23">
-        <v>-5.2322718609867452E-2</v>
+        <v>-5.2322718609867258E-2</v>
       </c>
       <c r="H23">
-        <v>1255.1201641159071</v>
+        <v>1255.120164115908</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6856,16 +6962,16 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>1150238650.5300009</v>
+        <v>1150238650.5300021</v>
       </c>
       <c r="D24">
-        <v>683766315823.20959</v>
+        <v>683766315823.20972</v>
       </c>
       <c r="E24">
         <v>594.45604223797125</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24">
         <v>-1.04796925628768E-2</v>
@@ -6882,19 +6988,19 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>967009163.62000132</v>
+        <v>967009163.62000108</v>
       </c>
       <c r="D25">
         <v>577856417958.41748</v>
       </c>
       <c r="E25">
-        <v>597.57077771136153</v>
+        <v>597.57077771136176</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25">
-        <v>-5.2949626851028489E-3</v>
+        <v>-5.2949626851024707E-3</v>
       </c>
       <c r="H25">
         <v>1317.4045365424679</v>
@@ -6908,19 +7014,19 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>997232732.19000077</v>
+        <v>997232732.19000053</v>
       </c>
       <c r="D26">
         <v>584080749388.11194</v>
       </c>
       <c r="E26">
-        <v>585.70154241269745</v>
+        <v>585.70154241269768</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26">
-        <v>-2.5052267729158511E-2</v>
+        <v>-2.5052267729158129E-2</v>
       </c>
       <c r="H26">
         <v>1291.2376204030329</v>
@@ -6934,22 +7040,22 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>996086698.87999845</v>
+        <v>996086698.87999892</v>
       </c>
       <c r="D27">
         <v>580292279395.09424</v>
       </c>
       <c r="E27">
-        <v>582.5720592871844</v>
+        <v>582.57205928718406</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27">
-        <v>-3.0261546270291251E-2</v>
+        <v>-3.026154627029182E-2</v>
       </c>
       <c r="H27">
-        <v>1284.3383619045269</v>
+        <v>1284.338361904526</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -6966,13 +7072,13 @@
         <v>696808174840.70422</v>
       </c>
       <c r="E28">
-        <v>595.35035190232702</v>
+        <v>595.35035190232691</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28">
-        <v>-8.9910415758572143E-3</v>
+        <v>-8.9910415758574034E-3</v>
       </c>
       <c r="H28">
         <v>1312.5093858038699</v>
@@ -6986,19 +7092,19 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>993008289.54000115</v>
+        <v>993008289.54000139</v>
       </c>
       <c r="D29">
         <v>590556653611.60242</v>
       </c>
       <c r="E29">
-        <v>594.71472678759858</v>
+        <v>594.71472678759847</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29">
-        <v>-1.004909114428781E-2</v>
+        <v>-1.0049091144288E-2</v>
       </c>
       <c r="H29">
         <v>1311.1080866759401</v>
@@ -7018,16 +7124,16 @@
         <v>595409630210.52429</v>
       </c>
       <c r="E30">
-        <v>587.92309062976744</v>
+        <v>587.92309062976767</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30">
-        <v>-2.1354320499173941E-2</v>
+        <v>-2.135432049917357E-2</v>
       </c>
       <c r="H30">
-        <v>1296.1352456023851</v>
+        <v>1296.135245602386</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -7044,16 +7150,16 @@
         <v>574363890270.18091</v>
       </c>
       <c r="E31">
-        <v>571.95090942783384</v>
+        <v>571.95090942783372</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31">
-        <v>-4.7941311849918497E-2</v>
+        <v>-4.7941311849918691E-2</v>
       </c>
       <c r="H31">
-        <v>1260.9229749246031</v>
+        <v>1260.9229749246019</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -7070,13 +7176,13 @@
         <v>664235293333.85706</v>
       </c>
       <c r="E32">
-        <v>587.84839993191372</v>
+        <v>587.8483999319136</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>-2.147864922501996E-2</v>
+        <v>-2.1478649225020151E-2</v>
       </c>
       <c r="H32">
         <v>1295.970582489897</v>
@@ -7099,7 +7205,7 @@
         <v>579.05499134967499</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33">
         <v>-3.6115991173735207E-2</v>
@@ -7116,22 +7222,22 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>966482997.73000002</v>
+        <v>966482997.72999978</v>
       </c>
       <c r="D34">
         <v>537797550480.20587</v>
       </c>
       <c r="E34">
-        <v>556.4480200307122</v>
+        <v>556.44802003071243</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G34">
-        <v>-7.3747128920346183E-2</v>
+        <v>-7.3747128920345809E-2</v>
       </c>
       <c r="H34">
-        <v>1226.7453049597079</v>
+        <v>1226.7453049597091</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -7151,7 +7257,7 @@
         <v>534.08353834024376</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G35">
         <v>-0.1109746230084039</v>
@@ -7177,7 +7283,7 @@
         <v>556.3079868525831</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G36">
         <v>-7.3980225505506703E-2</v>
@@ -7194,19 +7300,19 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>954182305.89999938</v>
+        <v>954182305.89999962</v>
       </c>
       <c r="D37">
         <v>534520159652.77539</v>
       </c>
       <c r="E37">
-        <v>560.18661879147692</v>
+        <v>560.1866187914768</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G37">
-        <v>-6.7523927989948371E-2</v>
+        <v>-6.7523927989948551E-2</v>
       </c>
       <c r="H37">
         <v>1234.98741978769</v>
@@ -7220,22 +7326,22 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>992859533.9500035</v>
+        <v>992859533.95000315</v>
       </c>
       <c r="D38">
         <v>559685669826.48352</v>
       </c>
       <c r="E38">
-        <v>563.71082785479609</v>
+        <v>563.71082785479632</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G38">
-        <v>-6.1657596103271588E-2</v>
+        <v>-6.1657596103271213E-2</v>
       </c>
       <c r="H38">
-        <v>1242.756891088683</v>
+        <v>1242.7568910886839</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -7246,19 +7352,19 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>991496196.53999984</v>
+        <v>991496196.53999996</v>
       </c>
       <c r="D39">
         <v>545527025340.68481</v>
       </c>
       <c r="E39">
-        <v>550.20586790387824</v>
+        <v>550.20586790387813</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39">
-        <v>-8.4137697528851266E-2</v>
+        <v>-8.4137697528851446E-2</v>
       </c>
       <c r="H39">
         <v>1212.9838563808901</v>
@@ -7278,13 +7384,13 @@
         <v>665251560567.10193</v>
       </c>
       <c r="E40">
-        <v>571.20065025742167</v>
+        <v>571.20065025742178</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G40">
-        <v>-4.9190179103700361E-2</v>
+        <v>-4.9190179103700167E-2</v>
       </c>
       <c r="H40">
         <v>1259.2689535575121</v>
@@ -7307,7 +7413,7 @@
         <v>550.99879177484183</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>-8.2817811419835935E-2</v>
@@ -7324,22 +7430,22 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>994708440.92999744</v>
+        <v>994708440.92999756</v>
       </c>
       <c r="D42">
         <v>539995713725.18329</v>
       </c>
       <c r="E42">
-        <v>542.86833357955345</v>
+        <v>542.86833357955334</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G42">
-        <v>-9.6351618667749786E-2</v>
+        <v>-9.635161866774998E-2</v>
       </c>
       <c r="H42">
-        <v>1196.807528209484</v>
+        <v>1196.8075282094831</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -7350,19 +7456,19 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>993755977.54000092</v>
+        <v>993755977.54000115</v>
       </c>
       <c r="D43">
         <v>533230308414.32147</v>
       </c>
       <c r="E43">
-        <v>536.58073054746262</v>
+        <v>536.58073054746251</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G43">
-        <v>-0.10681784399525091</v>
+        <v>-0.1068178439952511</v>
       </c>
       <c r="H43">
         <v>1182.945878564936</v>
@@ -7385,7 +7491,7 @@
         <v>558.3245998947375</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G44">
         <v>-7.0623409499495762E-2</v>
@@ -7402,19 +7508,19 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>948541120.77999866</v>
+        <v>948541120.77999818</v>
       </c>
       <c r="D45">
         <v>491559144709.42719</v>
       </c>
       <c r="E45">
-        <v>518.226499558829</v>
+        <v>518.22649955882935</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G45">
-        <v>-0.1373699504592881</v>
+        <v>-0.13736995045928749</v>
       </c>
       <c r="H45">
         <v>1142.482140927395</v>
@@ -7437,7 +7543,7 @@
         <v>493.72035489025421</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G46">
         <v>-0.1781624163164007</v>
@@ -7463,7 +7569,7 @@
         <v>497.69807672822151</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G47">
         <v>-0.17154117562518559</v>
@@ -7486,13 +7592,13 @@
         <v>618907706706.97668</v>
       </c>
       <c r="E48">
-        <v>540.56543443479518</v>
+        <v>540.56543443479507</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G48">
-        <v>-0.1001849811164498</v>
+        <v>-0.10018498111644999</v>
       </c>
       <c r="H48">
         <v>1191.730556754949</v>
@@ -7506,19 +7612,19 @@
         <v>4</v>
       </c>
       <c r="C49">
-        <v>952262530.87000132</v>
+        <v>952262530.87000108</v>
       </c>
       <c r="D49">
         <v>498390684016.09363</v>
       </c>
       <c r="E49">
-        <v>523.3752960549192</v>
+        <v>523.37529605491943</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G49">
-        <v>-0.12879936099642109</v>
+        <v>-0.12879936099642081</v>
       </c>
       <c r="H49">
         <v>1153.8331776826749</v>
@@ -7532,19 +7638,19 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>984094291.9800005</v>
+        <v>984094291.98000026</v>
       </c>
       <c r="D50">
         <v>505706014287.63599</v>
       </c>
       <c r="E50">
-        <v>513.87963369867134</v>
+        <v>513.87963369867146</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G50">
-        <v>-0.14460566132217689</v>
+        <v>-0.1446056613221767</v>
       </c>
       <c r="H50">
         <v>1132.899040452091</v>
@@ -7558,19 +7664,19 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>978311155.96999872</v>
+        <v>978311155.96999884</v>
       </c>
       <c r="D51">
         <v>492672276283.94421</v>
       </c>
       <c r="E51">
-        <v>503.59466237043779</v>
+        <v>503.59466237043767</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G51">
-        <v>-0.16172583046434119</v>
+        <v>-0.1617258304643413</v>
       </c>
       <c r="H51">
         <v>1110.224792661867</v>
@@ -7590,13 +7696,13 @@
         <v>599305749172.16418</v>
       </c>
       <c r="E52">
-        <v>534.58261927447609</v>
+        <v>534.58261927447597</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G52">
-        <v>-0.1101438623055294</v>
+        <v>-0.1101438623055296</v>
       </c>
       <c r="H52">
         <v>1178.5408424525101</v>
@@ -7619,7 +7725,7 @@
         <v>513.84413789304506</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G53">
         <v>-0.14466474697023221</v>
@@ -7645,7 +7751,7 @@
         <v>529.81519615357854</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G54">
         <v>-0.11807962484654649</v>
@@ -7671,7 +7777,7 @@
         <v>495.54620598249971</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>-0.1751231390515397</v>
@@ -7694,13 +7800,13 @@
         <v>584747403733.84277</v>
       </c>
       <c r="E56">
-        <v>525.21849439541586</v>
+        <v>525.21849439541575</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G56">
-        <v>-0.1257312078295538</v>
+        <v>-0.12573120782955399</v>
       </c>
       <c r="H56">
         <v>1157.896692744134</v>
@@ -7714,19 +7820,19 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>972496411.22999918</v>
+        <v>972496411.2299993</v>
       </c>
       <c r="D57">
         <v>477493529059.38373</v>
       </c>
       <c r="E57">
-        <v>490.99772867588979</v>
+        <v>490.99772867588968</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G57">
-        <v>-0.182694448522738</v>
+        <v>-0.18269444852273811</v>
       </c>
       <c r="H57">
         <v>1082.4535926388669</v>
@@ -7749,7 +7855,7 @@
         <v>488.72432920132889</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G58">
         <v>-0.18647870637723929</v>
@@ -7775,7 +7881,7 @@
         <v>474.56747720666681</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G59">
         <v>-0.21004393499424809</v>
@@ -7801,10 +7907,10 @@
         <v>509.13770456339859</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G60">
-        <v>-0.15249898705592679</v>
+        <v>-0.15249898705592671</v>
       </c>
       <c r="H60">
         <v>1122.4449834804691</v>
@@ -7827,7 +7933,7 @@
         <v>450.39472908731682</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G61">
         <v>-0.25028143524844509</v>
@@ -7844,22 +7950,22 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>974238997.65999997</v>
+        <v>974454756.63999987</v>
       </c>
       <c r="D62">
-        <v>418676753783.30981</v>
+        <v>418658420744.71368</v>
       </c>
       <c r="E62">
-        <v>429.7474796111826</v>
+        <v>429.63351340013202</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G62">
-        <v>-0.28465045700561048</v>
+        <v>-0.28484016300939108</v>
       </c>
       <c r="H62">
-        <v>947.42129355081317</v>
+        <v>947.1700436419311</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -7870,22 +7976,22 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>984097167.04000032</v>
+        <v>984290171.87</v>
       </c>
       <c r="D63">
-        <v>427421588744.22839</v>
+        <v>427416073632.89252</v>
       </c>
       <c r="E63">
-        <v>434.3286446295146</v>
+        <v>434.23787603290572</v>
       </c>
       <c r="F63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G63">
-        <v>-0.27702473618646639</v>
+        <v>-0.27717582787910688</v>
       </c>
       <c r="H63">
-        <v>957.52092995022792</v>
+        <v>957.32082150214387</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -7905,7 +8011,7 @@
         <v>497.07099226263722</v>
       </c>
       <c r="F64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G64">
         <v>-0.1725850085902573</v>
@@ -7914,7 +8020,7 @@
         <v>1095.8427095422101</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2016</v>
       </c>
@@ -7931,7 +8037,7 @@
         <v>453.92603105033641</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G65">
         <v>-0.24440329665480681</v>
@@ -7939,6 +8045,33 @@
       <c r="H65">
         <v>1000.725328053572</v>
       </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2017</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>952251175.81999993</v>
+      </c>
+      <c r="D66">
+        <v>412308981301.64178</v>
+      </c>
+      <c r="E66">
+        <v>432.98343102238277</v>
+      </c>
+      <c r="F66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G66">
+        <v>-0.27926395336573229</v>
+      </c>
+      <c r="H66">
+        <v>954.55527203194515</v>
+      </c>
+      <c r="I66" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7950,16 +8083,16 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7973,13 +8106,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7996,7 +8129,7 @@
         <v>631.30027130821691</v>
       </c>
       <c r="E2">
-        <v>5.0850515705539327E-2</v>
+        <v>5.0850515705539542E-2</v>
       </c>
       <c r="F2">
         <v>1391.7645781260951</v>
@@ -8007,19 +8140,19 @@
         <v>2002</v>
       </c>
       <c r="B3">
-        <v>3858452251.000001</v>
+        <v>3858452251</v>
       </c>
       <c r="C3">
         <v>2382178221758.9858</v>
       </c>
       <c r="D3">
-        <v>617.39217354357402</v>
+        <v>617.39217354357413</v>
       </c>
       <c r="E3">
-        <v>2.7699358684536789E-2</v>
+        <v>2.769935868453717E-2</v>
       </c>
       <c r="F3">
-        <v>1361.1027857941631</v>
+        <v>1361.102785794164</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8036,7 +8169,7 @@
         <v>619.84846821586439</v>
       </c>
       <c r="E4">
-        <v>3.1788060432996673E-2</v>
+        <v>3.1788060432996867E-2</v>
       </c>
       <c r="F4">
         <v>1366.5179330286951</v>
@@ -8053,13 +8186,13 @@
         <v>2391887810476.145</v>
       </c>
       <c r="D5">
-        <v>602.40637689702737</v>
+        <v>602.40637689702714</v>
       </c>
       <c r="E5">
-        <v>2.7542844464910538E-3</v>
+        <v>2.7542844464908652E-3</v>
       </c>
       <c r="F5">
-        <v>1328.065098507187</v>
+        <v>1328.0650985071859</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8067,13 +8200,13 @@
         <v>2005</v>
       </c>
       <c r="B6">
-        <v>4055422749.659997</v>
+        <v>4055422749.6599979</v>
       </c>
       <c r="C6">
         <v>2436302255997.813</v>
       </c>
       <c r="D6">
-        <v>600.75173573508971</v>
+        <v>600.7517357350896</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -8096,7 +8229,7 @@
         <v>587.25144441533268</v>
       </c>
       <c r="E7">
-        <v>-2.247233011027067E-2</v>
+        <v>-2.2472330110270489E-2</v>
       </c>
       <c r="F7">
         <v>1294.6545343580431</v>
@@ -8107,19 +8240,19 @@
         <v>2007</v>
       </c>
       <c r="B8">
-        <v>4156744724.000001</v>
+        <v>4156744724.0000019</v>
       </c>
       <c r="C8">
         <v>2451737857235.5132</v>
       </c>
       <c r="D8">
-        <v>589.82160801932184</v>
+        <v>589.82160801932162</v>
       </c>
       <c r="E8">
-        <v>-1.819408428740299E-2</v>
+        <v>-1.819408428740318E-2</v>
       </c>
       <c r="F8">
-        <v>1300.3207170393971</v>
+        <v>1300.320717039396</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8136,7 +8269,7 @@
         <v>581.91537359417691</v>
       </c>
       <c r="E9">
-        <v>-3.1354652879802859E-2</v>
+        <v>-3.1354652879802679E-2</v>
       </c>
       <c r="F9">
         <v>1282.890632625722</v>
@@ -8156,7 +8289,7 @@
         <v>551.94286947461501</v>
       </c>
       <c r="E10">
-        <v>-8.1246317500441964E-2</v>
+        <v>-8.1246317500441784E-2</v>
       </c>
       <c r="F10">
         <v>1216.8132500437359</v>
@@ -8176,7 +8309,7 @@
         <v>559.57158268620537</v>
       </c>
       <c r="E11">
-        <v>-6.8547705481858692E-2</v>
+        <v>-6.8547705481858526E-2</v>
       </c>
       <c r="F11">
         <v>1233.631511190008</v>
@@ -8196,7 +8329,7 @@
         <v>540.0283322561171</v>
       </c>
       <c r="E12">
-        <v>-0.10107903126517059</v>
+        <v>-0.1010790312651704</v>
       </c>
       <c r="F12">
         <v>1190.5464612918361</v>
@@ -8207,7 +8340,7 @@
         <v>2012</v>
       </c>
       <c r="B13">
-        <v>4047765266.7100019</v>
+        <v>4047765266.7100029</v>
       </c>
       <c r="C13">
         <v>2084285737971.9509</v>
@@ -8216,7 +8349,7 @@
         <v>514.92258089018208</v>
       </c>
       <c r="E13">
-        <v>-0.1428695911130172</v>
+        <v>-0.14286959111301711</v>
       </c>
       <c r="F13">
         <v>1135.1983218304949</v>
@@ -8236,7 +8369,7 @@
         <v>517.10464169984039</v>
       </c>
       <c r="E14">
-        <v>-0.13923737387607771</v>
+        <v>-0.13923737387607751</v>
       </c>
       <c r="F14">
         <v>1140.0088930914681</v>
@@ -8247,7 +8380,7 @@
         <v>2014</v>
       </c>
       <c r="B15">
-        <v>4104838663.5400009</v>
+        <v>4104838663.5400019</v>
       </c>
       <c r="C15">
         <v>2098238919257.4231</v>
@@ -8256,7 +8389,7 @@
         <v>511.16233578055119</v>
       </c>
       <c r="E15">
-        <v>-0.14912882414715861</v>
+        <v>-0.1491288241471585</v>
       </c>
       <c r="F15">
         <v>1126.9084854618029</v>
@@ -8276,7 +8409,7 @@
         <v>482.23816260960382</v>
       </c>
       <c r="E16">
-        <v>-0.19727545685818251</v>
+        <v>-0.19727545685818229</v>
       </c>
       <c r="F16">
         <v>1063.142253289132</v>
@@ -8287,19 +8420,19 @@
         <v>2016</v>
       </c>
       <c r="B17">
-        <v>4098136823.7600002</v>
+        <v>4098545587.5700002</v>
       </c>
       <c r="C17">
-        <v>1868328856882.6089</v>
+        <v>1868305008732.677</v>
       </c>
       <c r="D17">
-        <v>455.89713990281939</v>
+        <v>455.84585283102388</v>
       </c>
       <c r="E17">
-        <v>-0.2411222260640227</v>
+        <v>-0.24120759755567989</v>
       </c>
       <c r="F17">
-        <v>1005.070834629756</v>
+        <v>1004.957767151275</v>
       </c>
     </row>
   </sheetData>
